--- a/DataSets_External/EMOutput/Predictive Models_CustToContact.xlsx
+++ b/DataSets_External/EMOutput/Predictive Models_CustToContact.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Predictive Models_CustToContact" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Predictive_Models_CustToContact">Predictive Models_CustToContact!$A$1:$B$811</definedName>
+    <definedName name="Predictive_Models_CustToContact">Predictive Models_CustToContact!$A$1:$B$721</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -113,346 +113,346 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1022669840</v>
+        <v>1022676874</v>
       </c>
       <c r="B2">
-        <v>0.9941631</v>
+        <v>0.982253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1022677916</v>
+        <v>1022675869</v>
       </c>
       <c r="B3">
-        <v>0.9941306</v>
+        <v>0.9811661</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1022676924</v>
+        <v>1022670965</v>
       </c>
       <c r="B4">
-        <v>0.9940539</v>
+        <v>0.9807348</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1022678608</v>
+        <v>1022669462</v>
       </c>
       <c r="B5">
-        <v>0.9939981</v>
+        <v>0.980216</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1022675361</v>
+        <v>1022677175</v>
       </c>
       <c r="B6">
-        <v>0.9938605</v>
+        <v>0.9796556</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1022678577</v>
+        <v>1022669946</v>
       </c>
       <c r="B7">
-        <v>0.9938418</v>
+        <v>0.9769488</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1022676858</v>
+        <v>1022674815</v>
       </c>
       <c r="B8">
-        <v>0.993799</v>
+        <v>0.9760191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1022677557</v>
+        <v>1022672905</v>
       </c>
       <c r="B9">
-        <v>0.9935505</v>
+        <v>0.9742205</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1022671720</v>
+        <v>1022671083</v>
       </c>
       <c r="B10">
-        <v>0.993465</v>
+        <v>0.97247</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1022677160</v>
+        <v>1022674537</v>
       </c>
       <c r="B11">
-        <v>0.9931322</v>
+        <v>0.9692687</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1022669783</v>
+        <v>1022672309</v>
       </c>
       <c r="B12">
-        <v>0.9930255</v>
+        <v>0.9681154</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1022677221</v>
+        <v>1022674940</v>
       </c>
       <c r="B13">
-        <v>0.9929483</v>
+        <v>0.9679168</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1022671491</v>
+        <v>1022672274</v>
       </c>
       <c r="B14">
-        <v>0.9928003</v>
+        <v>0.9673537</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1022678560</v>
+        <v>1022673563</v>
       </c>
       <c r="B15">
-        <v>0.9920186</v>
+        <v>0.9666558</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1022677861</v>
+        <v>1022673498</v>
       </c>
       <c r="B16">
-        <v>0.9918502</v>
+        <v>0.9662996</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1022674564</v>
+        <v>1022674691</v>
       </c>
       <c r="B17">
-        <v>0.9913034</v>
+        <v>0.9660868</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1022677263</v>
+        <v>1022669964</v>
       </c>
       <c r="B18">
-        <v>0.9912973</v>
+        <v>0.9658518</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1022677642</v>
+        <v>1022671069</v>
       </c>
       <c r="B19">
-        <v>0.991285</v>
+        <v>0.9657894</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1022673498</v>
+        <v>1022677927</v>
       </c>
       <c r="B20">
-        <v>0.9911791</v>
+        <v>0.965187</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1022677175</v>
+        <v>1022677963</v>
       </c>
       <c r="B21">
-        <v>0.9907842</v>
+        <v>0.9648473</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1022669922</v>
+        <v>1022669840</v>
       </c>
       <c r="B22">
-        <v>0.9907638</v>
+        <v>0.9633939</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1022675101</v>
+        <v>1022675836</v>
       </c>
       <c r="B23">
-        <v>0.990642</v>
+        <v>0.9631583</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1022678145</v>
+        <v>1022674984</v>
       </c>
       <c r="B24">
-        <v>0.9905623</v>
+        <v>0.9628122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1022673681</v>
+        <v>1022669349</v>
       </c>
       <c r="B25">
-        <v>0.9905472</v>
+        <v>0.9619332</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1022672303</v>
+        <v>1022673999</v>
       </c>
       <c r="B26">
-        <v>0.9905234</v>
+        <v>0.9616665</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1022677231</v>
+        <v>1022669112</v>
       </c>
       <c r="B27">
-        <v>0.9904683</v>
+        <v>0.9591928</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1022672485</v>
+        <v>1022669161</v>
       </c>
       <c r="B28">
-        <v>0.9904587</v>
+        <v>0.9588471</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1022671083</v>
+        <v>1022672495</v>
       </c>
       <c r="B29">
-        <v>0.9904409</v>
+        <v>0.9586745</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1022675215</v>
+        <v>1022670798</v>
       </c>
       <c r="B30">
-        <v>0.9903573</v>
+        <v>0.9584684</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1022671225</v>
+        <v>1022678000</v>
       </c>
       <c r="B31">
-        <v>0.990322</v>
+        <v>0.9583527</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1022676176</v>
+        <v>1022676858</v>
       </c>
       <c r="B32">
-        <v>0.9902799</v>
+        <v>0.957622</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1022675166</v>
+        <v>1022669174</v>
       </c>
       <c r="B33">
-        <v>0.9902743</v>
+        <v>0.9575899</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1022675716</v>
+        <v>1022673570</v>
       </c>
       <c r="B34">
-        <v>0.9902094</v>
+        <v>0.9574046</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1022675921</v>
+        <v>1022669232</v>
       </c>
       <c r="B35">
-        <v>0.9901745</v>
+        <v>0.957309</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1022678647</v>
+        <v>1022675921</v>
       </c>
       <c r="B36">
-        <v>0.9901604</v>
+        <v>0.9572532</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1022668827</v>
+        <v>1022674841</v>
       </c>
       <c r="B37">
-        <v>0.9900442</v>
+        <v>0.9568766</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1022675545</v>
+        <v>1022675101</v>
       </c>
       <c r="B38">
-        <v>0.9900033</v>
+        <v>0.956848</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1022671497</v>
+        <v>1022677231</v>
       </c>
       <c r="B39">
-        <v>0.9898828</v>
+        <v>0.9565823</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1022678500</v>
+        <v>1022669922</v>
       </c>
       <c r="B40">
-        <v>0.9898443</v>
+        <v>0.9562198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1022669170</v>
+        <v>1022668976</v>
       </c>
       <c r="B41">
-        <v>0.9897278</v>
+        <v>0.9560953</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1022676874</v>
+        <v>1022671497</v>
       </c>
       <c r="B42">
-        <v>0.9896961</v>
+        <v>0.9560596</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1022670798</v>
+        <v>1022677263</v>
       </c>
       <c r="B43">
-        <v>0.9896437</v>
+        <v>0.9556232</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1022668976</v>
+        <v>1022673296</v>
       </c>
       <c r="B44">
-        <v>0.989597</v>
+        <v>0.9555503</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,375 +460,375 @@
         <v>1022677958</v>
       </c>
       <c r="B45">
-        <v>0.9895412</v>
+        <v>0.9551767</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1022669685</v>
+        <v>1022669170</v>
       </c>
       <c r="B46">
-        <v>0.9894361</v>
+        <v>0.9550697</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1022669161</v>
+        <v>1022668890</v>
       </c>
       <c r="B47">
-        <v>0.9893578</v>
+        <v>0.9545673</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1022675873</v>
+        <v>1022669984</v>
       </c>
       <c r="B48">
-        <v>0.98928</v>
+        <v>0.9544534</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1022672309</v>
+        <v>1022674216</v>
       </c>
       <c r="B49">
-        <v>0.9891465</v>
+        <v>0.9543367</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1022673973</v>
+        <v>1022671225</v>
       </c>
       <c r="B50">
-        <v>0.9890861</v>
+        <v>0.9538975</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1022677779</v>
+        <v>1022678570</v>
       </c>
       <c r="B51">
-        <v>0.9889864</v>
+        <v>0.9536072</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1022674841</v>
+        <v>1022669623</v>
       </c>
       <c r="B52">
-        <v>0.9889352</v>
+        <v>0.9534624</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1022676826</v>
+        <v>1022677642</v>
       </c>
       <c r="B53">
-        <v>0.9889227</v>
+        <v>0.952924</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1022671683</v>
+        <v>1022675166</v>
       </c>
       <c r="B54">
-        <v>0.9888978</v>
+        <v>0.9528725</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1022670226</v>
+        <v>1022670583</v>
       </c>
       <c r="B55">
-        <v>0.9888731</v>
+        <v>0.9523743</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1022669112</v>
+        <v>1022674929</v>
       </c>
       <c r="B56">
-        <v>0.9888022</v>
+        <v>0.9517445</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1022669174</v>
+        <v>1022672027</v>
       </c>
       <c r="B57">
-        <v>0.9887886</v>
+        <v>0.9512318</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1022674773</v>
+        <v>1022671720</v>
       </c>
       <c r="B58">
-        <v>0.9887316</v>
+        <v>0.9502988</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1022672723</v>
+        <v>1022675025</v>
       </c>
       <c r="B59">
-        <v>0.9887278</v>
+        <v>0.9498332</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1022674929</v>
+        <v>1022678500</v>
       </c>
       <c r="B60">
-        <v>0.9887056</v>
+        <v>0.9496813</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1022669623</v>
+        <v>1022673971</v>
       </c>
       <c r="B61">
-        <v>0.9886913</v>
+        <v>0.9496045</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1022673999</v>
+        <v>1022673240</v>
       </c>
       <c r="B62">
-        <v>0.9886879</v>
+        <v>0.9493223</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1022677963</v>
+        <v>1022677225</v>
       </c>
       <c r="B63">
-        <v>0.9886293</v>
+        <v>0.9481321</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1022673240</v>
+        <v>1022677901</v>
       </c>
       <c r="B64">
-        <v>0.9885978</v>
+        <v>0.9479593</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1022678510</v>
+        <v>1022671093</v>
       </c>
       <c r="B65">
-        <v>0.9885589</v>
+        <v>0.9473195</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1022676076</v>
+        <v>1022678155</v>
       </c>
       <c r="B66">
-        <v>0.9885465</v>
+        <v>0.9472238</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1022673563</v>
+        <v>1022671683</v>
       </c>
       <c r="B67">
-        <v>0.988539</v>
+        <v>0.9469631</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1022676066</v>
+        <v>1022671542</v>
       </c>
       <c r="B68">
-        <v>0.9884782</v>
+        <v>0.9469109</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1022674816</v>
+        <v>1022673384</v>
       </c>
       <c r="B69">
-        <v>0.9884178</v>
+        <v>0.9469073</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1022669349</v>
+        <v>1022672774</v>
       </c>
       <c r="B70">
-        <v>0.9884076</v>
+        <v>0.9464229</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1022670051</v>
+        <v>1022669570</v>
       </c>
       <c r="B71">
-        <v>0.9883352</v>
+        <v>0.9463078</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1022678150</v>
+        <v>1022673329</v>
       </c>
       <c r="B72">
-        <v>0.9883161</v>
+        <v>0.9461788</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1022677225</v>
+        <v>1022674264</v>
       </c>
       <c r="B73">
-        <v>0.9882808</v>
+        <v>0.9457672</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1022670583</v>
+        <v>1022678154</v>
       </c>
       <c r="B74">
-        <v>0.9881303</v>
+        <v>0.9455863</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1022678490</v>
+        <v>1022678145</v>
       </c>
       <c r="B75">
-        <v>0.9880913</v>
+        <v>0.945496</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1022672774</v>
+        <v>1022672666</v>
       </c>
       <c r="B76">
-        <v>0.988075</v>
+        <v>0.9451841</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1022671558</v>
+        <v>1022671050</v>
       </c>
       <c r="B77">
-        <v>0.9880479</v>
+        <v>0.944929</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1022675470</v>
+        <v>1022668790</v>
       </c>
       <c r="B78">
-        <v>0.9880136</v>
+        <v>0.944537</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1022672495</v>
+        <v>1022673681</v>
       </c>
       <c r="B79">
-        <v>0.9879579</v>
+        <v>0.944106</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1022677927</v>
+        <v>1022676924</v>
       </c>
       <c r="B80">
-        <v>0.9879529</v>
+        <v>0.9432433</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1022669232</v>
+        <v>1022674357</v>
       </c>
       <c r="B81">
-        <v>0.9878931</v>
+        <v>0.9424878</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1022675252</v>
+        <v>1022670226</v>
       </c>
       <c r="B82">
-        <v>0.9878798</v>
+        <v>0.9418197</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1022668890</v>
+        <v>1022676176</v>
       </c>
       <c r="B83">
-        <v>0.9878151</v>
+        <v>0.941653</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1022675123</v>
+        <v>1022669004</v>
       </c>
       <c r="B84">
-        <v>0.9877508</v>
+        <v>0.940943</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1022678008</v>
+        <v>1022677562</v>
       </c>
       <c r="B85">
-        <v>0.9877177</v>
+        <v>0.940687</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1022671135</v>
+        <v>1022676048</v>
       </c>
       <c r="B86">
-        <v>0.9876255</v>
+        <v>0.9401849</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1022674691</v>
+        <v>1022677675</v>
       </c>
       <c r="B87">
-        <v>0.9875489</v>
+        <v>0.9397815</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1022676175</v>
+        <v>1022678008</v>
       </c>
       <c r="B88">
-        <v>0.9874356</v>
+        <v>0.9396348</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1022672274</v>
+        <v>1022672485</v>
       </c>
       <c r="B89">
-        <v>0.9873821</v>
+        <v>0.939417</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1022677257</v>
+        <v>1022668936</v>
       </c>
       <c r="B90">
-        <v>0.9872279</v>
+        <v>0.9392022</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1022671542</v>
+        <v>1022672496</v>
       </c>
       <c r="B91">
-        <v>0.9871929</v>
+        <v>0.938569</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,95 +836,95 @@
         <v>1022671516</v>
       </c>
       <c r="B92">
-        <v>0.9869447</v>
+        <v>0.938375</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1022676324</v>
+        <v>1022670211</v>
       </c>
       <c r="B93">
-        <v>0.9868823</v>
+        <v>0.9381077</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1022669984</v>
+        <v>1022676826</v>
       </c>
       <c r="B94">
-        <v>0.9868666</v>
+        <v>0.9380471</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1022674984</v>
+        <v>1022669783</v>
       </c>
       <c r="B95">
-        <v>0.9867673</v>
+        <v>0.9374955</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1022677562</v>
+        <v>1022675470</v>
       </c>
       <c r="B96">
-        <v>0.9866573</v>
+        <v>0.9371433</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1022673362</v>
+        <v>1022674581</v>
       </c>
       <c r="B97">
-        <v>0.9866431</v>
+        <v>0.936189</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1022676048</v>
+        <v>1022675873</v>
       </c>
       <c r="B98">
-        <v>0.9863903</v>
+        <v>0.9360887</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1022677982</v>
+        <v>1022668811</v>
       </c>
       <c r="B99">
-        <v>0.9862693</v>
+        <v>0.9360861</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1022672076</v>
+        <v>1022675935</v>
       </c>
       <c r="B100">
-        <v>0.9862185</v>
+        <v>0.9353861</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1022676834</v>
+        <v>1022670051</v>
       </c>
       <c r="B101">
-        <v>0.9862092</v>
+        <v>0.9350082</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1022673682</v>
+        <v>1022677221</v>
       </c>
       <c r="B102">
-        <v>0.9861973</v>
+        <v>0.9347216</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1022678000</v>
+        <v>1022669709</v>
       </c>
       <c r="B103">
-        <v>0.9859776</v>
+        <v>0.933091</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,5663 +932,4943 @@
         <v>1022668891</v>
       </c>
       <c r="B104">
-        <v>0.9859338</v>
+        <v>0.9321457</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1022672027</v>
+        <v>1022675176</v>
       </c>
       <c r="B105">
-        <v>0.98576</v>
+        <v>0.9318713</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1022677675</v>
+        <v>1022675720</v>
       </c>
       <c r="B106">
-        <v>0.9857564</v>
+        <v>0.9316588</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1022674851</v>
+        <v>1022669638</v>
       </c>
       <c r="B107">
-        <v>0.9854701</v>
+        <v>0.9311022</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1022675757</v>
+        <v>1022675178</v>
       </c>
       <c r="B108">
-        <v>0.9852105</v>
+        <v>0.9303186</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1022674815</v>
+        <v>1022675614</v>
       </c>
       <c r="B109">
-        <v>0.984196</v>
+        <v>0.9301546</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1022673296</v>
+        <v>1022676424</v>
       </c>
       <c r="B110">
-        <v>0.9839527</v>
+        <v>0.9298389</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1022677184</v>
+        <v>1022675757</v>
       </c>
       <c r="B111">
-        <v>0.9839274</v>
+        <v>0.9298098</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1022670965</v>
+        <v>1022669685</v>
       </c>
       <c r="B112">
-        <v>0.9837503</v>
+        <v>0.9293195</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1022676647</v>
+        <v>1022676324</v>
       </c>
       <c r="B113">
-        <v>0.9835995</v>
+        <v>0.9291813</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1022668853</v>
+        <v>1022671278</v>
       </c>
       <c r="B114">
-        <v>0.9833085</v>
+        <v>0.9289315</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1022674357</v>
+        <v>1022672303</v>
       </c>
       <c r="B115">
-        <v>0.9831555</v>
+        <v>0.9282434</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1022674778</v>
+        <v>1022675123</v>
       </c>
       <c r="B116">
-        <v>0.982604</v>
+        <v>0.9281919</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1022674317</v>
+        <v>1022676846</v>
       </c>
       <c r="B117">
-        <v>0.98162</v>
+        <v>0.9279544</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1022668850</v>
+        <v>1022675320</v>
       </c>
       <c r="B118">
-        <v>0.9815963</v>
+        <v>0.9277061</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1022674797</v>
+        <v>1022676182</v>
       </c>
       <c r="B119">
-        <v>0.9805589</v>
+        <v>0.9275098</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1022671637</v>
+        <v>1022677557</v>
       </c>
       <c r="B120">
-        <v>0.9799172</v>
+        <v>0.9274885</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1022672265</v>
+        <v>1022670134</v>
       </c>
       <c r="B121">
-        <v>0.9794477</v>
+        <v>0.9267964</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1022669709</v>
+        <v>1022675865</v>
       </c>
       <c r="B122">
-        <v>0.9792154</v>
+        <v>0.9264902</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1022675025</v>
+        <v>1022669080</v>
       </c>
       <c r="B123">
-        <v>0.9791035</v>
+        <v>0.9260297</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1022671733</v>
+        <v>1022675361</v>
       </c>
       <c r="B124">
-        <v>0.9790545</v>
+        <v>0.9253966</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1022671480</v>
+        <v>1022678349</v>
       </c>
       <c r="B125">
-        <v>0.9788133</v>
+        <v>0.9248188</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1022673475</v>
+        <v>1022677184</v>
       </c>
       <c r="B126">
-        <v>0.9786111</v>
+        <v>0.9245487</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1022674497</v>
+        <v>1022677916</v>
       </c>
       <c r="B127">
-        <v>0.9766645</v>
+        <v>0.9243812</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1022677238</v>
+        <v>1022670697</v>
       </c>
       <c r="B128">
-        <v>0.9763673</v>
+        <v>0.9237742</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1022670244</v>
+        <v>1022672211</v>
       </c>
       <c r="B129">
-        <v>0.9760002</v>
+        <v>0.9235837</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1022676394</v>
+        <v>1022675716</v>
       </c>
       <c r="B130">
-        <v>0.9751258</v>
+        <v>0.9226998</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1022668802</v>
+        <v>1022669884</v>
       </c>
       <c r="B131">
-        <v>0.9747228</v>
+        <v>0.9226258</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1022673092</v>
+        <v>1022675360</v>
       </c>
       <c r="B132">
-        <v>0.9746027</v>
+        <v>0.9226042</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1022678349</v>
+        <v>1022669348</v>
       </c>
       <c r="B133">
-        <v>0.9743756</v>
+        <v>0.9220622</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1022674940</v>
+        <v>1022671532</v>
       </c>
       <c r="B134">
-        <v>0.9743402</v>
+        <v>0.9215694</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1022672424</v>
+        <v>1022670320</v>
       </c>
       <c r="B135">
-        <v>0.9735157</v>
+        <v>0.9213037</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1022670559</v>
+        <v>1022678511</v>
       </c>
       <c r="B136">
-        <v>0.9728485</v>
+        <v>0.9207371</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1022670211</v>
+        <v>1022678150</v>
       </c>
       <c r="B137">
-        <v>0.972785</v>
+        <v>0.9202298</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1022677775</v>
+        <v>1022672734</v>
       </c>
       <c r="B138">
-        <v>0.9712197</v>
+        <v>0.9200977</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1022672148</v>
+        <v>1022674110</v>
       </c>
       <c r="B139">
-        <v>0.9711512</v>
+        <v>0.9193489</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1022676976</v>
+        <v>1022675215</v>
       </c>
       <c r="B140">
-        <v>0.9689909</v>
+        <v>0.9186673</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1022669328</v>
+        <v>1022675393</v>
       </c>
       <c r="B141">
-        <v>0.9687357</v>
+        <v>0.9185641</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1022674621</v>
+        <v>1022670351</v>
       </c>
       <c r="B142">
-        <v>0.9665346</v>
+        <v>0.9185279</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1022676483</v>
+        <v>1022677779</v>
       </c>
       <c r="B143">
-        <v>0.9657804</v>
+        <v>0.9183757</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1022670021</v>
+        <v>1022674317</v>
       </c>
       <c r="B144">
-        <v>0.9653024</v>
+        <v>0.9183418</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1022674374</v>
+        <v>1022676647</v>
       </c>
       <c r="B145">
-        <v>0.9652596</v>
+        <v>0.9180087</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1022672614</v>
+        <v>1022678490</v>
       </c>
       <c r="B146">
-        <v>0.965191</v>
+        <v>0.9179332</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1022668790</v>
+        <v>1022677160</v>
       </c>
       <c r="B147">
-        <v>0.964527</v>
+        <v>0.9175977</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1022671050</v>
+        <v>1022674322</v>
       </c>
       <c r="B148">
-        <v>0.9639909</v>
+        <v>0.9171718</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1022675865</v>
+        <v>1022674325</v>
       </c>
       <c r="B149">
-        <v>0.9630934</v>
+        <v>0.916937</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1022673329</v>
+        <v>1022678577</v>
       </c>
       <c r="B150">
-        <v>0.96277</v>
+        <v>0.9167965</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1022675614</v>
+        <v>1022672265</v>
       </c>
       <c r="B151">
-        <v>0.9627121</v>
+        <v>0.9165227</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1022674264</v>
+        <v>1022673362</v>
       </c>
       <c r="B152">
-        <v>0.9618334</v>
+        <v>0.9154261</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1022677109</v>
+        <v>1022675252</v>
       </c>
       <c r="B153">
-        <v>0.961241</v>
+        <v>0.9154189</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1022675869</v>
+        <v>1022671733</v>
       </c>
       <c r="B154">
-        <v>0.9602894</v>
+        <v>0.9147887</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1022669964</v>
+        <v>1022678608</v>
       </c>
       <c r="B155">
-        <v>0.958886</v>
+        <v>0.9135964</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1022675360</v>
+        <v>1022668802</v>
       </c>
       <c r="B156">
-        <v>0.9587525</v>
+        <v>0.913096</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1022675178</v>
+        <v>1022675545</v>
       </c>
       <c r="B157">
-        <v>0.9585538</v>
+        <v>0.9128369</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1022670320</v>
+        <v>1022678560</v>
       </c>
       <c r="B158">
-        <v>0.957677</v>
+        <v>0.9124258</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1022678171</v>
+        <v>1022674497</v>
       </c>
       <c r="B159">
-        <v>0.9574588</v>
+        <v>0.9121901</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1022677841</v>
+        <v>1022674437</v>
       </c>
       <c r="B160">
-        <v>0.9571639</v>
+        <v>0.9104238</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1022678570</v>
+        <v>1022672424</v>
       </c>
       <c r="B161">
-        <v>0.9564084</v>
+        <v>0.9098072</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1022671069</v>
+        <v>1022676394</v>
       </c>
       <c r="B162">
-        <v>0.955614</v>
+        <v>0.9097911</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1022675296</v>
+        <v>1022672723</v>
       </c>
       <c r="B163">
-        <v>0.95412</v>
+        <v>0.9095743</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1022671763</v>
+        <v>1022676076</v>
       </c>
       <c r="B164">
-        <v>0.9531965</v>
+        <v>0.9094372</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1022671532</v>
+        <v>1022674797</v>
       </c>
       <c r="B165">
-        <v>0.9527284</v>
+        <v>0.9091421</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1022671669</v>
+        <v>1022678070</v>
       </c>
       <c r="B166">
-        <v>0.9521866</v>
+        <v>0.909132</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1022672666</v>
+        <v>1022674816</v>
       </c>
       <c r="B167">
-        <v>0.9490199</v>
+        <v>0.9090678</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1022678511</v>
+        <v>1022672605</v>
       </c>
       <c r="B168">
-        <v>0.9475919</v>
+        <v>0.9085134</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1022668936</v>
+        <v>1022678510</v>
       </c>
       <c r="B169">
-        <v>0.9473819</v>
+        <v>0.9066801</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1022676536</v>
+        <v>1022671135</v>
       </c>
       <c r="B170">
-        <v>0.9466444</v>
+        <v>0.9062309</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1022677216</v>
+        <v>1022677998</v>
       </c>
       <c r="B171">
-        <v>0.945146</v>
+        <v>0.905464</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1022669462</v>
+        <v>1022678647</v>
       </c>
       <c r="B172">
-        <v>0.9448827</v>
+        <v>0.9051851</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1022672905</v>
+        <v>1022677257</v>
       </c>
       <c r="B173">
-        <v>0.9439737</v>
+        <v>0.9043968</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1022678725</v>
+        <v>1022676066</v>
       </c>
       <c r="B174">
-        <v>0.9428743</v>
+        <v>0.9041015</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1022671522</v>
+        <v>1022668850</v>
       </c>
       <c r="B175">
-        <v>0.9410848</v>
+        <v>0.9031187</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1022674325</v>
+        <v>1022671558</v>
       </c>
       <c r="B176">
-        <v>0.9409509</v>
+        <v>0.9030758</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1022670326</v>
+        <v>1022674564</v>
       </c>
       <c r="B177">
-        <v>0.9405977</v>
+        <v>0.9027212</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1022675836</v>
+        <v>1022676363</v>
       </c>
       <c r="B178">
-        <v>0.9384894</v>
+        <v>0.9017411</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1022675320</v>
+        <v>1022671491</v>
       </c>
       <c r="B179">
-        <v>0.9384175</v>
+        <v>0.9015384</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1022673570</v>
+        <v>1022677216</v>
       </c>
       <c r="B180">
-        <v>0.9382164</v>
+        <v>0.8992805</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1022675679</v>
+        <v>1022675871</v>
       </c>
       <c r="B181">
-        <v>0.9379613</v>
+        <v>0.8987384</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1022676846</v>
+        <v>1022673475</v>
       </c>
       <c r="B182">
-        <v>0.9371226</v>
+        <v>0.8984182</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1022677526</v>
+        <v>1022674773</v>
       </c>
       <c r="B183">
-        <v>0.9340449</v>
+        <v>0.8982446</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1022677863</v>
+        <v>1022671858</v>
       </c>
       <c r="B184">
-        <v>0.933086</v>
+        <v>0.8956273</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1022675871</v>
+        <v>1022676358</v>
       </c>
       <c r="B185">
-        <v>0.9330579</v>
+        <v>0.8954136</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1022674110</v>
+        <v>1022670244</v>
       </c>
       <c r="B186">
-        <v>0.931513</v>
+        <v>0.8945784</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1022669946</v>
+        <v>1022671400</v>
       </c>
       <c r="B187">
-        <v>0.931292</v>
+        <v>0.89455</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1022675409</v>
+        <v>1022671998</v>
       </c>
       <c r="B188">
-        <v>0.9310829</v>
+        <v>0.8941692</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1022671093</v>
+        <v>1022677861</v>
       </c>
       <c r="B189">
-        <v>0.9310244</v>
+        <v>0.8937818</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1022673384</v>
+        <v>1022676307</v>
       </c>
       <c r="B190">
-        <v>0.9307974</v>
+        <v>0.8936819</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1022675507</v>
+        <v>1022675002</v>
       </c>
       <c r="B191">
-        <v>0.9305481</v>
+        <v>0.8927134</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1022670351</v>
+        <v>1022670428</v>
       </c>
       <c r="B192">
-        <v>0.9296523</v>
+        <v>0.892063</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1022669080</v>
+        <v>1022676644</v>
       </c>
       <c r="B193">
-        <v>0.9294988</v>
+        <v>0.8919707</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1022669276</v>
+        <v>1022675295</v>
       </c>
       <c r="B194">
-        <v>0.9289665</v>
+        <v>0.8919388</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1022673171</v>
+        <v>1022674682</v>
       </c>
       <c r="B195">
-        <v>0.9286412</v>
+        <v>0.8909481</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1022676696</v>
+        <v>1022670267</v>
       </c>
       <c r="B196">
-        <v>0.9285297</v>
+        <v>0.8902906</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1022676644</v>
+        <v>1022672933</v>
       </c>
       <c r="B197">
-        <v>0.9279118</v>
+        <v>0.8901793</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1022674537</v>
+        <v>1022672166</v>
       </c>
       <c r="B198">
-        <v>0.9270578</v>
+        <v>0.8891043</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1022669004</v>
+        <v>1022677109</v>
       </c>
       <c r="B199">
-        <v>0.9267052</v>
+        <v>0.8889452</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1022676363</v>
+        <v>1022669360</v>
       </c>
       <c r="B200">
-        <v>0.9253729</v>
+        <v>0.8889394</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1022672088</v>
+        <v>1022670021</v>
       </c>
       <c r="B201">
-        <v>0.9239628</v>
+        <v>0.8887024</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1022674216</v>
+        <v>1022671846</v>
       </c>
       <c r="B202">
-        <v>0.9204749</v>
+        <v>0.8886314</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1022677901</v>
+        <v>1022677526</v>
       </c>
       <c r="B203">
-        <v>0.9184076</v>
+        <v>0.8880639</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1022672211</v>
+        <v>1022675030</v>
       </c>
       <c r="B204">
-        <v>0.9176506</v>
+        <v>0.8878505</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1022676307</v>
+        <v>1022670680</v>
       </c>
       <c r="B205">
-        <v>0.9156918</v>
+        <v>0.8876206</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1022669986</v>
+        <v>1022672076</v>
       </c>
       <c r="B206">
-        <v>0.9142921</v>
+        <v>0.8875022</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1022674322</v>
+        <v>1022674778</v>
       </c>
       <c r="B207">
-        <v>0.91356</v>
+        <v>0.8870813</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1022669838</v>
+        <v>1022672855</v>
       </c>
       <c r="B208">
-        <v>0.9132323</v>
+        <v>0.8868199</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1022672228</v>
+        <v>1022668827</v>
       </c>
       <c r="B209">
-        <v>0.9123957</v>
+        <v>0.8863749</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1022670608</v>
+        <v>1022676567</v>
       </c>
       <c r="B210">
-        <v>0.909242</v>
+        <v>0.8863409</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1022672701</v>
+        <v>1022675485</v>
       </c>
       <c r="B211">
-        <v>0.9089643</v>
+        <v>0.886165</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1022676867</v>
+        <v>1022671669</v>
       </c>
       <c r="B212">
-        <v>0.908362</v>
+        <v>0.8853318</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1022673467</v>
+        <v>1022670326</v>
       </c>
       <c r="B213">
-        <v>0.9072468</v>
+        <v>0.8850149</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1022669595</v>
+        <v>1022672689</v>
       </c>
       <c r="B214">
-        <v>0.9065697</v>
+        <v>0.8845405</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1022675720</v>
+        <v>1022672228</v>
       </c>
       <c r="B215">
-        <v>0.9060479</v>
+        <v>0.8843547</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1022670267</v>
+        <v>1022678458</v>
       </c>
       <c r="B216">
-        <v>0.904611</v>
+        <v>0.8836931</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1022677459</v>
+        <v>1022675859</v>
       </c>
       <c r="B217">
-        <v>0.9042348</v>
+        <v>0.8836524</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1022675485</v>
+        <v>1022676536</v>
       </c>
       <c r="B218">
-        <v>0.9027944</v>
+        <v>0.882803</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1022671656</v>
+        <v>1022677841</v>
       </c>
       <c r="B219">
-        <v>0.902595</v>
+        <v>0.882462</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1022669884</v>
+        <v>1022669920</v>
       </c>
       <c r="B220">
-        <v>0.902439</v>
+        <v>0.8823039</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1022674957</v>
+        <v>1022675005</v>
       </c>
       <c r="B221">
-        <v>0.9021522</v>
+        <v>0.8813378</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1022673068</v>
+        <v>1022670941</v>
       </c>
       <c r="B222">
-        <v>0.9018259</v>
+        <v>0.8788719</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1022670941</v>
+        <v>1022671637</v>
       </c>
       <c r="B223">
-        <v>0.8981211</v>
+        <v>0.8785088</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1022677077</v>
+        <v>1022669328</v>
       </c>
       <c r="B224">
-        <v>0.8978203</v>
+        <v>0.876913</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1022672734</v>
+        <v>1022671763</v>
       </c>
       <c r="B225">
-        <v>0.8961685</v>
+        <v>0.8765805</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1022671400</v>
+        <v>1022669276</v>
       </c>
       <c r="B226">
-        <v>0.8958034</v>
+        <v>0.8764618</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1022674682</v>
+        <v>1022678171</v>
       </c>
       <c r="B227">
-        <v>0.8951509</v>
+        <v>0.8764007</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1022675935</v>
+        <v>1022672701</v>
       </c>
       <c r="B228">
-        <v>0.8948721</v>
+        <v>0.8763953</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1022670736</v>
+        <v>1022675755</v>
       </c>
       <c r="B229">
-        <v>0.8941422</v>
+        <v>0.8759799</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1022677838</v>
+        <v>1022673813</v>
       </c>
       <c r="B230">
-        <v>0.892003</v>
+        <v>0.8754695</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1022675002</v>
+        <v>1022672075</v>
       </c>
       <c r="B231">
-        <v>0.8916148</v>
+        <v>0.8751588</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1022670428</v>
+        <v>1022677857</v>
       </c>
       <c r="B232">
-        <v>0.891243</v>
+        <v>0.8750582</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1022670134</v>
+        <v>1022675584</v>
       </c>
       <c r="B233">
-        <v>0.8893584</v>
+        <v>0.875026</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1022675176</v>
+        <v>1022677422</v>
       </c>
       <c r="B234">
-        <v>0.8885565</v>
+        <v>0.8745599</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1022671846</v>
+        <v>1022674851</v>
       </c>
       <c r="B235">
-        <v>0.8868219</v>
+        <v>0.8739571</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1022676182</v>
+        <v>1022675296</v>
       </c>
       <c r="B236">
-        <v>0.8853798</v>
+        <v>0.8734432</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1022672286</v>
+        <v>1022674168</v>
       </c>
       <c r="B237">
-        <v>0.8849955</v>
+        <v>0.8729113</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1022678458</v>
+        <v>1022670507</v>
       </c>
       <c r="B238">
-        <v>0.8847061</v>
+        <v>0.8717032</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1022669368</v>
+        <v>1022671038</v>
       </c>
       <c r="B239">
-        <v>0.8836764</v>
+        <v>0.87162</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1022669348</v>
+        <v>1022677657</v>
       </c>
       <c r="B240">
-        <v>0.8833961</v>
+        <v>0.8711443</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1022670505</v>
+        <v>1022674957</v>
       </c>
       <c r="B241">
-        <v>0.8832686</v>
+        <v>0.8710862</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1022677979</v>
+        <v>1022677670</v>
       </c>
       <c r="B242">
-        <v>0.8822906</v>
+        <v>0.8709426</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1022668811</v>
+        <v>1022677238</v>
       </c>
       <c r="B243">
-        <v>0.8803259</v>
+        <v>0.8703643</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1022672451</v>
+        <v>1022676696</v>
       </c>
       <c r="B244">
-        <v>0.8783315</v>
+        <v>0.8685664</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1022678182</v>
+        <v>1022672451</v>
       </c>
       <c r="B245">
-        <v>0.8770138</v>
+        <v>0.8678256</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1022670697</v>
+        <v>1022678182</v>
       </c>
       <c r="B246">
-        <v>0.8754906</v>
+        <v>0.867101</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1022678155</v>
+        <v>1022670736</v>
       </c>
       <c r="B247">
-        <v>0.8751205</v>
+        <v>0.8669811</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1022673163</v>
+        <v>1022669233</v>
       </c>
       <c r="B248">
-        <v>0.873477</v>
+        <v>0.86675</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1022677503</v>
+        <v>1022677471</v>
       </c>
       <c r="B249">
-        <v>0.8731712</v>
+        <v>0.8651288</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1022675280</v>
+        <v>1022672642</v>
       </c>
       <c r="B250">
-        <v>0.8719647</v>
+        <v>0.8647884</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1022669018</v>
+        <v>1022672148</v>
       </c>
       <c r="B251">
-        <v>0.8704263</v>
+        <v>0.8644401</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1022672273</v>
+        <v>1022671522</v>
       </c>
       <c r="B252">
-        <v>0.8704083</v>
+        <v>0.8636607</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1022677422</v>
+        <v>1022677992</v>
       </c>
       <c r="B253">
-        <v>0.8701558</v>
+        <v>0.8633627</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1022672933</v>
+        <v>1022673068</v>
       </c>
       <c r="B254">
-        <v>0.8680879</v>
+        <v>0.862844</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1022672496</v>
+        <v>1022669508</v>
       </c>
       <c r="B255">
-        <v>0.8678564</v>
+        <v>0.8611019</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1022671278</v>
+        <v>1022675298</v>
       </c>
       <c r="B256">
-        <v>0.866453</v>
+        <v>0.8604787</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1022678374</v>
+        <v>1022673092</v>
       </c>
       <c r="B257">
-        <v>0.8661239</v>
+        <v>0.8595278</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1022675295</v>
+        <v>1022675679</v>
       </c>
       <c r="B258">
-        <v>0.8661055</v>
+        <v>0.8594433</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1022676358</v>
+        <v>1022672631</v>
       </c>
       <c r="B259">
-        <v>0.8651521</v>
+        <v>0.8590383</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1022671787</v>
+        <v>1022673567</v>
       </c>
       <c r="B260">
-        <v>0.8647286</v>
+        <v>0.8588158</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1022673971</v>
+        <v>1022674374</v>
       </c>
       <c r="B261">
-        <v>0.8631033</v>
+        <v>0.8582335</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1022669508</v>
+        <v>1022671656</v>
       </c>
       <c r="B262">
-        <v>0.8629306</v>
+        <v>0.856684</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1022670507</v>
+        <v>1022678237</v>
       </c>
       <c r="B263">
-        <v>0.8620869</v>
+        <v>0.8559956</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1022670516</v>
+        <v>1022677775</v>
       </c>
       <c r="B264">
-        <v>0.8618973</v>
+        <v>0.8555466</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1022669570</v>
+        <v>1022668833</v>
       </c>
       <c r="B265">
-        <v>0.86185</v>
+        <v>0.8552464</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1022677992</v>
+        <v>1022673973</v>
       </c>
       <c r="B266">
-        <v>0.8618192</v>
+        <v>0.8545813</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1022674513</v>
+        <v>1022670609</v>
       </c>
       <c r="B267">
-        <v>0.8618042</v>
+        <v>0.8541988</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1022675859</v>
+        <v>1022673163</v>
       </c>
       <c r="B268">
-        <v>0.8593167</v>
+        <v>0.8537233</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1022671038</v>
+        <v>1022668932</v>
       </c>
       <c r="B269">
-        <v>0.8588838</v>
+        <v>0.8528392</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1022678154</v>
+        <v>1022677982</v>
       </c>
       <c r="B270">
-        <v>0.8585841</v>
+        <v>0.8527552</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1022677670</v>
+        <v>1022674466</v>
       </c>
       <c r="B271">
-        <v>0.8583184</v>
+        <v>0.8514588</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1022675268</v>
+        <v>1022671839</v>
       </c>
       <c r="B272">
-        <v>0.8580713</v>
+        <v>0.8510495</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1022678532</v>
+        <v>1022675494</v>
       </c>
       <c r="B273">
-        <v>0.8568448</v>
+        <v>0.8502768</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1022672966</v>
+        <v>1022676198</v>
       </c>
       <c r="B274">
-        <v>0.8559074</v>
+        <v>0.8499844</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>1022668783</v>
+        <v>1022668965</v>
       </c>
       <c r="B275">
-        <v>0.85485</v>
+        <v>0.8498698</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>1022669638</v>
+        <v>1022676175</v>
       </c>
       <c r="B276">
-        <v>0.8547185</v>
+        <v>0.849752</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1022677365</v>
+        <v>1022674482</v>
       </c>
       <c r="B277">
-        <v>0.8543408</v>
+        <v>0.8497251</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1022672689</v>
+        <v>1022671959</v>
       </c>
       <c r="B278">
-        <v>0.8540318</v>
+        <v>0.8484702</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1022674581</v>
+        <v>1022669383</v>
       </c>
       <c r="B279">
-        <v>0.8539983</v>
+        <v>0.8473477</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1022675584</v>
+        <v>1022672286</v>
       </c>
       <c r="B280">
-        <v>0.853495</v>
+        <v>0.8473004</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1022676424</v>
+        <v>1022673171</v>
       </c>
       <c r="B281">
-        <v>0.8528186</v>
+        <v>0.8464327</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1022671923</v>
+        <v>1022672607</v>
       </c>
       <c r="B282">
-        <v>0.8526647</v>
+        <v>0.8452665</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1022675298</v>
+        <v>1022672885</v>
       </c>
       <c r="B283">
-        <v>0.8525833</v>
+        <v>0.8451911</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1022673129</v>
+        <v>1022671182</v>
       </c>
       <c r="B284">
-        <v>0.8520834</v>
+        <v>0.8446625</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1022671611</v>
+        <v>1022674621</v>
       </c>
       <c r="B285">
-        <v>0.8520647</v>
+        <v>0.8443336</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1022672631</v>
+        <v>1022674635</v>
       </c>
       <c r="B286">
-        <v>0.8518709</v>
+        <v>0.8439593</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1022678231</v>
+        <v>1022678011</v>
       </c>
       <c r="B287">
-        <v>0.8518023</v>
+        <v>0.8435616</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>1022675030</v>
+        <v>1022673129</v>
       </c>
       <c r="B288">
-        <v>0.8516371</v>
+        <v>0.8430052</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>1022669920</v>
+        <v>1022677077</v>
       </c>
       <c r="B289">
-        <v>0.8515614</v>
+        <v>0.8412746</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1022672737</v>
+        <v>1022672428</v>
       </c>
       <c r="B290">
-        <v>0.8514587</v>
+        <v>0.8373255</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1022670609</v>
+        <v>1022669595</v>
       </c>
       <c r="B291">
-        <v>0.8513773</v>
+        <v>0.8369271</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1022675755</v>
+        <v>1022673467</v>
       </c>
       <c r="B292">
-        <v>0.8512931</v>
+        <v>0.83648</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1022672075</v>
+        <v>1022669368</v>
       </c>
       <c r="B293">
-        <v>0.8510166</v>
+        <v>0.836324</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1022668768</v>
+        <v>1022678212</v>
       </c>
       <c r="B294">
-        <v>0.8503397</v>
+        <v>0.8357719</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1022678212</v>
+        <v>1022675268</v>
       </c>
       <c r="B295">
-        <v>0.8502077</v>
+        <v>0.8350724</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>1022669360</v>
+        <v>1022670505</v>
       </c>
       <c r="B296">
-        <v>0.8499212</v>
+        <v>0.8347139</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>1022678070</v>
+        <v>1022672966</v>
       </c>
       <c r="B297">
-        <v>0.8494482</v>
+        <v>0.8344265</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1022674114</v>
+        <v>1022678163</v>
       </c>
       <c r="B298">
-        <v>0.849381</v>
+        <v>0.8342148</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1022671998</v>
+        <v>1022678725</v>
       </c>
       <c r="B299">
-        <v>0.84915</v>
+        <v>0.8322583</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1022674437</v>
+        <v>1022674298</v>
       </c>
       <c r="B300">
-        <v>0.848737</v>
+        <v>0.8314867</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>1022673306</v>
+        <v>1022677979</v>
       </c>
       <c r="B301">
-        <v>0.8484992</v>
+        <v>0.8304515</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>1022675512</v>
+        <v>1022677365</v>
       </c>
       <c r="B302">
-        <v>0.8477123</v>
+        <v>0.829078</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>1022676870</v>
+        <v>1022676976</v>
       </c>
       <c r="B303">
-        <v>0.8470292</v>
+        <v>0.826516</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1022671205</v>
+        <v>1022676185</v>
       </c>
       <c r="B304">
-        <v>0.8462036</v>
+        <v>0.8244877</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1022669166</v>
+        <v>1022677937</v>
       </c>
       <c r="B305">
-        <v>0.8459044</v>
+        <v>0.8232276</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1022674690</v>
+        <v>1022674709</v>
       </c>
       <c r="B306">
-        <v>0.8457974</v>
+        <v>0.8227114</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1022677471</v>
+        <v>1022677573</v>
       </c>
       <c r="B307">
-        <v>0.845089</v>
+        <v>0.8223042</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1022669233</v>
+        <v>1022674782</v>
       </c>
       <c r="B308">
-        <v>0.8449972</v>
+        <v>0.821484</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1022673451</v>
+        <v>1022669968</v>
       </c>
       <c r="B309">
-        <v>0.8448871</v>
+        <v>0.8209024</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1022674782</v>
+        <v>1022674690</v>
       </c>
       <c r="B310">
-        <v>0.8439665</v>
+        <v>0.8204044</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1022674709</v>
+        <v>1022675507</v>
       </c>
       <c r="B311">
-        <v>0.843072</v>
+        <v>0.819045</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>1022677297</v>
+        <v>1022675280</v>
       </c>
       <c r="B312">
-        <v>0.8430245</v>
+        <v>0.81846</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>1022676084</v>
+        <v>1022672737</v>
       </c>
       <c r="B313">
-        <v>0.8429628</v>
+        <v>0.8182562</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>1022670475</v>
+        <v>1022678374</v>
       </c>
       <c r="B314">
-        <v>0.8426634</v>
+        <v>0.8166873</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>1022675494</v>
+        <v>1022676349</v>
       </c>
       <c r="B315">
-        <v>0.8423423</v>
+        <v>0.8161647</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>1022671413</v>
+        <v>1022673264</v>
       </c>
       <c r="B316">
-        <v>0.8406809</v>
+        <v>0.8144059</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>1022668906</v>
+        <v>1022671205</v>
       </c>
       <c r="B317">
-        <v>0.8402034</v>
+        <v>0.8132146</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1022673813</v>
+        <v>1022668783</v>
       </c>
       <c r="B318">
-        <v>0.8376888</v>
+        <v>0.8129515</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1022671839</v>
+        <v>1022675565</v>
       </c>
       <c r="B319">
-        <v>0.8375774</v>
+        <v>0.8112591</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1022669383</v>
+        <v>1022672398</v>
       </c>
       <c r="B320">
-        <v>0.8372496</v>
+        <v>0.8109027</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1022676960</v>
+        <v>1022677962</v>
       </c>
       <c r="B321">
-        <v>0.8361434</v>
+        <v>0.8102202</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1022669732</v>
+        <v>1022670559</v>
       </c>
       <c r="B322">
-        <v>0.8359451</v>
+        <v>0.8088131</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>1022674482</v>
+        <v>1022675226</v>
       </c>
       <c r="B323">
-        <v>0.835272</v>
+        <v>0.8068785</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1022676148</v>
+        <v>1022673306</v>
       </c>
       <c r="B324">
-        <v>0.8337352</v>
+        <v>0.8054872</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1022673151</v>
+        <v>1022676834</v>
       </c>
       <c r="B325">
-        <v>0.8310287</v>
+        <v>0.8052859</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1022676198</v>
+        <v>1022670523</v>
       </c>
       <c r="B326">
-        <v>0.8307549</v>
+        <v>0.804875</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1022670444</v>
+        <v>1022669744</v>
       </c>
       <c r="B327">
-        <v>0.8292092</v>
+        <v>0.804382</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1022677573</v>
+        <v>1022676178</v>
       </c>
       <c r="B328">
-        <v>0.8289504</v>
+        <v>0.8039286</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1022672605</v>
+        <v>1022669260</v>
       </c>
       <c r="B329">
-        <v>0.8281757</v>
+        <v>0.8030963</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1022672607</v>
+        <v>1022674513</v>
       </c>
       <c r="B330">
-        <v>0.8267728</v>
+        <v>0.802863</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1022668965</v>
+        <v>1022669166</v>
       </c>
       <c r="B331">
-        <v>0.8257765</v>
+        <v>0.802718</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1022670523</v>
+        <v>1022670484</v>
       </c>
       <c r="B332">
-        <v>0.824056</v>
+        <v>0.8025075</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1022677857</v>
+        <v>1022670295</v>
       </c>
       <c r="B333">
-        <v>0.8215749</v>
+        <v>0.8009674</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1022676349</v>
+        <v>1022669986</v>
       </c>
       <c r="B334">
-        <v>0.8209813</v>
+        <v>0.8003491</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1022676020</v>
+        <v>1022676867</v>
       </c>
       <c r="B335">
-        <v>0.8209484</v>
+        <v>0.8002865</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1022669084</v>
+        <v>1022670444</v>
       </c>
       <c r="B336">
-        <v>0.8199003</v>
+        <v>0.7992967</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1022671831</v>
+        <v>1022671283</v>
       </c>
       <c r="B337">
-        <v>0.8152503</v>
+        <v>0.7983301</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1022672642</v>
+        <v>1022670475</v>
       </c>
       <c r="B338">
-        <v>0.814839</v>
+        <v>0.796854</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>1022677327</v>
+        <v>1022671480</v>
       </c>
       <c r="B339">
-        <v>0.8146712</v>
+        <v>0.7957497</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1022670295</v>
+        <v>1022674976</v>
       </c>
       <c r="B340">
-        <v>0.8118239</v>
+        <v>0.7952293</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>1022672885</v>
+        <v>1022670025</v>
       </c>
       <c r="B341">
-        <v>0.8112873</v>
+        <v>0.7951604</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1022676211</v>
+        <v>1022677459</v>
       </c>
       <c r="B342">
-        <v>0.8107724</v>
+        <v>0.7938799</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>1022678315</v>
+        <v>1022674959</v>
       </c>
       <c r="B343">
-        <v>0.8106153</v>
+        <v>0.7935815</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>1022676899</v>
+        <v>1022676766</v>
       </c>
       <c r="B344">
-        <v>0.8095243</v>
+        <v>0.7922315</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>1022669744</v>
+        <v>1022678614</v>
       </c>
       <c r="B345">
-        <v>0.8086948</v>
+        <v>0.7912221</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>1022669777</v>
+        <v>1022668768</v>
       </c>
       <c r="B346">
-        <v>0.8085101</v>
+        <v>0.7909983</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1022674211</v>
+        <v>1022673151</v>
       </c>
       <c r="B347">
-        <v>0.8062336</v>
+        <v>0.7909657</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>1022677069</v>
+        <v>1022671611</v>
       </c>
       <c r="B348">
-        <v>0.8054955</v>
+        <v>0.7896492</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1022671983</v>
+        <v>1022677838</v>
       </c>
       <c r="B349">
-        <v>0.8054882</v>
+        <v>0.7888799</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>1022670451</v>
+        <v>1022675409</v>
       </c>
       <c r="B350">
-        <v>0.8050274</v>
+        <v>0.7888642</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1022674298</v>
+        <v>1022673682</v>
       </c>
       <c r="B351">
-        <v>0.8048896</v>
+        <v>0.7888379</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1022678533</v>
+        <v>1022677314</v>
       </c>
       <c r="B352">
-        <v>0.804369</v>
+        <v>0.7872002</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>1022670484</v>
+        <v>1022676020</v>
       </c>
       <c r="B353">
-        <v>0.8027999</v>
+        <v>0.7828461</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1022674976</v>
+        <v>1022669475</v>
       </c>
       <c r="B354">
-        <v>0.8024065</v>
+        <v>0.7821276</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1022677998</v>
+        <v>1022672088</v>
       </c>
       <c r="B355">
-        <v>0.801775</v>
+        <v>0.7818064</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>1022671803</v>
+        <v>1022670451</v>
       </c>
       <c r="B356">
-        <v>0.7995709</v>
+        <v>0.7801129</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>1022670940</v>
+        <v>1022669870</v>
       </c>
       <c r="B357">
-        <v>0.7977285</v>
+        <v>0.7796103</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>1022673395</v>
+        <v>1022671803</v>
       </c>
       <c r="B358">
-        <v>0.7967717</v>
+        <v>0.7793699</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>1022675714</v>
+        <v>1022669777</v>
       </c>
       <c r="B359">
-        <v>0.7957564</v>
+        <v>0.7782338</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>1022669968</v>
+        <v>1022678533</v>
       </c>
       <c r="B360">
-        <v>0.7922564</v>
+        <v>0.7768081</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>1022677962</v>
+        <v>1022670940</v>
       </c>
       <c r="B361">
-        <v>0.7922014</v>
+        <v>0.7767802</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>1022671182</v>
+        <v>1022678231</v>
       </c>
       <c r="B362">
-        <v>0.7909161</v>
+        <v>0.7733978</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>1022674930</v>
+        <v>1022678602</v>
       </c>
       <c r="B363">
-        <v>0.7865683</v>
+        <v>0.7726853</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1022678363</v>
+        <v>1022670029</v>
       </c>
       <c r="B364">
-        <v>0.7858198</v>
+        <v>0.7708354</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>1022677658</v>
+        <v>1022671689</v>
       </c>
       <c r="B365">
-        <v>0.7835057</v>
+        <v>0.7684869</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>1022672894</v>
+        <v>1022668990</v>
       </c>
       <c r="B366">
-        <v>0.782846</v>
+        <v>0.7665513</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>1022674959</v>
+        <v>1022670516</v>
       </c>
       <c r="B367">
-        <v>0.782121</v>
+        <v>0.7662726</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>1022669002</v>
+        <v>1022669018</v>
       </c>
       <c r="B368">
-        <v>0.7811023</v>
+        <v>0.7661295</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>1022678237</v>
+        <v>1022668906</v>
       </c>
       <c r="B369">
-        <v>0.7810211</v>
+        <v>0.7635672</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>1022678614</v>
+        <v>1022669025</v>
       </c>
       <c r="B370">
-        <v>0.7809598</v>
+        <v>0.7610554</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>1022676178</v>
+        <v>1022671170</v>
       </c>
       <c r="B371">
-        <v>0.7799634</v>
+        <v>0.7606319</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>1022671959</v>
+        <v>1022673334</v>
       </c>
       <c r="B372">
-        <v>0.7797751</v>
+        <v>0.7602511</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>1022670071</v>
+        <v>1022678415</v>
       </c>
       <c r="B373">
-        <v>0.7781966</v>
+        <v>0.7569038</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1022669883</v>
+        <v>1022677361</v>
       </c>
       <c r="B374">
-        <v>0.77778</v>
+        <v>0.7568641</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1022672398</v>
+        <v>1022675024</v>
       </c>
       <c r="B375">
-        <v>0.7757241</v>
+        <v>0.7561168</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1022674653</v>
+        <v>1022670055</v>
       </c>
       <c r="B376">
-        <v>0.7753122</v>
+        <v>0.7544278</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>1022672855</v>
+        <v>1022669652</v>
       </c>
       <c r="B377">
-        <v>0.7750941</v>
+        <v>0.7540391</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1022678383</v>
+        <v>1022670273</v>
       </c>
       <c r="B378">
-        <v>0.7725357</v>
+        <v>0.7537733</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>1022668990</v>
+        <v>1022670955</v>
       </c>
       <c r="B379">
-        <v>0.7718114</v>
+        <v>0.7536305</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>1022678236</v>
+        <v>1022676148</v>
       </c>
       <c r="B380">
-        <v>0.7691174</v>
+        <v>0.7528861</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>1022670273</v>
+        <v>1022677297</v>
       </c>
       <c r="B381">
-        <v>0.7689897</v>
+        <v>0.7522219</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>1022674460</v>
+        <v>1022671831</v>
       </c>
       <c r="B382">
-        <v>0.7661227</v>
+        <v>0.7497125</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>1022677999</v>
+        <v>1022677145</v>
       </c>
       <c r="B383">
-        <v>0.7655494</v>
+        <v>0.7492422</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>1022673567</v>
+        <v>1022669391</v>
       </c>
       <c r="B384">
-        <v>0.7640765</v>
+        <v>0.7477419</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>1022677657</v>
+        <v>1022674211</v>
       </c>
       <c r="B385">
-        <v>0.7640745</v>
+        <v>0.7469476</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>1022669449</v>
+        <v>1022669838</v>
       </c>
       <c r="B386">
-        <v>0.7606337</v>
+        <v>0.7469183</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>1022671664</v>
+        <v>1022672867</v>
       </c>
       <c r="B387">
-        <v>0.7565459</v>
+        <v>0.7459969</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1022672042</v>
+        <v>1022677278</v>
       </c>
       <c r="B388">
-        <v>0.752733</v>
+        <v>0.7452231</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1022672801</v>
+        <v>1022671413</v>
       </c>
       <c r="B389">
-        <v>0.7510736</v>
+        <v>0.7445333</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>1022676567</v>
+        <v>1022676084</v>
       </c>
       <c r="B390">
-        <v>0.7508433</v>
+        <v>0.7409227</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>1022669079</v>
+        <v>1022674246</v>
       </c>
       <c r="B391">
-        <v>0.74934</v>
+        <v>0.7409031</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1022670819</v>
+        <v>1022670071</v>
       </c>
       <c r="B392">
-        <v>0.7449786</v>
+        <v>0.739885</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1022676185</v>
+        <v>1022672101</v>
       </c>
       <c r="B393">
-        <v>0.7448522</v>
+        <v>0.7373764</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>1022669652</v>
+        <v>1022673328</v>
       </c>
       <c r="B394">
-        <v>0.7442493</v>
+        <v>0.7368195</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>1022669559</v>
+        <v>1022673451</v>
       </c>
       <c r="B395">
-        <v>0.7413975</v>
+        <v>0.7359924</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>1022677493</v>
+        <v>1022668863</v>
       </c>
       <c r="B396">
-        <v>0.7406396</v>
+        <v>0.7338204</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>1022674098</v>
+        <v>1022677503</v>
       </c>
       <c r="B397">
-        <v>0.7404089</v>
+        <v>0.732126</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1022677299</v>
+        <v>1022671969</v>
       </c>
       <c r="B398">
-        <v>0.7380086</v>
+        <v>0.7319679</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1022672399</v>
+        <v>1022670777</v>
       </c>
       <c r="B399">
-        <v>0.7358484</v>
+        <v>0.7317928</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1022671283</v>
+        <v>1022676970</v>
       </c>
       <c r="B400">
-        <v>0.7347227</v>
+        <v>0.729811</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1022671424</v>
+        <v>1022677069</v>
       </c>
       <c r="B401">
-        <v>0.733216</v>
+        <v>0.7283276</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1022669494</v>
+        <v>1022677583</v>
       </c>
       <c r="B402">
-        <v>0.7323093</v>
+        <v>0.7255484</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1022677314</v>
+        <v>1022674106</v>
       </c>
       <c r="B403">
-        <v>0.7307478</v>
+        <v>0.7248054</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>1022670025</v>
+        <v>1022674757</v>
       </c>
       <c r="B404">
-        <v>0.730639</v>
+        <v>0.7224823</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>1022674801</v>
+        <v>1022669494</v>
       </c>
       <c r="B405">
-        <v>0.7301254</v>
+        <v>0.722158</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>1022674168</v>
+        <v>1022671787</v>
       </c>
       <c r="B406">
-        <v>0.7297313</v>
+        <v>0.7220419</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>1022673738</v>
+        <v>1022676434</v>
       </c>
       <c r="B407">
-        <v>0.729097</v>
+        <v>0.7211998</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>1022675356</v>
+        <v>1022675645</v>
       </c>
       <c r="B408">
-        <v>0.7274688</v>
+        <v>0.7195568</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1022674097</v>
+        <v>1022668853</v>
       </c>
       <c r="B409">
-        <v>0.7255663</v>
+        <v>0.719349</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>1022672412</v>
+        <v>1022675051</v>
       </c>
       <c r="B410">
-        <v>0.7253237</v>
+        <v>0.7178633</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>1022678011</v>
+        <v>1022677128</v>
       </c>
       <c r="B411">
-        <v>0.725083</v>
+        <v>0.717668</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>1022669025</v>
+        <v>1022677608</v>
       </c>
       <c r="B412">
-        <v>0.7235252</v>
+        <v>0.7154266</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>1022676210</v>
+        <v>1022675714</v>
       </c>
       <c r="B413">
-        <v>0.7222015</v>
+        <v>0.7124097</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>1022671858</v>
+        <v>1022678363</v>
       </c>
       <c r="B414">
-        <v>0.7221054</v>
+        <v>0.7100001</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>1022669687</v>
+        <v>1022678532</v>
       </c>
       <c r="B415">
-        <v>0.721921</v>
+        <v>0.7091076</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>1022669870</v>
+        <v>1022673738</v>
       </c>
       <c r="B416">
-        <v>0.7198404</v>
+        <v>0.7090937</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>1022674744</v>
+        <v>1022676505</v>
       </c>
       <c r="B417">
-        <v>0.7198003</v>
+        <v>0.7073786</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>1022675565</v>
+        <v>1022672042</v>
       </c>
       <c r="B418">
-        <v>0.7181598</v>
+        <v>0.7070354</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>1022670955</v>
+        <v>1022677658</v>
       </c>
       <c r="B419">
-        <v>0.716174</v>
+        <v>0.7064751</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>1022672428</v>
+        <v>1022670617</v>
       </c>
       <c r="B420">
-        <v>0.7155119</v>
+        <v>0.7060625</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>1022669391</v>
+        <v>1022668979</v>
       </c>
       <c r="B421">
-        <v>0.7135187</v>
+        <v>0.7031512</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>1022670136</v>
+        <v>1022672412</v>
       </c>
       <c r="B422">
-        <v>0.7135083</v>
+        <v>0.7020133</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>1022668979</v>
+        <v>1022674098</v>
       </c>
       <c r="B423">
-        <v>0.7130795</v>
+        <v>0.7001445</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>1022670680</v>
+        <v>1022673007</v>
       </c>
       <c r="B424">
-        <v>0.7118929</v>
+        <v>0.6995252</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>1022672166</v>
+        <v>1022668849</v>
       </c>
       <c r="B425">
-        <v>0.7115612</v>
+        <v>0.6994156</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>1022676766</v>
+        <v>1022670136</v>
       </c>
       <c r="B426">
-        <v>0.7103873</v>
+        <v>0.6971129</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>1022676964</v>
+        <v>1022669836</v>
       </c>
       <c r="B427">
-        <v>0.709619</v>
+        <v>0.6969792</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>1022674635</v>
+        <v>1022670330</v>
       </c>
       <c r="B428">
-        <v>0.7082017</v>
+        <v>0.6952114</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>1022668833</v>
+        <v>1022672273</v>
       </c>
       <c r="B429">
-        <v>0.7080921</v>
+        <v>0.6944107</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>1022669296</v>
+        <v>1022670170</v>
       </c>
       <c r="B430">
-        <v>0.7078267</v>
+        <v>0.6940265</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>1022678747</v>
+        <v>1022674837</v>
       </c>
       <c r="B431">
-        <v>0.7047796</v>
+        <v>0.6912663</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>1022669475</v>
+        <v>1022674708</v>
       </c>
       <c r="B432">
-        <v>0.7045048</v>
+        <v>0.6912462</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>1022673520</v>
+        <v>1022670819</v>
       </c>
       <c r="B433">
-        <v>0.7027922</v>
+        <v>0.6906791</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>1022677937</v>
+        <v>1022676483</v>
       </c>
       <c r="B434">
-        <v>0.7027845</v>
+        <v>0.6906173</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>1022676140</v>
+        <v>1022674114</v>
       </c>
       <c r="B435">
-        <v>0.702467</v>
+        <v>0.6904355</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1022670228</v>
+        <v>1022671604</v>
       </c>
       <c r="B436">
-        <v>0.7012452</v>
+        <v>0.6903877</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>1022676434</v>
+        <v>1022678382</v>
       </c>
       <c r="B437">
-        <v>0.7011463</v>
+        <v>0.6897192</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>1022676970</v>
+        <v>1022673450</v>
       </c>
       <c r="B438">
-        <v>0.7007064</v>
+        <v>0.6894244</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>1022678602</v>
+        <v>1022678315</v>
       </c>
       <c r="B439">
-        <v>0.6986286</v>
+        <v>0.6873303</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>1022675393</v>
+        <v>1022677206</v>
       </c>
       <c r="B440">
-        <v>0.6981391</v>
+        <v>0.6867154</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1022677206</v>
+        <v>1022669883</v>
       </c>
       <c r="B441">
-        <v>0.6972998</v>
+        <v>0.6859464</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>1022677969</v>
+        <v>1022675512</v>
       </c>
       <c r="B442">
-        <v>0.6963865</v>
+        <v>0.6851713</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>1022677361</v>
+        <v>1022672360</v>
       </c>
       <c r="B443">
-        <v>0.6949365</v>
+        <v>0.6842682</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>1022678382</v>
+        <v>1022676679</v>
       </c>
       <c r="B444">
-        <v>0.6949151</v>
+        <v>0.6836138</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1022676939</v>
+        <v>1022677634</v>
       </c>
       <c r="B445">
-        <v>0.6945532</v>
+        <v>0.6812017</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>1022674971</v>
+        <v>1022672932</v>
       </c>
       <c r="B446">
-        <v>0.6938543</v>
+        <v>0.6808341</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>1022669119</v>
+        <v>1022671515</v>
       </c>
       <c r="B447">
-        <v>0.6937655</v>
+        <v>0.6805903</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>1022672201</v>
+        <v>1022671664</v>
       </c>
       <c r="B448">
-        <v>0.6929235</v>
+        <v>0.6788944</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>1022677145</v>
+        <v>1022678726</v>
       </c>
       <c r="B449">
-        <v>0.6921643</v>
+        <v>0.6762292</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>1022675226</v>
+        <v>1022672081</v>
       </c>
       <c r="B450">
-        <v>0.6904397</v>
+        <v>0.6757003</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>1022671170</v>
+        <v>1022670922</v>
       </c>
       <c r="B451">
-        <v>0.6883819</v>
+        <v>0.6744484</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>1022678415</v>
+        <v>1022678035</v>
       </c>
       <c r="B452">
-        <v>0.6879982</v>
+        <v>0.6717191</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>1022674708</v>
+        <v>1022671183</v>
       </c>
       <c r="B453">
-        <v>0.6863593</v>
+        <v>0.6700644</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>1022678726</v>
+        <v>1022677759</v>
       </c>
       <c r="B454">
-        <v>0.6841535</v>
+        <v>0.6690912</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>1022670029</v>
+        <v>1022673242</v>
       </c>
       <c r="B455">
-        <v>0.6814389</v>
+        <v>0.6680308</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>1022675353</v>
+        <v>1022678383</v>
       </c>
       <c r="B456">
-        <v>0.6808897</v>
+        <v>0.6657111</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>1022673819</v>
+        <v>1022676211</v>
       </c>
       <c r="B457">
-        <v>0.6803683</v>
+        <v>0.6649917</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1022674313</v>
+        <v>1022669560</v>
       </c>
       <c r="B458">
-        <v>0.6774595</v>
+        <v>0.6649235</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>1022678009</v>
+        <v>1022672801</v>
       </c>
       <c r="B459">
-        <v>0.6773727</v>
+        <v>0.6641898</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>1022672932</v>
+        <v>1022676130</v>
       </c>
       <c r="B460">
-        <v>0.6760697</v>
+        <v>0.6638482</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>1022668967</v>
+        <v>1022669359</v>
       </c>
       <c r="B461">
-        <v>0.6760139</v>
+        <v>0.6632892</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>1022670816</v>
+        <v>1022671424</v>
       </c>
       <c r="B462">
-        <v>0.6747001</v>
+        <v>0.6627286</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>1022674837</v>
+        <v>1022668775</v>
       </c>
       <c r="B463">
-        <v>0.6740286</v>
+        <v>0.6598552</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>1022678654</v>
+        <v>1022676939</v>
       </c>
       <c r="B464">
-        <v>0.6738539</v>
+        <v>0.659284</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>1022668863</v>
+        <v>1022671923</v>
       </c>
       <c r="B465">
-        <v>0.6735225</v>
+        <v>0.6573081</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>1022670250</v>
+        <v>1022672403</v>
       </c>
       <c r="B466">
-        <v>0.6720781</v>
+        <v>0.6572761</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>1022670330</v>
+        <v>1022670863</v>
       </c>
       <c r="B467">
-        <v>0.6710929</v>
+        <v>0.6564986</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1022674612</v>
+        <v>1022671191</v>
       </c>
       <c r="B468">
-        <v>0.6701474</v>
+        <v>0.6558695</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1022675358</v>
+        <v>1022672326</v>
       </c>
       <c r="B469">
-        <v>0.6695702</v>
+        <v>0.6537104</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>1022674485</v>
+        <v>1022670758</v>
       </c>
       <c r="B470">
-        <v>0.6692722</v>
+        <v>0.6535108</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>1022668849</v>
+        <v>1022678391</v>
       </c>
       <c r="B471">
-        <v>0.6679861</v>
+        <v>0.6530371</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>1022677583</v>
+        <v>1022671983</v>
       </c>
       <c r="B472">
-        <v>0.6677581</v>
+        <v>0.6522998</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>1022673121</v>
+        <v>1022672819</v>
       </c>
       <c r="B473">
-        <v>0.6674601</v>
+        <v>0.6504637</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>1022669293</v>
+        <v>1022677863</v>
       </c>
       <c r="B474">
-        <v>0.6663528</v>
+        <v>0.6491558</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>1022671932</v>
+        <v>1022674653</v>
       </c>
       <c r="B475">
-        <v>0.6659059</v>
+        <v>0.6488863</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>1022676539</v>
+        <v>1022675358</v>
       </c>
       <c r="B476">
-        <v>0.6657901</v>
+        <v>0.6482875</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>1022673876</v>
+        <v>1022674413</v>
       </c>
       <c r="B477">
-        <v>0.6646845</v>
+        <v>0.6469518</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>1022671089</v>
+        <v>1022675188</v>
       </c>
       <c r="B478">
-        <v>0.6646264</v>
+        <v>0.6465939</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>1022675188</v>
+        <v>1022676870</v>
       </c>
       <c r="B479">
-        <v>0.664624</v>
+        <v>0.6463129</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>1022678640</v>
+        <v>1022670912</v>
       </c>
       <c r="B480">
-        <v>0.663858</v>
+        <v>0.645699</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>1022678529</v>
+        <v>1022669084</v>
       </c>
       <c r="B481">
-        <v>0.6626951</v>
+        <v>0.6443349</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>1022672326</v>
+        <v>1022678236</v>
       </c>
       <c r="B482">
-        <v>0.6601342</v>
+        <v>0.6442403</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>1022670777</v>
+        <v>1022678747</v>
       </c>
       <c r="B483">
-        <v>0.6596257</v>
+        <v>0.6436814</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>1022670055</v>
+        <v>1022670089</v>
       </c>
       <c r="B484">
-        <v>0.6530298</v>
+        <v>0.6428627</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>1022668932</v>
+        <v>1022676960</v>
       </c>
       <c r="B485">
-        <v>0.6511508</v>
+        <v>0.6403239</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>1022676473</v>
+        <v>1022674971</v>
       </c>
       <c r="B486">
-        <v>0.6484737</v>
+        <v>0.6373421</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>1022674757</v>
+        <v>1022668905</v>
       </c>
       <c r="B487">
-        <v>0.6483305</v>
+        <v>0.6368344</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>1022675561</v>
+        <v>1022669687</v>
       </c>
       <c r="B488">
-        <v>0.6469992</v>
+        <v>0.6367442</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>1022670170</v>
+        <v>1022676473</v>
       </c>
       <c r="B489">
-        <v>0.6454068</v>
+        <v>0.6362961</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>1022671183</v>
+        <v>1022672614</v>
       </c>
       <c r="B490">
-        <v>0.6452089</v>
+        <v>0.631125</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>1022676378</v>
+        <v>1022678141</v>
       </c>
       <c r="B491">
-        <v>0.6425942</v>
+        <v>0.6306718</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>1022673297</v>
+        <v>1022677327</v>
       </c>
       <c r="B492">
-        <v>0.6424385</v>
+        <v>0.6305063</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>1022669792</v>
+        <v>1022674612</v>
       </c>
       <c r="B493">
-        <v>0.6424345</v>
+        <v>0.6299525</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>1022678391</v>
+        <v>1022677999</v>
       </c>
       <c r="B494">
-        <v>0.6401617</v>
+        <v>0.6279195</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>1022673334</v>
+        <v>1022674088</v>
       </c>
       <c r="B495">
-        <v>0.6376918</v>
+        <v>0.6269391</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>1022677759</v>
+        <v>1022678445</v>
       </c>
       <c r="B496">
-        <v>0.6374719</v>
+        <v>0.6266127</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>1022672081</v>
+        <v>1022678034</v>
       </c>
       <c r="B497">
-        <v>0.6365443</v>
+        <v>0.6264411</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>1022673733</v>
+        <v>1022669293</v>
       </c>
       <c r="B498">
-        <v>0.6350384</v>
+        <v>0.6231042</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>1022671515</v>
+        <v>1022672235</v>
       </c>
       <c r="B499">
-        <v>0.6343234</v>
+        <v>0.6212838</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>1022678141</v>
+        <v>1022675785</v>
       </c>
       <c r="B500">
-        <v>0.6333759</v>
+        <v>0.6203329</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>1022668945</v>
+        <v>1022670250</v>
       </c>
       <c r="B501">
-        <v>0.632451</v>
+        <v>0.6198951</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>1022672564</v>
+        <v>1022676624</v>
       </c>
       <c r="B502">
-        <v>0.6319068</v>
+        <v>0.6191309</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>1022671452</v>
+        <v>1022678529</v>
       </c>
       <c r="B503">
-        <v>0.6316414</v>
+        <v>0.6188154</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>1022675705</v>
+        <v>1022677493</v>
       </c>
       <c r="B504">
-        <v>0.6302908</v>
+        <v>0.618637</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>1022672922</v>
+        <v>1022669449</v>
       </c>
       <c r="B505">
-        <v>0.6301962</v>
+        <v>0.6172714</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>1022673080</v>
+        <v>1022676899</v>
       </c>
       <c r="B506">
-        <v>0.6293912</v>
+        <v>0.6165605</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>1022671604</v>
+        <v>1022676210</v>
       </c>
       <c r="B507">
-        <v>0.6291258</v>
+        <v>0.6151513</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1022678445</v>
+        <v>1022674225</v>
       </c>
       <c r="B508">
-        <v>0.6269091</v>
+        <v>0.6143552</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>1022672403</v>
+        <v>1022670608</v>
       </c>
       <c r="B509">
-        <v>0.6259644</v>
+        <v>0.6135136</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>1022672819</v>
+        <v>1022673633</v>
       </c>
       <c r="B510">
-        <v>0.6241041</v>
+        <v>0.6084658</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>1022672278</v>
+        <v>1022671797</v>
       </c>
       <c r="B511">
-        <v>0.6237475</v>
+        <v>0.607002</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>1022670988</v>
+        <v>1022675705</v>
       </c>
       <c r="B512">
-        <v>0.6237131</v>
+        <v>0.6055002</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>1022668905</v>
+        <v>1022672278</v>
       </c>
       <c r="B513">
-        <v>0.6227316</v>
+        <v>0.6047225</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>1022674510</v>
+        <v>1022673819</v>
       </c>
       <c r="B514">
-        <v>0.6219779</v>
+        <v>0.6042749</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>1022670536</v>
+        <v>1022673395</v>
       </c>
       <c r="B515">
-        <v>0.618902</v>
+        <v>0.6013325</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>1022671191</v>
+        <v>1022674801</v>
       </c>
       <c r="B516">
-        <v>0.6186434</v>
+        <v>0.6009631</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>1022670758</v>
+        <v>1022676289</v>
       </c>
       <c r="B517">
-        <v>0.6170632</v>
+        <v>0.6003544</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1022671176</v>
+        <v>1022675561</v>
       </c>
       <c r="B518">
-        <v>0.6144396</v>
+        <v>0.6002327</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>1022675024</v>
+        <v>1022674460</v>
       </c>
       <c r="B519">
-        <v>0.6121934</v>
+        <v>0.5997151</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1022676505</v>
+        <v>1022678432</v>
       </c>
       <c r="B520">
-        <v>0.6120088</v>
+        <v>0.5995494</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>1022677566</v>
+        <v>1022674187</v>
       </c>
       <c r="B521">
-        <v>0.6092083</v>
+        <v>0.5991756</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>1022678373</v>
+        <v>1022670959</v>
       </c>
       <c r="B522">
-        <v>0.6091444</v>
+        <v>0.598743</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>1022672525</v>
+        <v>1022673297</v>
       </c>
       <c r="B523">
-        <v>0.6090977</v>
+        <v>0.5965902</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>1022674106</v>
+        <v>1022676303</v>
       </c>
       <c r="B524">
-        <v>0.6090781</v>
+        <v>0.595924</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>1022673023</v>
+        <v>1022670132</v>
       </c>
       <c r="B525">
-        <v>0.6087397</v>
+        <v>0.5939966</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>1022677532</v>
+        <v>1022672572</v>
       </c>
       <c r="B526">
-        <v>0.6082878</v>
+        <v>0.5939048</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>1022674246</v>
+        <v>1022670536</v>
       </c>
       <c r="B527">
-        <v>0.6072216</v>
+        <v>0.5937514</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>1022675791</v>
+        <v>1022670976</v>
       </c>
       <c r="B528">
-        <v>0.6062116</v>
+        <v>0.5931014</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>1022672572</v>
+        <v>1022669732</v>
       </c>
       <c r="B529">
-        <v>0.6048377</v>
+        <v>0.5930083</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>1022677128</v>
+        <v>1022678593</v>
       </c>
       <c r="B530">
-        <v>0.6027562</v>
+        <v>0.5929822</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1022671797</v>
+        <v>1022670519</v>
       </c>
       <c r="B531">
-        <v>0.6024209</v>
+        <v>0.5899765</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1022674456</v>
+        <v>1022676331</v>
       </c>
       <c r="B532">
-        <v>0.6013945</v>
+        <v>0.5899519</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>1022678432</v>
+        <v>1022672399</v>
       </c>
       <c r="B533">
-        <v>0.5999942</v>
+        <v>0.5885014</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>1022669684</v>
+        <v>1022676589</v>
       </c>
       <c r="B534">
-        <v>0.5975286</v>
+        <v>0.588309</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>1022678593</v>
+        <v>1022676155</v>
       </c>
       <c r="B535">
-        <v>0.5958036</v>
+        <v>0.5881988</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>1022675051</v>
+        <v>1022670816</v>
       </c>
       <c r="B536">
-        <v>0.5950303</v>
+        <v>0.5878783</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>1022670617</v>
+        <v>1022669001</v>
       </c>
       <c r="B537">
-        <v>0.5940651</v>
+        <v>0.5876459</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>1022669416</v>
+        <v>1022674462</v>
       </c>
       <c r="B538">
-        <v>0.593553</v>
+        <v>0.5870835</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>1022668953</v>
+        <v>1022677491</v>
       </c>
       <c r="B539">
-        <v>0.5883262</v>
+        <v>0.5857925</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>1022670800</v>
+        <v>1022673080</v>
       </c>
       <c r="B540">
-        <v>0.5866657</v>
+        <v>0.5829152</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>1022672295</v>
+        <v>1022674680</v>
       </c>
       <c r="B541">
-        <v>0.5866213</v>
+        <v>0.5825039</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>1022672058</v>
+        <v>1022676357</v>
       </c>
       <c r="B542">
-        <v>0.5861396</v>
+        <v>0.58181</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>1022673189</v>
+        <v>1022670297</v>
       </c>
       <c r="B543">
-        <v>0.5861294</v>
+        <v>0.5808628</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1022672535</v>
+        <v>1022675356</v>
       </c>
       <c r="B544">
-        <v>0.5845512</v>
+        <v>0.5805267</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>1022671911</v>
+        <v>1022674813</v>
       </c>
       <c r="B545">
-        <v>0.5816039</v>
+        <v>0.5804099</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>1022672360</v>
+        <v>1022670500</v>
       </c>
       <c r="B546">
-        <v>0.5809062</v>
+        <v>0.5789911</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>1022675249</v>
+        <v>1022676458</v>
       </c>
       <c r="B547">
-        <v>0.5756934</v>
+        <v>0.5788567</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>1022676620</v>
+        <v>1022672525</v>
       </c>
       <c r="B548">
-        <v>0.5719528</v>
+        <v>0.5784874</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1022675005</v>
+        <v>1022670800</v>
       </c>
       <c r="B549">
-        <v>0.5712894</v>
+        <v>0.5775559</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>1022676303</v>
+        <v>1022675353</v>
       </c>
       <c r="B550">
-        <v>0.5711211</v>
+        <v>0.5765897</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1022675535</v>
+        <v>1022674364</v>
       </c>
       <c r="B551">
-        <v>0.5707392</v>
+        <v>0.5746201</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1022678029</v>
+        <v>1022671176</v>
       </c>
       <c r="B552">
-        <v>0.5706927</v>
+        <v>0.5740864</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1022676339</v>
+        <v>1022675895</v>
       </c>
       <c r="B553">
-        <v>0.5704854</v>
+        <v>0.5738706</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>1022673264</v>
+        <v>1022672201</v>
       </c>
       <c r="B554">
-        <v>0.5695376</v>
+        <v>0.5715113</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>1022673027</v>
+        <v>1022670097</v>
       </c>
       <c r="B555">
-        <v>0.5686938</v>
+        <v>0.5713184</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1022678002</v>
+        <v>1022676060</v>
       </c>
       <c r="B556">
-        <v>0.5684166</v>
+        <v>0.5708938</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>1022671689</v>
+        <v>1022670721</v>
       </c>
       <c r="B557">
-        <v>0.5679998</v>
+        <v>0.5703247</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1022674413</v>
+        <v>1022670228</v>
       </c>
       <c r="B558">
-        <v>0.5677985</v>
+        <v>0.5697021</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1022676323</v>
+        <v>1022669559</v>
       </c>
       <c r="B559">
-        <v>0.5672429</v>
+        <v>0.5681795</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>1022678035</v>
+        <v>1022671089</v>
       </c>
       <c r="B560">
-        <v>0.5663554</v>
+        <v>0.5658139</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>1022669560</v>
+        <v>1022670662</v>
       </c>
       <c r="B561">
-        <v>0.5659089</v>
+        <v>0.5655314</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1022674805</v>
+        <v>1022674510</v>
       </c>
       <c r="B562">
-        <v>0.5638055</v>
+        <v>0.5596159</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1022673158</v>
+        <v>1022668953</v>
       </c>
       <c r="B563">
-        <v>0.5615446</v>
+        <v>0.5593458</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>1022672235</v>
+        <v>1022676856</v>
       </c>
       <c r="B564">
-        <v>0.5615415</v>
+        <v>0.5579564</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>1022677608</v>
+        <v>1022672564</v>
       </c>
       <c r="B565">
-        <v>0.5606502</v>
+        <v>0.5578857</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>1022668775</v>
+        <v>1022677177</v>
       </c>
       <c r="B566">
-        <v>0.559325</v>
+        <v>0.5546454</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>1022670976</v>
+        <v>1022669684</v>
       </c>
       <c r="B567">
-        <v>0.5578735</v>
+        <v>0.5533441</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>1022669817</v>
+        <v>1022676539</v>
       </c>
       <c r="B568">
-        <v>0.5577351</v>
+        <v>0.5530776</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>1022676223</v>
+        <v>1022668945</v>
       </c>
       <c r="B569">
-        <v>0.5577157</v>
+        <v>0.5500822</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>1022678169</v>
+        <v>1022673965</v>
       </c>
       <c r="B570">
-        <v>0.5559595</v>
+        <v>0.5497239</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1022677333</v>
+        <v>1022669002</v>
       </c>
       <c r="B571">
-        <v>0.5540506</v>
+        <v>0.5479202</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>1022672069</v>
+        <v>1022672894</v>
       </c>
       <c r="B572">
-        <v>0.5531665</v>
+        <v>0.5478102</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>1022675367</v>
+        <v>1022678029</v>
       </c>
       <c r="B573">
-        <v>0.5509106</v>
+        <v>0.5470755</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>1022677784</v>
+        <v>1022673572</v>
       </c>
       <c r="B574">
-        <v>0.550154</v>
+        <v>0.5447409</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>1022678678</v>
+        <v>1022678009</v>
       </c>
       <c r="B575">
-        <v>0.5492874</v>
+        <v>0.5435379</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>1022676624</v>
+        <v>1022671452</v>
       </c>
       <c r="B576">
-        <v>0.5479597</v>
+        <v>0.542428</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>1022676679</v>
+        <v>1022673023</v>
       </c>
       <c r="B577">
-        <v>0.5468034</v>
+        <v>0.5408263</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>1022671269</v>
+        <v>1022678373</v>
       </c>
       <c r="B578">
-        <v>0.5459485</v>
+        <v>0.5406571</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>1022674870</v>
+        <v>1022675367</v>
       </c>
       <c r="B579">
-        <v>0.543692</v>
+        <v>0.5393564</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1022677491</v>
+        <v>1022676297</v>
       </c>
       <c r="B580">
-        <v>0.5407213</v>
+        <v>0.5371399</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>1022669260</v>
+        <v>1022673027</v>
       </c>
       <c r="B581">
-        <v>0.5403546</v>
+        <v>0.5366459</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>1022669001</v>
+        <v>1022677532</v>
       </c>
       <c r="B582">
-        <v>0.540284</v>
+        <v>0.5360032</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>1022670959</v>
+        <v>1022674663</v>
       </c>
       <c r="B583">
-        <v>0.5357797</v>
+        <v>0.5350499</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>1022670236</v>
+        <v>1022669175</v>
       </c>
       <c r="B584">
-        <v>0.5350704</v>
+        <v>0.5324483</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>1022674466</v>
+        <v>1022668838</v>
       </c>
       <c r="B585">
-        <v>0.5345554</v>
+        <v>0.5295433</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>1022670863</v>
+        <v>1022672365</v>
       </c>
       <c r="B586">
-        <v>0.5341158</v>
+        <v>0.5273923</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>1022675952</v>
+        <v>1022673935</v>
       </c>
       <c r="B587">
-        <v>0.5317325</v>
+        <v>0.5267784</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>1022675785</v>
+        <v>1022669416</v>
       </c>
       <c r="B588">
-        <v>0.5311775</v>
+        <v>0.5230134</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>1022670371</v>
+        <v>1022674186</v>
       </c>
       <c r="B589">
-        <v>0.5278557</v>
+        <v>0.5222691</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>1022678428</v>
+        <v>1022677918</v>
       </c>
       <c r="B590">
-        <v>0.5264561</v>
+        <v>0.5219309</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>1022670097</v>
+        <v>1022678654</v>
       </c>
       <c r="B591">
-        <v>0.526261</v>
+        <v>0.5214838</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>1022668838</v>
+        <v>1022670477</v>
       </c>
       <c r="B592">
-        <v>0.5258382</v>
+        <v>0.5211895</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>1022677278</v>
+        <v>1022676259</v>
       </c>
       <c r="B593">
-        <v>0.5243269</v>
+        <v>0.5168473</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>1022678034</v>
+        <v>1022676964</v>
       </c>
       <c r="B594">
-        <v>0.5205117</v>
+        <v>0.5165593</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>1022672817</v>
+        <v>1022672069</v>
       </c>
       <c r="B595">
-        <v>0.5190983</v>
+        <v>0.5164921</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>1022674038</v>
+        <v>1022669408</v>
       </c>
       <c r="B596">
-        <v>0.5166046</v>
+        <v>0.5134842</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>1022672867</v>
+        <v>1022674485</v>
       </c>
       <c r="B597">
-        <v>0.5156716</v>
+        <v>0.5125266</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>1022676856</v>
+        <v>1022676646</v>
       </c>
       <c r="B598">
-        <v>0.5133874</v>
+        <v>0.5115767</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>1022671969</v>
+        <v>1022674456</v>
       </c>
       <c r="B599">
-        <v>0.5128546</v>
+        <v>0.5110427</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>1022676060</v>
+        <v>1022671116</v>
       </c>
       <c r="B600">
-        <v>0.512367</v>
+        <v>0.5101503</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>1022676259</v>
+        <v>1022668763</v>
       </c>
       <c r="B601">
-        <v>0.512188</v>
+        <v>0.5097363</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>1022669408</v>
+        <v>1022673408</v>
       </c>
       <c r="B602">
-        <v>0.5115638</v>
+        <v>0.5093233</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>1022676357</v>
+        <v>1022675890</v>
       </c>
       <c r="B603">
-        <v>0.5098803</v>
+        <v>0.5067945</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>1022673007</v>
+        <v>1022677570</v>
       </c>
       <c r="B604">
-        <v>0.5065694</v>
+        <v>0.5062339</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>1022670466</v>
+        <v>1022675015</v>
       </c>
       <c r="B605">
-        <v>0.5059388</v>
+        <v>0.5055908</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>1022673935</v>
+        <v>1022674744</v>
       </c>
       <c r="B606">
-        <v>0.5044576</v>
+        <v>0.5044438</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>1022678085</v>
+        <v>1022677644</v>
       </c>
       <c r="B607">
-        <v>0.5037171</v>
+        <v>0.5044184</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>1022676130</v>
+        <v>1022674783</v>
       </c>
       <c r="B608">
-        <v>0.5036315</v>
+        <v>0.5028349</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>1022673236</v>
+        <v>1022671588</v>
       </c>
       <c r="B609">
-        <v>0.503538</v>
+        <v>0.5028024</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>1022673242</v>
+        <v>1022670227</v>
       </c>
       <c r="B610">
-        <v>0.5014556</v>
+        <v>0.5023871</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>1022676458</v>
+        <v>1022673121</v>
       </c>
       <c r="B611">
-        <v>0.5003051</v>
+        <v>0.5014077</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>1022671528</v>
+        <v>1022676378</v>
       </c>
       <c r="B612">
-        <v>0.4992486</v>
+        <v>0.4996366</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>1022674239</v>
+        <v>1022678428</v>
       </c>
       <c r="B613">
-        <v>0.4944998</v>
+        <v>0.4982045</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>1022677570</v>
+        <v>1022671433</v>
       </c>
       <c r="B614">
-        <v>0.4927192</v>
+        <v>0.4977997</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>1022674323</v>
+        <v>1022677222</v>
       </c>
       <c r="B615">
-        <v>0.4926038</v>
+        <v>0.4976759</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>1022677634</v>
+        <v>1022669528</v>
       </c>
       <c r="B616">
-        <v>0.4910888</v>
+        <v>0.4975896</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>1022673633</v>
+        <v>1022668967</v>
       </c>
       <c r="B617">
-        <v>0.4879301</v>
+        <v>0.4948191</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>1022678738</v>
+        <v>1022671567</v>
       </c>
       <c r="B618">
-        <v>0.4856831</v>
+        <v>0.4927408</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>1022674364</v>
+        <v>1022668812</v>
       </c>
       <c r="B619">
-        <v>0.4855119</v>
+        <v>0.4921907</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>1022670912</v>
+        <v>1022678169</v>
       </c>
       <c r="B620">
-        <v>0.4847981</v>
+        <v>0.4910691</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>1022674225</v>
+        <v>1022673733</v>
       </c>
       <c r="B621">
-        <v>0.4844827</v>
+        <v>0.4898511</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>1022672679</v>
+        <v>1022674057</v>
       </c>
       <c r="B622">
-        <v>0.4834395</v>
+        <v>0.4896767</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>1022673323</v>
+        <v>1022676323</v>
       </c>
       <c r="B623">
-        <v>0.4831711</v>
+        <v>0.4890195</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>1022677051</v>
+        <v>1022670988</v>
       </c>
       <c r="B624">
-        <v>0.4807463</v>
+        <v>0.4884902</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>1022674088</v>
+        <v>1022669806</v>
       </c>
       <c r="B625">
-        <v>0.4788905</v>
+        <v>0.4884579</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>1022670477</v>
+        <v>1022671930</v>
       </c>
       <c r="B626">
-        <v>0.4781531</v>
+        <v>0.4884202</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>1022669773</v>
+        <v>1022675952</v>
       </c>
       <c r="B627">
-        <v>0.4778116</v>
+        <v>0.4877882</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>1022670837</v>
+        <v>1022674313</v>
       </c>
       <c r="B628">
-        <v>0.4698818</v>
+        <v>0.4877106</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>1022676556</v>
+        <v>1022677825</v>
       </c>
       <c r="B629">
-        <v>0.4693554</v>
+        <v>0.4871868</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>1022675250</v>
+        <v>1022669640</v>
       </c>
       <c r="B630">
-        <v>0.4665429</v>
+        <v>0.4863727</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>1022674187</v>
+        <v>1022677372</v>
       </c>
       <c r="B631">
-        <v>0.4664464</v>
+        <v>0.4852046</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>1022671153</v>
+        <v>1022672679</v>
       </c>
       <c r="B632">
-        <v>0.4663523</v>
+        <v>0.4850221</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>1022674680</v>
+        <v>1022673876</v>
       </c>
       <c r="B633">
-        <v>0.464469</v>
+        <v>0.4834619</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>1022670499</v>
+        <v>1022678557</v>
       </c>
       <c r="B634">
-        <v>0.4638094</v>
+        <v>0.4820396</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>1022671970</v>
+        <v>1022669489</v>
       </c>
       <c r="B635">
-        <v>0.4618587</v>
+        <v>0.4817063</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>1022670922</v>
+        <v>1022670047</v>
       </c>
       <c r="B636">
-        <v>0.4601674</v>
+        <v>0.4812076</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>1022670227</v>
+        <v>1022677566</v>
       </c>
       <c r="B637">
-        <v>0.4568648</v>
+        <v>0.4784277</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>1022676589</v>
+        <v>1022670837</v>
       </c>
       <c r="B638">
-        <v>0.4565205</v>
+        <v>0.4768153</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>1022673450</v>
+        <v>1022675047</v>
       </c>
       <c r="B639">
-        <v>0.4563927</v>
+        <v>0.475775</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>1022671055</v>
+        <v>1022672058</v>
       </c>
       <c r="B640">
-        <v>0.4545568</v>
+        <v>0.4752974</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>1022670465</v>
+        <v>1022677439</v>
       </c>
       <c r="B641">
-        <v>0.4523634</v>
+        <v>0.4751858</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>1022671673</v>
+        <v>1022671335</v>
       </c>
       <c r="B642">
-        <v>0.4516935</v>
+        <v>0.4737553</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>1022670500</v>
+        <v>1022674323</v>
       </c>
       <c r="B643">
-        <v>0.4504759</v>
+        <v>0.473545</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>1022670047</v>
+        <v>1022669817</v>
       </c>
       <c r="B644">
-        <v>0.4494734</v>
+        <v>0.4702122</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>1022671116</v>
+        <v>1022676163</v>
       </c>
       <c r="B645">
-        <v>0.4481718</v>
+        <v>0.4691109</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>1022671335</v>
+        <v>1022671528</v>
       </c>
       <c r="B646">
-        <v>0.448158</v>
+        <v>0.4688549</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>1022675158</v>
+        <v>1022675027</v>
       </c>
       <c r="B647">
-        <v>0.4427129</v>
+        <v>0.4687006</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>1022671234</v>
+        <v>1022670087</v>
       </c>
       <c r="B648">
-        <v>0.4401465</v>
+        <v>0.4662991</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>1022677439</v>
+        <v>1022669119</v>
       </c>
       <c r="B649">
-        <v>0.4397972</v>
+        <v>0.4655753</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>1022677577</v>
+        <v>1022673177</v>
       </c>
       <c r="B650">
-        <v>0.4393984</v>
+        <v>0.4638023</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>1022671588</v>
+        <v>1022674443</v>
       </c>
       <c r="B651">
-        <v>0.4393068</v>
+        <v>0.4624311</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>1022673521</v>
+        <v>1022671932</v>
       </c>
       <c r="B652">
-        <v>0.4350565</v>
+        <v>0.462326</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>1022670073</v>
+        <v>1022671131</v>
       </c>
       <c r="B653">
-        <v>0.4319656</v>
+        <v>0.4609858</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>1022670397</v>
+        <v>1022675140</v>
       </c>
       <c r="B654">
-        <v>0.4301237</v>
+        <v>0.4605023</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>1022674813</v>
+        <v>1022674115</v>
       </c>
       <c r="B655">
-        <v>0.4287639</v>
+        <v>0.4598785</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>1022678163</v>
+        <v>1022675058</v>
       </c>
       <c r="B656">
-        <v>0.4284335</v>
+        <v>0.4596952</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>1022669175</v>
+        <v>1022668981</v>
       </c>
       <c r="B657">
-        <v>0.4270173</v>
+        <v>0.4596629</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>1022672682</v>
+        <v>1022672295</v>
       </c>
       <c r="B658">
-        <v>0.4265093</v>
+        <v>0.4587373</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>1022678469</v>
+        <v>1022673520</v>
       </c>
       <c r="B659">
-        <v>0.4239631</v>
+        <v>0.4585905</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>1022675057</v>
+        <v>1022669859</v>
       </c>
       <c r="B660">
-        <v>0.4238211</v>
+        <v>0.4566441</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>1022673462</v>
+        <v>1022670360</v>
       </c>
       <c r="B661">
-        <v>0.4230783</v>
+        <v>0.4545476</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>1022669836</v>
+        <v>1022672922</v>
       </c>
       <c r="B662">
-        <v>0.4221007</v>
+        <v>0.4528675</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>1022669621</v>
+        <v>1022675599</v>
       </c>
       <c r="B663">
-        <v>0.4215238</v>
+        <v>0.4527387</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>1022671589</v>
+        <v>1022677577</v>
       </c>
       <c r="B664">
-        <v>0.4210643</v>
+        <v>0.4521934</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>1022678069</v>
+        <v>1022678640</v>
       </c>
       <c r="B665">
-        <v>0.4206204</v>
+        <v>0.4484653</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>1022671131</v>
+        <v>1022674870</v>
       </c>
       <c r="B666">
-        <v>0.4200159</v>
+        <v>0.4470137</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>1022677426</v>
+        <v>1022676223</v>
       </c>
       <c r="B667">
-        <v>0.4192371</v>
+        <v>0.4466729</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>1022675794</v>
+        <v>1022675249</v>
       </c>
       <c r="B668">
-        <v>0.4168305</v>
+        <v>0.445655</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>1022671743</v>
+        <v>1022675535</v>
       </c>
       <c r="B669">
-        <v>0.416621</v>
+        <v>0.4449956</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>1022670258</v>
+        <v>1022671743</v>
       </c>
       <c r="B670">
-        <v>0.4163258</v>
+        <v>0.443538</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>1022670519</v>
+        <v>1022675794</v>
       </c>
       <c r="B671">
-        <v>0.4163018</v>
+        <v>0.4434734</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>1022671407</v>
+        <v>1022673236</v>
       </c>
       <c r="B672">
-        <v>0.4134796</v>
+        <v>0.4429518</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>1022675140</v>
+        <v>1022668900</v>
       </c>
       <c r="B673">
-        <v>0.411687</v>
+        <v>0.4411767</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>1022673375</v>
+        <v>1022677299</v>
       </c>
       <c r="B674">
-        <v>0.4111761</v>
+        <v>0.4405412</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>1022676350</v>
+        <v>1022675150</v>
       </c>
       <c r="B675">
-        <v>0.4096358</v>
+        <v>0.4397236</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>1022671732</v>
+        <v>1022678002</v>
       </c>
       <c r="B676">
-        <v>0.4046848</v>
+        <v>0.4393944</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>1022670881</v>
+        <v>1022669526</v>
       </c>
       <c r="B677">
-        <v>0.4027254</v>
+        <v>0.4392038</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>1022676771</v>
+        <v>1022676620</v>
       </c>
       <c r="B678">
-        <v>0.402089</v>
+        <v>0.4388251</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>1022677086</v>
+        <v>1022671732</v>
       </c>
       <c r="B679">
-        <v>0.4013867</v>
+        <v>0.4386996</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>1022675058</v>
+        <v>1022676241</v>
       </c>
       <c r="B680">
-        <v>0.4009915</v>
+        <v>0.4385063</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>1022677825</v>
+        <v>1022678085</v>
       </c>
       <c r="B681">
-        <v>0.4004445</v>
+        <v>0.4376502</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>1022674086</v>
+        <v>1022677333</v>
       </c>
       <c r="B682">
-        <v>0.3986369</v>
+        <v>0.4367303</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>1022669583</v>
+        <v>1022669079</v>
       </c>
       <c r="B683">
-        <v>0.3982573</v>
+        <v>0.4319087</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>1022672365</v>
+        <v>1022674038</v>
       </c>
       <c r="B684">
-        <v>0.3980561</v>
+        <v>0.4307608</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>1022675895</v>
+        <v>1022670465</v>
       </c>
       <c r="B685">
-        <v>0.3976724</v>
+        <v>0.4295704</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>1022673328</v>
+        <v>1022670212</v>
       </c>
       <c r="B686">
-        <v>0.3972344</v>
+        <v>0.4293626</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>1022673449</v>
+        <v>1022673799</v>
       </c>
       <c r="B687">
-        <v>0.3964321</v>
+        <v>0.4286683</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>1022677372</v>
+        <v>1022677784</v>
       </c>
       <c r="B688">
-        <v>0.3950077</v>
+        <v>0.4275645</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>1022671053</v>
+        <v>1022670000</v>
       </c>
       <c r="B689">
-        <v>0.3941314</v>
+        <v>0.4237392</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>1022676934</v>
+        <v>1022676253</v>
       </c>
       <c r="B690">
-        <v>0.3929468</v>
+        <v>0.4222938</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>1022674944</v>
+        <v>1022676822</v>
       </c>
       <c r="B691">
-        <v>0.391465</v>
+        <v>0.42124</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>1022677222</v>
+        <v>1022677086</v>
       </c>
       <c r="B692">
-        <v>0.3900963</v>
+        <v>0.4211678</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>1022676297</v>
+        <v>1022674944</v>
       </c>
       <c r="B693">
-        <v>0.3898326</v>
+        <v>0.4200181</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>1022670089</v>
+        <v>1022673761</v>
       </c>
       <c r="B694">
-        <v>0.3863947</v>
+        <v>0.4186814</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>1022671825</v>
+        <v>1022670371</v>
       </c>
       <c r="B695">
-        <v>0.3857576</v>
+        <v>0.417713</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>1022674626</v>
+        <v>1022676794</v>
       </c>
       <c r="B696">
-        <v>0.3857428</v>
+        <v>0.4150394</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>1022669144</v>
+        <v>1022676548</v>
       </c>
       <c r="B697">
-        <v>0.3851451</v>
+        <v>0.4141187</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>1022674517</v>
+        <v>1022673267</v>
       </c>
       <c r="B698">
-        <v>0.3808125</v>
+        <v>0.4119738</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>1022677918</v>
+        <v>1022669621</v>
       </c>
       <c r="B699">
-        <v>0.3782488</v>
+        <v>0.4116915</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>1022675150</v>
+        <v>1022671269</v>
       </c>
       <c r="B700">
-        <v>0.3781743</v>
+        <v>0.4108245</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>1022669489</v>
+        <v>1022676181</v>
       </c>
       <c r="B701">
-        <v>0.3771522</v>
+        <v>0.4106362</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>1022671567</v>
+        <v>1022677956</v>
       </c>
       <c r="B702">
-        <v>0.3736549</v>
+        <v>0.410424</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>1022669806</v>
+        <v>1022672610</v>
       </c>
       <c r="B703">
-        <v>0.3716045</v>
+        <v>0.4084487</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>1022678583</v>
+        <v>1022670046</v>
       </c>
       <c r="B704">
-        <v>0.370023</v>
+        <v>0.4062322</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>1022670721</v>
+        <v>1022668937</v>
       </c>
       <c r="B705">
-        <v>0.3677003</v>
+        <v>0.4031363</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>1022673572</v>
+        <v>1022670335</v>
       </c>
       <c r="B706">
-        <v>0.3638293</v>
+        <v>0.4016107</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>1022676253</v>
+        <v>1022671055</v>
       </c>
       <c r="B707">
-        <v>0.363604</v>
+        <v>0.4000661</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>1022674013</v>
+        <v>1022675146</v>
       </c>
       <c r="B708">
-        <v>0.3633724</v>
+        <v>0.3992867</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>1022669528</v>
+        <v>1022674577</v>
       </c>
       <c r="B709">
-        <v>0.3621418</v>
+        <v>0.3956229</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>1022676625</v>
+        <v>1022670999</v>
       </c>
       <c r="B710">
-        <v>0.3607038</v>
+        <v>0.3954687</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>1022672816</v>
+        <v>1022674930</v>
       </c>
       <c r="B711">
-        <v>0.3595418</v>
+        <v>0.3952251</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>1022671935</v>
+        <v>1022673270</v>
       </c>
       <c r="B712">
-        <v>0.359047</v>
+        <v>0.3952136</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>1022669586</v>
+        <v>1022675057</v>
       </c>
       <c r="B713">
-        <v>0.3568399</v>
+        <v>0.3941804</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>1022669858</v>
+        <v>1022673323</v>
       </c>
       <c r="B714">
-        <v>0.355696</v>
+        <v>0.3939676</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>1022678495</v>
+        <v>1022674759</v>
       </c>
       <c r="B715">
-        <v>0.3547891</v>
+        <v>0.3936181</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>1022670132</v>
+        <v>1022674907</v>
       </c>
       <c r="B716">
-        <v>0.3541958</v>
+        <v>0.391633</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>1022672301</v>
+        <v>1022670137</v>
       </c>
       <c r="B717">
-        <v>0.3537009</v>
+        <v>0.3911466</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>1022670999</v>
+        <v>1022673361</v>
       </c>
       <c r="B718">
-        <v>0.3474719</v>
+        <v>0.3901889</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>1022673257</v>
+        <v>1022673348</v>
       </c>
       <c r="B719">
-        <v>0.3462118</v>
+        <v>0.3899442</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>1022674968</v>
+        <v>1022673521</v>
       </c>
       <c r="B720">
-        <v>0.3445495</v>
+        <v>0.389736</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>1022672589</v>
+        <v>1022674073</v>
       </c>
       <c r="B721">
-        <v>0.3431777</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722">
-        <v>1022669421</v>
-      </c>
-      <c r="B722">
-        <v>0.3411858</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723">
-        <v>1022676331</v>
-      </c>
-      <c r="B723">
-        <v>0.3407457</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724">
-        <v>1022672474</v>
-      </c>
-      <c r="B724">
-        <v>0.3394502</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725">
-        <v>1022671930</v>
-      </c>
-      <c r="B725">
-        <v>0.3372554</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726">
-        <v>1022671746</v>
-      </c>
-      <c r="B726">
-        <v>0.3353935</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727">
-        <v>1022671128</v>
-      </c>
-      <c r="B727">
-        <v>0.3337868</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728">
-        <v>1022668916</v>
-      </c>
-      <c r="B728">
-        <v>0.3324637</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729">
-        <v>1022676911</v>
-      </c>
-      <c r="B729">
-        <v>0.3322947</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730">
-        <v>1022673481</v>
-      </c>
-      <c r="B730">
-        <v>0.3318821</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731">
-        <v>1022670046</v>
-      </c>
-      <c r="B731">
-        <v>0.3311701</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732">
-        <v>1022671137</v>
-      </c>
-      <c r="B732">
-        <v>0.3301405</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733">
-        <v>1022674783</v>
-      </c>
-      <c r="B733">
-        <v>0.3299919</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734">
-        <v>1022669537</v>
-      </c>
-      <c r="B734">
-        <v>0.3296498</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735">
-        <v>1022674759</v>
-      </c>
-      <c r="B735">
-        <v>0.3295348</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736">
-        <v>1022668763</v>
-      </c>
-      <c r="B736">
-        <v>0.3266082</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737">
-        <v>1022673965</v>
-      </c>
-      <c r="B737">
-        <v>0.3249894</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738">
-        <v>1022670748</v>
-      </c>
-      <c r="B738">
-        <v>0.3228968</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739">
-        <v>1022669124</v>
-      </c>
-      <c r="B739">
-        <v>0.3227481</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740">
-        <v>1022676289</v>
-      </c>
-      <c r="B740">
-        <v>0.3153549</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741">
-        <v>1022675599</v>
-      </c>
-      <c r="B741">
-        <v>0.3131214</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742">
-        <v>1022671465</v>
-      </c>
-      <c r="B742">
-        <v>0.3125607</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743">
-        <v>1022669151</v>
-      </c>
-      <c r="B743">
-        <v>0.311697</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744">
-        <v>1022672409</v>
-      </c>
-      <c r="B744">
-        <v>0.3100147</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745">
-        <v>1022676958</v>
-      </c>
-      <c r="B745">
-        <v>0.3092123</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746">
-        <v>1022676155</v>
-      </c>
-      <c r="B746">
-        <v>0.3088783</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747">
-        <v>1022670662</v>
-      </c>
-      <c r="B747">
-        <v>0.3083883</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748">
-        <v>1022678596</v>
-      </c>
-      <c r="B748">
-        <v>0.3072453</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749">
-        <v>1022677436</v>
-      </c>
-      <c r="B749">
-        <v>0.306959</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750">
-        <v>1022670212</v>
-      </c>
-      <c r="B750">
-        <v>0.3057099</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751">
-        <v>1022669526</v>
-      </c>
-      <c r="B751">
-        <v>0.3043802</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752">
-        <v>1022674115</v>
-      </c>
-      <c r="B752">
-        <v>0.3018449</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753">
-        <v>1022672610</v>
-      </c>
-      <c r="B753">
-        <v>0.2979528</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754">
-        <v>1022668900</v>
-      </c>
-      <c r="B754">
-        <v>0.297617</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755">
-        <v>1022678086</v>
-      </c>
-      <c r="B755">
-        <v>0.2972128</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756">
-        <v>1022669816</v>
-      </c>
-      <c r="B756">
-        <v>0.2968258</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757">
-        <v>1022673408</v>
-      </c>
-      <c r="B757">
-        <v>0.2964171</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758">
-        <v>1022673799</v>
-      </c>
-      <c r="B758">
-        <v>0.295812</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759">
-        <v>1022671138</v>
-      </c>
-      <c r="B759">
-        <v>0.2949656</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760">
-        <v>1022669896</v>
-      </c>
-      <c r="B760">
-        <v>0.2940427</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761">
-        <v>1022673606</v>
-      </c>
-      <c r="B761">
-        <v>0.2937569</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762">
-        <v>1022673391</v>
-      </c>
-      <c r="B762">
-        <v>0.293318</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763">
-        <v>1022668981</v>
-      </c>
-      <c r="B763">
-        <v>0.2933127</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764">
-        <v>1022670010</v>
-      </c>
-      <c r="B764">
-        <v>0.2921155</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765">
-        <v>1022674663</v>
-      </c>
-      <c r="B765">
-        <v>0.2916883</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766">
-        <v>1022668937</v>
-      </c>
-      <c r="B766">
-        <v>0.2898249</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767">
-        <v>1022677177</v>
-      </c>
-      <c r="B767">
-        <v>0.2894501</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768">
-        <v>1022670879</v>
-      </c>
-      <c r="B768">
-        <v>0.2875331</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769">
-        <v>1022675890</v>
-      </c>
-      <c r="B769">
-        <v>0.2871223</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770">
-        <v>1022675084</v>
-      </c>
-      <c r="B770">
-        <v>0.2870178</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771">
-        <v>1022675645</v>
-      </c>
-      <c r="B771">
-        <v>0.2864182</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772">
-        <v>1022670360</v>
-      </c>
-      <c r="B772">
-        <v>0.2862438</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773">
-        <v>1022676081</v>
-      </c>
-      <c r="B773">
-        <v>0.286235</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774">
-        <v>1022669359</v>
-      </c>
-      <c r="B774">
-        <v>0.285978</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775">
-        <v>1022670297</v>
-      </c>
-      <c r="B775">
-        <v>0.2858895</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776">
-        <v>1022670087</v>
-      </c>
-      <c r="B776">
-        <v>0.2855632</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777">
-        <v>1022675047</v>
-      </c>
-      <c r="B777">
-        <v>0.2851605</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778">
-        <v>1022669131</v>
-      </c>
-      <c r="B778">
-        <v>0.2851118</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779">
-        <v>1022676963</v>
-      </c>
-      <c r="B779">
-        <v>0.2836801</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780">
-        <v>1022672957</v>
-      </c>
-      <c r="B780">
-        <v>0.2834255</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781">
-        <v>1022669052</v>
-      </c>
-      <c r="B781">
-        <v>0.2813342</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782">
-        <v>1022669640</v>
-      </c>
-      <c r="B782">
-        <v>0.2808388</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783">
-        <v>1022674057</v>
-      </c>
-      <c r="B783">
-        <v>0.2800677</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784">
-        <v>1022668975</v>
-      </c>
-      <c r="B784">
-        <v>0.279758</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785">
-        <v>1022670494</v>
-      </c>
-      <c r="B785">
-        <v>0.2793789</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786">
-        <v>1022674577</v>
-      </c>
-      <c r="B786">
-        <v>0.2792657</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787">
-        <v>1022678564</v>
-      </c>
-      <c r="B787">
-        <v>0.2787076</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788">
-        <v>1022676646</v>
-      </c>
-      <c r="B788">
-        <v>0.278463</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789">
-        <v>1022669859</v>
-      </c>
-      <c r="B789">
-        <v>0.2778856</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790">
-        <v>1022672067</v>
-      </c>
-      <c r="B790">
-        <v>0.277564</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791">
-        <v>1022674810</v>
-      </c>
-      <c r="B791">
-        <v>0.2772165</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792">
-        <v>1022676163</v>
-      </c>
-      <c r="B792">
-        <v>0.2759291</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793">
-        <v>1022671800</v>
-      </c>
-      <c r="B793">
-        <v>0.2752022</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794">
-        <v>1022670908</v>
-      </c>
-      <c r="B794">
-        <v>0.27402</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795">
-        <v>1022675146</v>
-      </c>
-      <c r="B795">
-        <v>0.2714404</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796">
-        <v>1022672193</v>
-      </c>
-      <c r="B796">
-        <v>0.2678251</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797">
-        <v>1022676616</v>
-      </c>
-      <c r="B797">
-        <v>0.2676697</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798">
-        <v>1022668865</v>
-      </c>
-      <c r="B798">
-        <v>0.2670806</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799">
-        <v>1022669118</v>
-      </c>
-      <c r="B799">
-        <v>0.2657705</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800">
-        <v>1022678557</v>
-      </c>
-      <c r="B800">
-        <v>0.2648287</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801">
-        <v>1022675881</v>
-      </c>
-      <c r="B801">
-        <v>0.2641208</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802">
-        <v>1022673177</v>
-      </c>
-      <c r="B802">
-        <v>0.2634007</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803">
-        <v>1022676769</v>
-      </c>
-      <c r="B803">
-        <v>0.2627884</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804">
-        <v>1022676637</v>
-      </c>
-      <c r="B804">
-        <v>0.262396</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805">
-        <v>1022670348</v>
-      </c>
-      <c r="B805">
-        <v>0.2609221</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806">
-        <v>1022669644</v>
-      </c>
-      <c r="B806">
-        <v>0.2596108</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807">
-        <v>1022671433</v>
-      </c>
-      <c r="B807">
-        <v>0.259602</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808">
-        <v>1022676093</v>
-      </c>
-      <c r="B808">
-        <v>0.2592262</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809">
-        <v>1022675038</v>
-      </c>
-      <c r="B809">
-        <v>0.2564424</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810">
-        <v>1022676105</v>
-      </c>
-      <c r="B810">
-        <v>0.2554158</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811">
-        <v>1022669507</v>
-      </c>
-      <c r="B811">
-        <v>0.2553229</v>
+        <v>0.3894396</v>
       </c>
     </row>
   </sheetData>

--- a/DataSets_External/EMOutput/Predictive Models_CustToContact.xlsx
+++ b/DataSets_External/EMOutput/Predictive Models_CustToContact.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Predictive Models_CustToContact" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Predictive_Models_CustToContact">Predictive Models_CustToContact!$A$1:$B$721</definedName>
+    <definedName name="Predictive_Models_CustToContact">Predictive Models_CustToContact!$A$1:$B$811</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -113,66 +113,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1022676874</v>
+        <v>1022668890</v>
       </c>
       <c r="B2">
-        <v>0.982253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1022675869</v>
+        <v>1022669112</v>
       </c>
       <c r="B3">
-        <v>0.9811661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1022670965</v>
+        <v>1022669174</v>
       </c>
       <c r="B4">
-        <v>0.9807348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1022669462</v>
+        <v>1022669232</v>
       </c>
       <c r="B5">
-        <v>0.980216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1022677175</v>
+        <v>1022669462</v>
       </c>
       <c r="B6">
-        <v>0.9796556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1022669946</v>
+        <v>1022669922</v>
       </c>
       <c r="B7">
-        <v>0.9769488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1022674815</v>
+        <v>1022670798</v>
       </c>
       <c r="B8">
-        <v>0.9760191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1022672905</v>
+        <v>1022670965</v>
       </c>
       <c r="B9">
-        <v>0.9742205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -180,5695 +180,6415 @@
         <v>1022671083</v>
       </c>
       <c r="B10">
-        <v>0.97247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1022674537</v>
+        <v>1022671225</v>
       </c>
       <c r="B11">
-        <v>0.9692687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1022672309</v>
+        <v>1022671720</v>
       </c>
       <c r="B12">
-        <v>0.9681154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1022674940</v>
+        <v>1022672495</v>
       </c>
       <c r="B13">
-        <v>0.9679168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1022672274</v>
+        <v>1022672774</v>
       </c>
       <c r="B14">
-        <v>0.9673537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1022673563</v>
+        <v>1022672933</v>
       </c>
       <c r="B15">
-        <v>0.9666558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1022673498</v>
+        <v>1022673296</v>
       </c>
       <c r="B16">
-        <v>0.9662996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1022674691</v>
+        <v>1022673329</v>
       </c>
       <c r="B17">
-        <v>0.9660868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1022669964</v>
+        <v>1022673563</v>
       </c>
       <c r="B18">
-        <v>0.9658518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1022671069</v>
+        <v>1022673570</v>
       </c>
       <c r="B19">
-        <v>0.9657894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1022677927</v>
+        <v>1022675101</v>
       </c>
       <c r="B20">
-        <v>0.965187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1022677963</v>
+        <v>1022675836</v>
       </c>
       <c r="B21">
-        <v>0.9648473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1022669840</v>
+        <v>1022675869</v>
       </c>
       <c r="B22">
-        <v>0.9633939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1022675836</v>
+        <v>1022675921</v>
       </c>
       <c r="B23">
-        <v>0.9631583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1022674984</v>
+        <v>1022676176</v>
       </c>
       <c r="B24">
-        <v>0.9628122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1022669349</v>
+        <v>1022676826</v>
       </c>
       <c r="B25">
-        <v>0.9619332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1022673999</v>
+        <v>1022677175</v>
       </c>
       <c r="B26">
-        <v>0.9616665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1022669112</v>
+        <v>1022677779</v>
       </c>
       <c r="B27">
-        <v>0.9591928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1022669161</v>
+        <v>1022677927</v>
       </c>
       <c r="B28">
-        <v>0.9588471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1022672495</v>
+        <v>1022677963</v>
       </c>
       <c r="B29">
-        <v>0.9586745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1022670798</v>
+        <v>1022678000</v>
       </c>
       <c r="B30">
-        <v>0.9584684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1022678000</v>
+        <v>1022678070</v>
       </c>
       <c r="B31">
-        <v>0.9583527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1022676858</v>
+        <v>1022678145</v>
       </c>
       <c r="B32">
-        <v>0.957622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1022669174</v>
+        <v>1022669783</v>
       </c>
       <c r="B33">
-        <v>0.9575899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1022673570</v>
+        <v>1022677257</v>
       </c>
       <c r="B34">
-        <v>0.9574046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1022669232</v>
+        <v>1022677263</v>
       </c>
       <c r="B35">
-        <v>0.957309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1022675921</v>
+        <v>1022678490</v>
       </c>
       <c r="B36">
-        <v>0.9572532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1022674841</v>
+        <v>1022670583</v>
       </c>
       <c r="B37">
-        <v>0.9568766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1022675101</v>
+        <v>1022672274</v>
       </c>
       <c r="B38">
-        <v>0.956848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1022677231</v>
+        <v>1022671542</v>
       </c>
       <c r="B39">
-        <v>0.9565823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1022669922</v>
+        <v>1022669170</v>
       </c>
       <c r="B40">
-        <v>0.9562198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1022668976</v>
+        <v>1022672734</v>
       </c>
       <c r="B41">
-        <v>0.9560953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1022671497</v>
+        <v>1022672723</v>
       </c>
       <c r="B42">
-        <v>0.9560596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1022677263</v>
+        <v>1022669623</v>
       </c>
       <c r="B43">
-        <v>0.9556232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1022673296</v>
+        <v>1022677861</v>
       </c>
       <c r="B44">
-        <v>0.9555503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1022677958</v>
+        <v>1022674940</v>
       </c>
       <c r="B45">
-        <v>0.9551767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1022669170</v>
+        <v>1022678500</v>
       </c>
       <c r="B46">
-        <v>0.9550697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1022668890</v>
+        <v>1022674691</v>
       </c>
       <c r="B47">
-        <v>0.9545673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1022669984</v>
+        <v>1022673475</v>
       </c>
       <c r="B48">
-        <v>0.9544534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1022674216</v>
+        <v>1022677958</v>
       </c>
       <c r="B49">
-        <v>0.9543367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1022671225</v>
+        <v>1022673240</v>
       </c>
       <c r="B50">
-        <v>0.9538975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1022678570</v>
+        <v>1022673498</v>
       </c>
       <c r="B51">
-        <v>0.9536072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1022669623</v>
+        <v>1022677901</v>
       </c>
       <c r="B52">
-        <v>0.9534624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1022677642</v>
+        <v>1022669840</v>
       </c>
       <c r="B53">
-        <v>0.952924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1022675166</v>
+        <v>1022675935</v>
       </c>
       <c r="B54">
-        <v>0.9528725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1022670583</v>
+        <v>1022674841</v>
       </c>
       <c r="B55">
-        <v>0.9523743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1022674929</v>
+        <v>1022675030</v>
       </c>
       <c r="B56">
-        <v>0.9517445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1022672027</v>
+        <v>1022678608</v>
       </c>
       <c r="B57">
-        <v>0.9512318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1022671720</v>
+        <v>1022677642</v>
       </c>
       <c r="B58">
-        <v>0.9502988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1022675025</v>
+        <v>1022675002</v>
       </c>
       <c r="B59">
-        <v>0.9498332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1022678500</v>
+        <v>1022670134</v>
       </c>
       <c r="B60">
-        <v>0.9496813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1022673971</v>
+        <v>1022674216</v>
       </c>
       <c r="B61">
-        <v>0.9496045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1022673240</v>
+        <v>1022671497</v>
       </c>
       <c r="B62">
-        <v>0.9493223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1022677225</v>
+        <v>1022672485</v>
       </c>
       <c r="B63">
-        <v>0.9481321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1022677901</v>
+        <v>1022678510</v>
       </c>
       <c r="B64">
-        <v>0.9479593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1022671093</v>
+        <v>1022671278</v>
       </c>
       <c r="B65">
-        <v>0.9473195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1022678155</v>
+        <v>1022677675</v>
       </c>
       <c r="B66">
-        <v>0.9472238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1022671683</v>
+        <v>1022675545</v>
       </c>
       <c r="B67">
-        <v>0.9469631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1022671542</v>
+        <v>1022676874</v>
       </c>
       <c r="B68">
-        <v>0.9469109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1022673384</v>
+        <v>1022671093</v>
       </c>
       <c r="B69">
-        <v>0.9469073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1022672774</v>
+        <v>1022678154</v>
       </c>
       <c r="B70">
-        <v>0.9464229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1022669570</v>
+        <v>1022668790</v>
       </c>
       <c r="B71">
-        <v>0.9463078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1022673329</v>
+        <v>1022670226</v>
       </c>
       <c r="B72">
-        <v>0.9461788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1022674264</v>
+        <v>1022672027</v>
       </c>
       <c r="B73">
-        <v>0.9457672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1022678154</v>
+        <v>1022672076</v>
       </c>
       <c r="B74">
-        <v>0.9455863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1022678145</v>
+        <v>1022669349</v>
       </c>
       <c r="B75">
-        <v>0.945496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1022672666</v>
+        <v>1022674264</v>
       </c>
       <c r="B76">
-        <v>0.9451841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1022671050</v>
+        <v>1022671683</v>
       </c>
       <c r="B77">
-        <v>0.944929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1022668790</v>
+        <v>1022677231</v>
       </c>
       <c r="B78">
-        <v>0.944537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1022673681</v>
+        <v>1022669984</v>
       </c>
       <c r="B79">
-        <v>0.944106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1022676924</v>
+        <v>1022674815</v>
       </c>
       <c r="B80">
-        <v>0.9432433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1022674357</v>
+        <v>1022673362</v>
       </c>
       <c r="B81">
-        <v>0.9424878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1022670226</v>
+        <v>1022670021</v>
       </c>
       <c r="B82">
-        <v>0.9418197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1022676176</v>
+        <v>1022669964</v>
       </c>
       <c r="B83">
-        <v>0.941653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1022669004</v>
+        <v>1022676858</v>
       </c>
       <c r="B84">
-        <v>0.940943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1022677562</v>
+        <v>1022676924</v>
       </c>
       <c r="B85">
-        <v>0.940687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1022676048</v>
+        <v>1022675614</v>
       </c>
       <c r="B86">
-        <v>0.9401849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1022677675</v>
+        <v>1022675716</v>
       </c>
       <c r="B87">
-        <v>0.9397815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1022678008</v>
+        <v>1022672309</v>
       </c>
       <c r="B88">
-        <v>0.9396348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1022672485</v>
+        <v>1022678570</v>
       </c>
       <c r="B89">
-        <v>0.939417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1022668936</v>
+        <v>1022672211</v>
       </c>
       <c r="B90">
-        <v>0.9392022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1022672496</v>
+        <v>1022675123</v>
       </c>
       <c r="B91">
-        <v>0.938569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1022671516</v>
+        <v>1022678008</v>
       </c>
       <c r="B92">
-        <v>0.938375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1022670211</v>
+        <v>1022677225</v>
       </c>
       <c r="B93">
-        <v>0.9381077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1022676826</v>
+        <v>1022676363</v>
       </c>
       <c r="B94">
-        <v>0.9380471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1022669783</v>
+        <v>1022670320</v>
       </c>
       <c r="B95">
-        <v>0.9374955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1022675470</v>
+        <v>1022677562</v>
       </c>
       <c r="B96">
-        <v>0.9371433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1022674581</v>
+        <v>1022678647</v>
       </c>
       <c r="B97">
-        <v>0.936189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1022675873</v>
+        <v>1022675296</v>
       </c>
       <c r="B98">
-        <v>0.9360887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1022668811</v>
+        <v>1022670051</v>
       </c>
       <c r="B99">
-        <v>0.9360861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1022675935</v>
+        <v>1022670941</v>
       </c>
       <c r="B100">
-        <v>0.9353861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1022670051</v>
+        <v>1022669233</v>
       </c>
       <c r="B101">
-        <v>0.9350082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1022677221</v>
+        <v>1022671516</v>
       </c>
       <c r="B102">
-        <v>0.9347216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1022669709</v>
+        <v>1022674929</v>
       </c>
       <c r="B103">
-        <v>0.933091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1022668891</v>
+        <v>1022676394</v>
       </c>
       <c r="B104">
-        <v>0.9321457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1022675176</v>
+        <v>1022677916</v>
       </c>
       <c r="B105">
-        <v>0.9318713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1022675720</v>
+        <v>1022669685</v>
       </c>
       <c r="B106">
-        <v>0.9316588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1022669638</v>
+        <v>1022675873</v>
       </c>
       <c r="B107">
-        <v>0.9311022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1022675178</v>
+        <v>1022669080</v>
       </c>
       <c r="B108">
-        <v>0.9303186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1022675614</v>
+        <v>1022669570</v>
       </c>
       <c r="B109">
-        <v>0.9301546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1022676424</v>
+        <v>1022672303</v>
       </c>
       <c r="B110">
-        <v>0.9298389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1022675757</v>
+        <v>1022673999</v>
       </c>
       <c r="B111">
-        <v>0.9298098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1022669685</v>
+        <v>1022674984</v>
       </c>
       <c r="B112">
-        <v>0.9293195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1022676324</v>
+        <v>1022677221</v>
       </c>
       <c r="B113">
-        <v>0.9291813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1022671278</v>
+        <v>1022671050</v>
       </c>
       <c r="B114">
-        <v>0.9289315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1022672303</v>
+        <v>1022676048</v>
       </c>
       <c r="B115">
-        <v>0.9282434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1022675123</v>
+        <v>1022675025</v>
       </c>
       <c r="B116">
-        <v>0.9281919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1022676846</v>
+        <v>1022676076</v>
       </c>
       <c r="B117">
-        <v>0.9279544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1022675320</v>
+        <v>1022675215</v>
       </c>
       <c r="B118">
-        <v>0.9277061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1022676182</v>
+        <v>1022675005</v>
       </c>
       <c r="B119">
-        <v>0.9275098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1022677557</v>
+        <v>1022668976</v>
       </c>
       <c r="B120">
-        <v>0.9274885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1022670134</v>
+        <v>1022668850</v>
       </c>
       <c r="B121">
-        <v>0.9267964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1022675865</v>
+        <v>1022670609</v>
       </c>
       <c r="B122">
-        <v>0.9264902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1022669080</v>
+        <v>1022668811</v>
       </c>
       <c r="B123">
-        <v>0.9260297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1022675361</v>
+        <v>1022671135</v>
       </c>
       <c r="B124">
-        <v>0.9253966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1022678349</v>
+        <v>1022678155</v>
       </c>
       <c r="B125">
-        <v>0.9248188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1022677184</v>
+        <v>1022674537</v>
       </c>
       <c r="B126">
-        <v>0.9245487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1022677916</v>
+        <v>1022674797</v>
       </c>
       <c r="B127">
-        <v>0.9243812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1022670697</v>
+        <v>1022668891</v>
       </c>
       <c r="B128">
-        <v>0.9237742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1022672211</v>
+        <v>1022674325</v>
       </c>
       <c r="B129">
-        <v>0.9235837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1022675716</v>
+        <v>1022676846</v>
       </c>
       <c r="B130">
-        <v>0.9226998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1022669884</v>
+        <v>1022669161</v>
       </c>
       <c r="B131">
-        <v>0.9226258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1022675360</v>
+        <v>1022678511</v>
       </c>
       <c r="B132">
-        <v>0.9226042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1022669348</v>
+        <v>1022672905</v>
       </c>
       <c r="B133">
-        <v>0.9220622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1022671532</v>
+        <v>1022671491</v>
       </c>
       <c r="B134">
-        <v>0.9215694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1022670320</v>
+        <v>1022675565</v>
       </c>
       <c r="B135">
-        <v>0.9213037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1022678511</v>
+        <v>1022669870</v>
       </c>
       <c r="B136">
-        <v>0.9207371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1022678150</v>
+        <v>1022669946</v>
       </c>
       <c r="B137">
-        <v>0.9202298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1022672734</v>
+        <v>1022669004</v>
       </c>
       <c r="B138">
-        <v>0.9200977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1022674110</v>
+        <v>1022677526</v>
       </c>
       <c r="B139">
-        <v>0.9193489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1022675215</v>
+        <v>1022676175</v>
       </c>
       <c r="B140">
-        <v>0.9186673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1022675393</v>
+        <v>1022671669</v>
       </c>
       <c r="B141">
-        <v>0.9185641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1022670351</v>
+        <v>1022671558</v>
       </c>
       <c r="B142">
-        <v>0.9185279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1022677779</v>
+        <v>1022669709</v>
       </c>
       <c r="B143">
-        <v>0.9183757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1022674317</v>
+        <v>1022674581</v>
       </c>
       <c r="B144">
-        <v>0.9183418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1022676647</v>
+        <v>1022674413</v>
       </c>
       <c r="B145">
-        <v>0.9180087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1022678490</v>
+        <v>1022676970</v>
       </c>
       <c r="B146">
-        <v>0.9179332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1022677160</v>
+        <v>1022676324</v>
       </c>
       <c r="B147">
-        <v>0.9175977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1022674322</v>
+        <v>1022670736</v>
       </c>
       <c r="B148">
-        <v>0.9171718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1022674325</v>
+        <v>1022669595</v>
       </c>
       <c r="B149">
-        <v>0.916937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1022678577</v>
+        <v>1022675720</v>
       </c>
       <c r="B150">
-        <v>0.9167965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1022672265</v>
+        <v>1022673306</v>
       </c>
       <c r="B151">
-        <v>0.9165227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1022673362</v>
+        <v>1022675361</v>
       </c>
       <c r="B152">
-        <v>0.9154261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1022675252</v>
+        <v>1022672265</v>
       </c>
       <c r="B153">
-        <v>0.9154189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1022671733</v>
+        <v>1022676647</v>
       </c>
       <c r="B154">
-        <v>0.9147887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1022678608</v>
+        <v>1022669638</v>
       </c>
       <c r="B155">
-        <v>0.9135964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1022668802</v>
+        <v>1022676148</v>
       </c>
       <c r="B156">
-        <v>0.913096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1022675545</v>
+        <v>1022672075</v>
       </c>
       <c r="B157">
-        <v>0.9128369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1022678560</v>
+        <v>1022669884</v>
       </c>
       <c r="B158">
-        <v>0.9124258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1022674497</v>
+        <v>1022674778</v>
       </c>
       <c r="B159">
-        <v>0.9121901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1022674437</v>
+        <v>1022678212</v>
       </c>
       <c r="B160">
-        <v>0.9104238</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1022672424</v>
+        <v>1022670211</v>
       </c>
       <c r="B161">
-        <v>0.9098072</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1022676394</v>
+        <v>1022669838</v>
       </c>
       <c r="B162">
-        <v>0.9097911</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1022672723</v>
+        <v>1022675252</v>
       </c>
       <c r="B163">
-        <v>0.9095743</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1022676076</v>
+        <v>1022673171</v>
       </c>
       <c r="B164">
-        <v>0.9094372</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1022674797</v>
+        <v>1022674782</v>
       </c>
       <c r="B165">
-        <v>0.9091421</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1022678070</v>
+        <v>1022669276</v>
       </c>
       <c r="B166">
-        <v>0.909132</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1022674816</v>
+        <v>1022675645</v>
       </c>
       <c r="B167">
-        <v>0.9090678</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1022672605</v>
+        <v>1022676182</v>
       </c>
       <c r="B168">
-        <v>0.9085134</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1022678510</v>
+        <v>1022675393</v>
       </c>
       <c r="B169">
-        <v>0.9066801</v>
+        <v>0.9999999</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1022671135</v>
+        <v>1022675166</v>
       </c>
       <c r="B170">
-        <v>0.9062309</v>
+        <v>0.9999997</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1022677998</v>
+        <v>1022668827</v>
       </c>
       <c r="B171">
-        <v>0.905464</v>
+        <v>0.9999997</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1022678647</v>
+        <v>1022672867</v>
       </c>
       <c r="B172">
-        <v>0.9051851</v>
+        <v>0.9999997</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1022677257</v>
+        <v>1022674690</v>
       </c>
       <c r="B173">
-        <v>0.9043968</v>
+        <v>0.9999997</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1022676066</v>
+        <v>1022675679</v>
       </c>
       <c r="B174">
-        <v>0.9041015</v>
+        <v>0.9999997</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1022668850</v>
+        <v>1022675755</v>
       </c>
       <c r="B175">
-        <v>0.9031187</v>
+        <v>0.9999997</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1022671558</v>
+        <v>1022676644</v>
       </c>
       <c r="B176">
-        <v>0.9030758</v>
+        <v>0.9999996</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1022674564</v>
+        <v>1022678182</v>
       </c>
       <c r="B177">
-        <v>0.9027212</v>
+        <v>0.9999995</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1022676363</v>
+        <v>1022671959</v>
       </c>
       <c r="B178">
-        <v>0.9017411</v>
+        <v>0.9999994</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1022671491</v>
+        <v>1022669328</v>
       </c>
       <c r="B179">
-        <v>0.9015384</v>
+        <v>0.9999994</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1022677216</v>
+        <v>1022670250</v>
       </c>
       <c r="B180">
-        <v>0.8992805</v>
+        <v>0.9999994</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1022675871</v>
+        <v>1022675470</v>
       </c>
       <c r="B181">
-        <v>0.8987384</v>
+        <v>0.9999993</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1022673475</v>
+        <v>1022671763</v>
       </c>
       <c r="B182">
-        <v>0.8984182</v>
+        <v>0.9999993</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1022674773</v>
+        <v>1022668833</v>
       </c>
       <c r="B183">
-        <v>0.8982446</v>
+        <v>0.9999993</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1022671858</v>
+        <v>1022676020</v>
       </c>
       <c r="B184">
-        <v>0.8956273</v>
+        <v>0.9999993</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1022676358</v>
+        <v>1022672278</v>
       </c>
       <c r="B185">
-        <v>0.8954136</v>
+        <v>0.9999992</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1022670244</v>
+        <v>1022677184</v>
       </c>
       <c r="B186">
-        <v>0.8945784</v>
+        <v>0.9999992</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1022671400</v>
+        <v>1022672228</v>
       </c>
       <c r="B187">
-        <v>0.89455</v>
+        <v>0.9999992</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1022671998</v>
+        <v>1022673813</v>
       </c>
       <c r="B188">
-        <v>0.8941692</v>
+        <v>0.9999991</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1022677861</v>
+        <v>1022674682</v>
       </c>
       <c r="B189">
-        <v>0.8937818</v>
+        <v>0.999999</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1022676307</v>
+        <v>1022674816</v>
       </c>
       <c r="B190">
-        <v>0.8936819</v>
+        <v>0.999999</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1022675002</v>
+        <v>1022678163</v>
       </c>
       <c r="B191">
-        <v>0.8927134</v>
+        <v>0.9999989</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1022670428</v>
+        <v>1022674317</v>
       </c>
       <c r="B192">
-        <v>0.892063</v>
+        <v>0.9999988</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1022676644</v>
+        <v>1022674621</v>
       </c>
       <c r="B193">
-        <v>0.8919707</v>
+        <v>0.9999987</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1022675295</v>
+        <v>1022674851</v>
       </c>
       <c r="B194">
-        <v>0.8919388</v>
+        <v>0.9999987</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1022674682</v>
+        <v>1022678560</v>
       </c>
       <c r="B195">
-        <v>0.8909481</v>
+        <v>0.9999986</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1022670267</v>
+        <v>1022669348</v>
       </c>
       <c r="B196">
-        <v>0.8902906</v>
+        <v>0.9999986</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1022672933</v>
+        <v>1022669744</v>
       </c>
       <c r="B197">
-        <v>0.8901793</v>
+        <v>0.9999983</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1022672166</v>
+        <v>1022672428</v>
       </c>
       <c r="B198">
-        <v>0.8891043</v>
+        <v>0.9999983</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1022677109</v>
+        <v>1022672525</v>
       </c>
       <c r="B199">
-        <v>0.8889452</v>
+        <v>0.9999982</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1022669360</v>
+        <v>1022676536</v>
       </c>
       <c r="B200">
-        <v>0.8889394</v>
+        <v>0.9999982</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1022670021</v>
+        <v>1022670244</v>
       </c>
       <c r="B201">
-        <v>0.8887024</v>
+        <v>0.9999977</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1022671846</v>
+        <v>1022676696</v>
       </c>
       <c r="B202">
-        <v>0.8886314</v>
+        <v>0.9999977</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1022677526</v>
+        <v>1022674957</v>
       </c>
       <c r="B203">
-        <v>0.8880639</v>
+        <v>0.9999976</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1022675030</v>
+        <v>1022669986</v>
       </c>
       <c r="B204">
-        <v>0.8878505</v>
+        <v>0.9999975</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1022670680</v>
+        <v>1022669084</v>
       </c>
       <c r="B205">
-        <v>0.8876206</v>
+        <v>0.9999973</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1022672076</v>
+        <v>1022673973</v>
       </c>
       <c r="B206">
-        <v>0.8875022</v>
+        <v>0.999997</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1022674778</v>
+        <v>1022672966</v>
       </c>
       <c r="B207">
-        <v>0.8870813</v>
+        <v>0.999997</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1022672855</v>
+        <v>1022675584</v>
       </c>
       <c r="B208">
-        <v>0.8868199</v>
+        <v>0.9999968</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1022668827</v>
+        <v>1022673451</v>
       </c>
       <c r="B209">
-        <v>0.8863749</v>
+        <v>0.9999967</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1022676567</v>
+        <v>1022675757</v>
       </c>
       <c r="B210">
-        <v>0.8863409</v>
+        <v>0.9999965</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1022675485</v>
+        <v>1022671689</v>
       </c>
       <c r="B211">
-        <v>0.886165</v>
+        <v>0.9999965</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1022671669</v>
+        <v>1022673971</v>
       </c>
       <c r="B212">
-        <v>0.8853318</v>
+        <v>0.9999961</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1022670326</v>
+        <v>1022674757</v>
       </c>
       <c r="B213">
-        <v>0.8850149</v>
+        <v>0.9999959</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1022672689</v>
+        <v>1022672605</v>
       </c>
       <c r="B214">
-        <v>0.8845405</v>
+        <v>0.9999955</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1022672228</v>
+        <v>1022673408</v>
       </c>
       <c r="B215">
-        <v>0.8843547</v>
+        <v>0.9999951</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1022678458</v>
+        <v>1022676834</v>
       </c>
       <c r="B216">
-        <v>0.8836931</v>
+        <v>0.9999946</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1022675859</v>
+        <v>1022674374</v>
       </c>
       <c r="B217">
-        <v>0.8836524</v>
+        <v>0.9999946</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1022676536</v>
+        <v>1022672689</v>
       </c>
       <c r="B218">
-        <v>0.882803</v>
+        <v>0.9999944</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1022677841</v>
+        <v>1022671846</v>
       </c>
       <c r="B219">
-        <v>0.882462</v>
+        <v>0.9999943</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1022669920</v>
+        <v>1022675865</v>
       </c>
       <c r="B220">
-        <v>0.8823039</v>
+        <v>0.9999938</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1022675005</v>
+        <v>1022669920</v>
       </c>
       <c r="B221">
-        <v>0.8813378</v>
+        <v>0.9999923</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1022670941</v>
+        <v>1022677577</v>
       </c>
       <c r="B222">
-        <v>0.8788719</v>
+        <v>0.9999917</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1022671637</v>
+        <v>1022676155</v>
       </c>
       <c r="B223">
-        <v>0.8785088</v>
+        <v>0.9999914</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1022669328</v>
+        <v>1022672424</v>
       </c>
       <c r="B224">
-        <v>0.876913</v>
+        <v>0.9999913</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1022671763</v>
+        <v>1022670559</v>
       </c>
       <c r="B225">
-        <v>0.8765805</v>
+        <v>0.9999908</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1022669276</v>
+        <v>1022676066</v>
       </c>
       <c r="B226">
-        <v>0.8764618</v>
+        <v>0.9999904</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1022678171</v>
+        <v>1022672286</v>
       </c>
       <c r="B227">
-        <v>0.8764007</v>
+        <v>0.9999904</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1022672701</v>
+        <v>1022672631</v>
       </c>
       <c r="B228">
-        <v>0.8763953</v>
+        <v>0.9999902</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1022675755</v>
+        <v>1022674635</v>
       </c>
       <c r="B229">
-        <v>0.8759799</v>
+        <v>0.9999902</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1022673813</v>
+        <v>1022677841</v>
       </c>
       <c r="B230">
-        <v>0.8754695</v>
+        <v>0.9999895</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1022672075</v>
+        <v>1022677838</v>
       </c>
       <c r="B231">
-        <v>0.8751588</v>
+        <v>0.9999894</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1022677857</v>
+        <v>1022674773</v>
       </c>
       <c r="B232">
-        <v>0.8750582</v>
+        <v>0.9999876</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1022675584</v>
+        <v>1022671656</v>
       </c>
       <c r="B233">
-        <v>0.875026</v>
+        <v>0.9999866</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1022677422</v>
+        <v>1022675176</v>
       </c>
       <c r="B234">
-        <v>0.8745599</v>
+        <v>0.9999844</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1022674851</v>
+        <v>1022672894</v>
       </c>
       <c r="B235">
-        <v>0.8739571</v>
+        <v>0.9999838</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1022675296</v>
+        <v>1022676424</v>
       </c>
       <c r="B236">
-        <v>0.8734432</v>
+        <v>0.9999827</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1022674168</v>
+        <v>1022668990</v>
       </c>
       <c r="B237">
-        <v>0.8729113</v>
+        <v>0.9999823</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1022670507</v>
+        <v>1022673681</v>
       </c>
       <c r="B238">
-        <v>0.8717032</v>
+        <v>0.9999823</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1022671038</v>
+        <v>1022678231</v>
       </c>
       <c r="B239">
-        <v>0.87162</v>
+        <v>0.9999817</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1022677657</v>
+        <v>1022674106</v>
       </c>
       <c r="B240">
-        <v>0.8711443</v>
+        <v>0.9999817</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1022674957</v>
+        <v>1022674211</v>
       </c>
       <c r="B241">
-        <v>0.8710862</v>
+        <v>0.9999815</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1022677670</v>
+        <v>1022673163</v>
       </c>
       <c r="B242">
-        <v>0.8709426</v>
+        <v>0.9999804</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1022677238</v>
+        <v>1022670912</v>
       </c>
       <c r="B243">
-        <v>0.8703643</v>
+        <v>0.999976</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1022676696</v>
+        <v>1022678150</v>
       </c>
       <c r="B244">
-        <v>0.8685664</v>
+        <v>0.9999741</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1022672451</v>
+        <v>1022673092</v>
       </c>
       <c r="B245">
-        <v>0.8678256</v>
+        <v>0.9999723</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1022678182</v>
+        <v>1022671522</v>
       </c>
       <c r="B246">
-        <v>0.867101</v>
+        <v>0.999972</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1022670736</v>
+        <v>1022669360</v>
       </c>
       <c r="B247">
-        <v>0.8669811</v>
+        <v>0.9999718</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1022669233</v>
+        <v>1022675295</v>
       </c>
       <c r="B248">
-        <v>0.86675</v>
+        <v>0.9999707</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1022677471</v>
+        <v>1022674357</v>
       </c>
       <c r="B249">
-        <v>0.8651288</v>
+        <v>0.9999687</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1022672642</v>
+        <v>1022677297</v>
       </c>
       <c r="B250">
-        <v>0.8647884</v>
+        <v>0.9999686</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1022672148</v>
+        <v>1022673384</v>
       </c>
       <c r="B251">
-        <v>0.8644401</v>
+        <v>0.9999671</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1022671522</v>
+        <v>1022674663</v>
       </c>
       <c r="B252">
-        <v>0.8636607</v>
+        <v>0.9999634</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1022677992</v>
+        <v>1022670295</v>
       </c>
       <c r="B253">
-        <v>0.8633627</v>
+        <v>0.9999629</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1022673068</v>
+        <v>1022677863</v>
       </c>
       <c r="B254">
-        <v>0.862844</v>
+        <v>0.9999617</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1022669508</v>
+        <v>1022674114</v>
       </c>
       <c r="B255">
-        <v>0.8611019</v>
+        <v>0.9999608</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1022675298</v>
+        <v>1022676181</v>
       </c>
       <c r="B256">
-        <v>0.8604787</v>
+        <v>0.9999571</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1022673092</v>
+        <v>1022676349</v>
       </c>
       <c r="B257">
-        <v>0.8595278</v>
+        <v>0.9999559</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1022675679</v>
+        <v>1022677557</v>
       </c>
       <c r="B258">
-        <v>0.8594433</v>
+        <v>0.9999547</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1022672631</v>
+        <v>1022671400</v>
       </c>
       <c r="B259">
-        <v>0.8590383</v>
+        <v>0.9999473</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1022673567</v>
+        <v>1022671069</v>
       </c>
       <c r="B260">
-        <v>0.8588158</v>
+        <v>0.999947</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1022674374</v>
+        <v>1022674564</v>
       </c>
       <c r="B261">
-        <v>0.8582335</v>
+        <v>0.9999452</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1022671656</v>
+        <v>1022676178</v>
       </c>
       <c r="B262">
-        <v>0.856684</v>
+        <v>0.9999422</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1022678237</v>
+        <v>1022676084</v>
       </c>
       <c r="B263">
-        <v>0.8559956</v>
+        <v>0.9999395</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1022677775</v>
+        <v>1022677471</v>
       </c>
       <c r="B264">
-        <v>0.8555466</v>
+        <v>0.9999345</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1022668833</v>
+        <v>1022677634</v>
       </c>
       <c r="B265">
-        <v>0.8552464</v>
+        <v>0.999926</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1022673973</v>
+        <v>1022672101</v>
       </c>
       <c r="B266">
-        <v>0.8545813</v>
+        <v>0.9999238</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1022670609</v>
+        <v>1022678532</v>
       </c>
       <c r="B267">
-        <v>0.8541988</v>
+        <v>0.9999219</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1022673163</v>
+        <v>1022675485</v>
       </c>
       <c r="B268">
-        <v>0.8537233</v>
+        <v>0.9999208</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1022668932</v>
+        <v>1022671283</v>
       </c>
       <c r="B269">
-        <v>0.8528392</v>
+        <v>0.9999199</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1022677982</v>
+        <v>1022674513</v>
       </c>
       <c r="B270">
-        <v>0.8527552</v>
+        <v>0.9999174</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1022674466</v>
+        <v>1022678747</v>
       </c>
       <c r="B271">
-        <v>0.8514588</v>
+        <v>0.9999143</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1022671839</v>
+        <v>1022677109</v>
       </c>
       <c r="B272">
-        <v>0.8510495</v>
+        <v>0.9999124</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1022675494</v>
+        <v>1022675356</v>
       </c>
       <c r="B273">
-        <v>0.8502768</v>
+        <v>0.9999047</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1022676198</v>
+        <v>1022677160</v>
       </c>
       <c r="B274">
-        <v>0.8499844</v>
+        <v>0.9999042</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>1022668965</v>
+        <v>1022674497</v>
       </c>
       <c r="B275">
-        <v>0.8498698</v>
+        <v>0.9999036</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>1022676175</v>
+        <v>1022670267</v>
       </c>
       <c r="B276">
-        <v>0.849752</v>
+        <v>0.9999034</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1022674482</v>
+        <v>1022677493</v>
       </c>
       <c r="B277">
-        <v>0.8497251</v>
+        <v>0.9998925</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1022671959</v>
+        <v>1022671532</v>
       </c>
       <c r="B278">
-        <v>0.8484702</v>
+        <v>0.9998858</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1022669383</v>
+        <v>1022668802</v>
       </c>
       <c r="B279">
-        <v>0.8473477</v>
+        <v>0.9998857</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1022672286</v>
+        <v>1022674801</v>
       </c>
       <c r="B280">
-        <v>0.8473004</v>
+        <v>0.9998828</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1022673171</v>
+        <v>1022671858</v>
       </c>
       <c r="B281">
-        <v>0.8464327</v>
+        <v>0.9998789</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1022672607</v>
+        <v>1022674437</v>
       </c>
       <c r="B282">
-        <v>0.8452665</v>
+        <v>0.999876</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1022672885</v>
+        <v>1022674298</v>
       </c>
       <c r="B283">
-        <v>0.8451911</v>
+        <v>0.9998749</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1022671182</v>
+        <v>1022668979</v>
       </c>
       <c r="B284">
-        <v>0.8446625</v>
+        <v>0.9998578</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1022674621</v>
+        <v>1022677365</v>
       </c>
       <c r="B285">
-        <v>0.8443336</v>
+        <v>0.9998559</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1022674635</v>
+        <v>1022677238</v>
       </c>
       <c r="B286">
-        <v>0.8439593</v>
+        <v>0.9998487</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1022678011</v>
+        <v>1022674482</v>
       </c>
       <c r="B287">
-        <v>0.8435616</v>
+        <v>0.9998458</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>1022673129</v>
+        <v>1022676976</v>
       </c>
       <c r="B288">
-        <v>0.8430052</v>
+        <v>0.9998426</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>1022677077</v>
+        <v>1022672642</v>
       </c>
       <c r="B289">
-        <v>0.8412746</v>
+        <v>0.9998383</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1022672428</v>
+        <v>1022670516</v>
       </c>
       <c r="B290">
-        <v>0.8373255</v>
+        <v>0.9998376</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1022669595</v>
+        <v>1022668975</v>
       </c>
       <c r="B291">
-        <v>0.8369271</v>
+        <v>0.9998343</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1022673467</v>
+        <v>1022669508</v>
       </c>
       <c r="B292">
-        <v>0.83648</v>
+        <v>0.9998243</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1022669368</v>
+        <v>1022669777</v>
       </c>
       <c r="B293">
-        <v>0.836324</v>
+        <v>0.9998087</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1022678212</v>
+        <v>1022673334</v>
       </c>
       <c r="B294">
-        <v>0.8357719</v>
+        <v>0.9997989</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1022675268</v>
+        <v>1022677759</v>
       </c>
       <c r="B295">
-        <v>0.8350724</v>
+        <v>0.9997859</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>1022670505</v>
+        <v>1022672496</v>
       </c>
       <c r="B296">
-        <v>0.8347139</v>
+        <v>0.9997832</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>1022672966</v>
+        <v>1022670680</v>
       </c>
       <c r="B297">
-        <v>0.8344265</v>
+        <v>0.9997827</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1022678163</v>
+        <v>1022670428</v>
       </c>
       <c r="B298">
-        <v>0.8342148</v>
+        <v>0.9997807</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1022678725</v>
+        <v>1022670351</v>
       </c>
       <c r="B299">
-        <v>0.8322583</v>
+        <v>0.9997688</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1022674298</v>
+        <v>1022678577</v>
       </c>
       <c r="B300">
-        <v>0.8314867</v>
+        <v>0.9997667</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>1022677979</v>
+        <v>1022671269</v>
       </c>
       <c r="B301">
-        <v>0.8304515</v>
+        <v>0.9997498</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>1022677365</v>
+        <v>1022672819</v>
       </c>
       <c r="B302">
-        <v>0.829078</v>
+        <v>0.9997408</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>1022676976</v>
+        <v>1022671803</v>
       </c>
       <c r="B303">
-        <v>0.826516</v>
+        <v>0.9997339</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1022676185</v>
+        <v>1022677422</v>
       </c>
       <c r="B304">
-        <v>0.8244877</v>
+        <v>0.9997318</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1022677937</v>
+        <v>1022676307</v>
       </c>
       <c r="B305">
-        <v>0.8232276</v>
+        <v>0.9997273</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1022674709</v>
+        <v>1022671138</v>
       </c>
       <c r="B306">
-        <v>0.8227114</v>
+        <v>0.9997173</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1022677573</v>
+        <v>1022676567</v>
       </c>
       <c r="B307">
-        <v>0.8223042</v>
+        <v>0.9997107</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1022674782</v>
+        <v>1022673819</v>
       </c>
       <c r="B308">
-        <v>0.821484</v>
+        <v>0.99966</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1022669968</v>
+        <v>1022677979</v>
       </c>
       <c r="B309">
-        <v>0.8209024</v>
+        <v>0.9996373</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1022674690</v>
+        <v>1022668936</v>
       </c>
       <c r="B310">
-        <v>0.8204044</v>
+        <v>0.9996322</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1022675507</v>
+        <v>1022672607</v>
       </c>
       <c r="B311">
-        <v>0.819045</v>
+        <v>0.9996174</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>1022675280</v>
+        <v>1022672166</v>
       </c>
       <c r="B312">
-        <v>0.81846</v>
+        <v>0.9996142</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>1022672737</v>
+        <v>1022672273</v>
       </c>
       <c r="B313">
-        <v>0.8182562</v>
+        <v>0.9996134</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>1022678374</v>
+        <v>1022675360</v>
       </c>
       <c r="B314">
-        <v>0.8166873</v>
+        <v>0.9996084</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>1022676349</v>
+        <v>1022670132</v>
       </c>
       <c r="B315">
-        <v>0.8161647</v>
+        <v>0.9996076</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>1022673264</v>
+        <v>1022675714</v>
       </c>
       <c r="B316">
-        <v>0.8144059</v>
+        <v>0.9995944</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>1022671205</v>
+        <v>1022674510</v>
       </c>
       <c r="B317">
-        <v>0.8132146</v>
+        <v>0.9995644</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1022668783</v>
+        <v>1022676185</v>
       </c>
       <c r="B318">
-        <v>0.8129515</v>
+        <v>0.9995078</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1022675565</v>
+        <v>1022675512</v>
       </c>
       <c r="B319">
-        <v>0.8112591</v>
+        <v>0.9995016</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1022672398</v>
+        <v>1022675895</v>
       </c>
       <c r="B320">
-        <v>0.8109027</v>
+        <v>0.9994993</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1022677962</v>
+        <v>1022669383</v>
       </c>
       <c r="B321">
-        <v>0.8102202</v>
+        <v>0.9994959</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1022670559</v>
+        <v>1022677583</v>
       </c>
       <c r="B322">
-        <v>0.8088131</v>
+        <v>0.999454</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>1022675226</v>
+        <v>1022677670</v>
       </c>
       <c r="B323">
-        <v>0.8068785</v>
+        <v>0.9994326</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1022673306</v>
+        <v>1022669368</v>
       </c>
       <c r="B324">
-        <v>0.8054872</v>
+        <v>0.9994284</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1022676834</v>
+        <v>1022674246</v>
       </c>
       <c r="B325">
-        <v>0.8052859</v>
+        <v>0.9994172</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1022670523</v>
+        <v>1022669475</v>
       </c>
       <c r="B326">
-        <v>0.804875</v>
+        <v>0.999412</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1022669744</v>
+        <v>1022672855</v>
       </c>
       <c r="B327">
-        <v>0.804382</v>
+        <v>0.9993611</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1022676178</v>
+        <v>1022670475</v>
       </c>
       <c r="B328">
-        <v>0.8039286</v>
+        <v>0.9993492</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1022669260</v>
+        <v>1022675871</v>
       </c>
       <c r="B329">
-        <v>0.8030963</v>
+        <v>0.999349</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1022674513</v>
+        <v>1022674088</v>
       </c>
       <c r="B330">
-        <v>0.802863</v>
+        <v>0.9993253</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1022669166</v>
+        <v>1022674653</v>
       </c>
       <c r="B331">
-        <v>0.802718</v>
+        <v>0.9993162</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1022670484</v>
+        <v>1022678725</v>
       </c>
       <c r="B332">
-        <v>0.8025075</v>
+        <v>0.9992721</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1022670295</v>
+        <v>1022675178</v>
       </c>
       <c r="B333">
-        <v>0.8009674</v>
+        <v>0.9992471</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1022669986</v>
+        <v>1022676939</v>
       </c>
       <c r="B334">
-        <v>0.8003491</v>
+        <v>0.9992306</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1022676867</v>
+        <v>1022670819</v>
       </c>
       <c r="B335">
-        <v>0.8002865</v>
+        <v>0.9992181</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1022670444</v>
+        <v>1022673068</v>
       </c>
       <c r="B336">
-        <v>0.7992967</v>
+        <v>0.9990901</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1022671283</v>
+        <v>1022676303</v>
       </c>
       <c r="B337">
-        <v>0.7983301</v>
+        <v>0.9990191</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1022670475</v>
+        <v>1022671839</v>
       </c>
       <c r="B338">
-        <v>0.796854</v>
+        <v>0.9990057</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>1022671480</v>
+        <v>1022673738</v>
       </c>
       <c r="B339">
-        <v>0.7957497</v>
+        <v>0.9989751</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1022674976</v>
+        <v>1022669836</v>
       </c>
       <c r="B340">
-        <v>0.7952293</v>
+        <v>0.9989692</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>1022670025</v>
+        <v>1022676867</v>
       </c>
       <c r="B341">
-        <v>0.7951604</v>
+        <v>0.9989423</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1022677459</v>
+        <v>1022673682</v>
       </c>
       <c r="B342">
-        <v>0.7938799</v>
+        <v>0.9989342</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>1022674959</v>
+        <v>1022674976</v>
       </c>
       <c r="B343">
-        <v>0.7935815</v>
+        <v>0.9989024</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>1022676766</v>
+        <v>1022674709</v>
       </c>
       <c r="B344">
-        <v>0.7922315</v>
+        <v>0.9988214</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>1022678614</v>
+        <v>1022675561</v>
       </c>
       <c r="B345">
-        <v>0.7912221</v>
+        <v>0.9988213</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>1022668768</v>
+        <v>1022675268</v>
       </c>
       <c r="B346">
-        <v>0.7909983</v>
+        <v>0.9987885</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1022673151</v>
+        <v>1022671732</v>
       </c>
       <c r="B347">
-        <v>0.7909657</v>
+        <v>0.9987816</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>1022671611</v>
+        <v>1022675320</v>
       </c>
       <c r="B348">
-        <v>0.7896492</v>
+        <v>0.9986793</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1022677838</v>
+        <v>1022669391</v>
       </c>
       <c r="B349">
-        <v>0.7888799</v>
+        <v>0.998602</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>1022675409</v>
+        <v>1022670697</v>
       </c>
       <c r="B350">
-        <v>0.7888642</v>
+        <v>0.9985809</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1022673682</v>
+        <v>1022676870</v>
       </c>
       <c r="B351">
-        <v>0.7888379</v>
+        <v>0.998566</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1022677314</v>
+        <v>1022675298</v>
       </c>
       <c r="B352">
-        <v>0.7872002</v>
+        <v>0.9985387</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>1022676020</v>
+        <v>1022671089</v>
       </c>
       <c r="B353">
-        <v>0.7828461</v>
+        <v>0.9984895</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1022669475</v>
+        <v>1022670523</v>
       </c>
       <c r="B354">
-        <v>0.7821276</v>
+        <v>0.9984438</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1022672088</v>
+        <v>1022676358</v>
       </c>
       <c r="B355">
-        <v>0.7818064</v>
+        <v>0.9984278</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>1022670451</v>
+        <v>1022676198</v>
       </c>
       <c r="B356">
-        <v>0.7801129</v>
+        <v>0.9983705</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>1022669870</v>
+        <v>1022675794</v>
       </c>
       <c r="B357">
-        <v>0.7796103</v>
+        <v>0.9983042</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>1022671803</v>
+        <v>1022674322</v>
       </c>
       <c r="B358">
-        <v>0.7793699</v>
+        <v>0.998132</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>1022669777</v>
+        <v>1022672398</v>
       </c>
       <c r="B359">
-        <v>0.7782338</v>
+        <v>0.9980467</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>1022678533</v>
+        <v>1022669079</v>
       </c>
       <c r="B360">
-        <v>0.7768081</v>
+        <v>0.9980305</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>1022670940</v>
+        <v>1022675507</v>
       </c>
       <c r="B361">
-        <v>0.7767802</v>
+        <v>0.9979639</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>1022678231</v>
+        <v>1022672737</v>
       </c>
       <c r="B362">
-        <v>0.7733978</v>
+        <v>0.9979543</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>1022678602</v>
+        <v>1022678011</v>
       </c>
       <c r="B363">
-        <v>0.7726853</v>
+        <v>0.9979333</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1022670029</v>
+        <v>1022678349</v>
       </c>
       <c r="B364">
-        <v>0.7708354</v>
+        <v>0.9978238</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>1022671689</v>
+        <v>1022677658</v>
       </c>
       <c r="B365">
-        <v>0.7684869</v>
+        <v>0.9978081</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>1022668990</v>
+        <v>1022673007</v>
       </c>
       <c r="B366">
-        <v>0.7665513</v>
+        <v>0.9978045</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>1022670516</v>
+        <v>1022674870</v>
       </c>
       <c r="B367">
-        <v>0.7662726</v>
+        <v>0.9976996</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>1022669018</v>
+        <v>1022670089</v>
       </c>
       <c r="B368">
-        <v>0.7661295</v>
+        <v>0.99754</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>1022668906</v>
+        <v>1022673158</v>
       </c>
       <c r="B369">
-        <v>0.7635672</v>
+        <v>0.9973729</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>1022669025</v>
+        <v>1022678363</v>
       </c>
       <c r="B370">
-        <v>0.7610554</v>
+        <v>0.9973107</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>1022671170</v>
+        <v>1022677857</v>
       </c>
       <c r="B371">
-        <v>0.7606319</v>
+        <v>0.997275</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>1022673334</v>
+        <v>1022673264</v>
       </c>
       <c r="B372">
-        <v>0.7602511</v>
+        <v>0.9972741</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>1022678415</v>
+        <v>1022675890</v>
       </c>
       <c r="B373">
-        <v>0.7569038</v>
+        <v>0.9971763</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1022677361</v>
+        <v>1022678237</v>
       </c>
       <c r="B374">
-        <v>0.7568641</v>
+        <v>0.9971506</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1022675024</v>
+        <v>1022674110</v>
       </c>
       <c r="B375">
-        <v>0.7561168</v>
+        <v>0.9970088</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1022670055</v>
+        <v>1022670959</v>
       </c>
       <c r="B376">
-        <v>0.7544278</v>
+        <v>0.9969981</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>1022669652</v>
+        <v>1022676766</v>
       </c>
       <c r="B377">
-        <v>0.7540391</v>
+        <v>0.9969386</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1022670273</v>
+        <v>1022673395</v>
       </c>
       <c r="B378">
-        <v>0.7537733</v>
+        <v>0.9969015</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>1022670955</v>
+        <v>1022670505</v>
       </c>
       <c r="B379">
-        <v>0.7536305</v>
+        <v>0.9968042</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>1022676148</v>
+        <v>1022668783</v>
       </c>
       <c r="B380">
-        <v>0.7528861</v>
+        <v>0.9962867</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>1022677297</v>
+        <v>1022670227</v>
       </c>
       <c r="B381">
-        <v>0.7522219</v>
+        <v>0.9960709</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>1022671831</v>
+        <v>1022669293</v>
       </c>
       <c r="B382">
-        <v>0.7497125</v>
+        <v>0.9960539</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>1022677145</v>
+        <v>1022675353</v>
       </c>
       <c r="B383">
-        <v>0.7492422</v>
+        <v>0.9960168</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>1022669391</v>
+        <v>1022675409</v>
       </c>
       <c r="B384">
-        <v>0.7477419</v>
+        <v>0.9958986</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>1022674211</v>
+        <v>1022671128</v>
       </c>
       <c r="B385">
-        <v>0.7469476</v>
+        <v>0.9957857</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>1022669838</v>
+        <v>1022671170</v>
       </c>
       <c r="B386">
-        <v>0.7469183</v>
+        <v>0.995684</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>1022672867</v>
+        <v>1022672058</v>
       </c>
       <c r="B387">
-        <v>0.7459969</v>
+        <v>0.9955916</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1022677278</v>
+        <v>1022671413</v>
       </c>
       <c r="B388">
-        <v>0.7452231</v>
+        <v>0.9948525</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1022671413</v>
+        <v>1022670451</v>
       </c>
       <c r="B389">
-        <v>0.7445333</v>
+        <v>0.994158</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>1022676084</v>
+        <v>1022672932</v>
       </c>
       <c r="B390">
-        <v>0.7409227</v>
+        <v>0.9939373</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>1022674246</v>
+        <v>1022669151</v>
       </c>
       <c r="B391">
-        <v>0.7409031</v>
+        <v>0.9938589</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1022670071</v>
+        <v>1022674168</v>
       </c>
       <c r="B392">
-        <v>0.739885</v>
+        <v>0.9937439</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1022672101</v>
+        <v>1022668965</v>
       </c>
       <c r="B393">
-        <v>0.7373764</v>
+        <v>0.9936109</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>1022673328</v>
+        <v>1022673027</v>
       </c>
       <c r="B394">
-        <v>0.7368195</v>
+        <v>0.9935989</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>1022673451</v>
+        <v>1022673369</v>
       </c>
       <c r="B395">
-        <v>0.7359924</v>
+        <v>0.9933968</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>1022668863</v>
+        <v>1022669260</v>
       </c>
       <c r="B396">
-        <v>0.7338204</v>
+        <v>0.9932606</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>1022677503</v>
+        <v>1022671637</v>
       </c>
       <c r="B397">
-        <v>0.732126</v>
+        <v>0.9930451</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1022671969</v>
+        <v>1022677299</v>
       </c>
       <c r="B398">
-        <v>0.7319679</v>
+        <v>0.9929893</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1022670777</v>
+        <v>1022672701</v>
       </c>
       <c r="B399">
-        <v>0.7317928</v>
+        <v>0.9928447</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1022676970</v>
+        <v>1022672801</v>
       </c>
       <c r="B400">
-        <v>0.729811</v>
+        <v>0.9923888</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1022677069</v>
+        <v>1022677992</v>
       </c>
       <c r="B401">
-        <v>0.7283276</v>
+        <v>0.9923035</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1022677583</v>
+        <v>1022675226</v>
       </c>
       <c r="B402">
-        <v>0.7255484</v>
+        <v>0.9921494</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1022674106</v>
+        <v>1022671182</v>
       </c>
       <c r="B403">
-        <v>0.7248054</v>
+        <v>0.9919336</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>1022674757</v>
+        <v>1022669018</v>
       </c>
       <c r="B404">
-        <v>0.7224823</v>
+        <v>0.9917218</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>1022669494</v>
+        <v>1022674708</v>
       </c>
       <c r="B405">
-        <v>0.722158</v>
+        <v>0.9913352</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>1022671787</v>
+        <v>1022675051</v>
       </c>
       <c r="B406">
-        <v>0.7220419</v>
+        <v>0.990848</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>1022676434</v>
+        <v>1022673129</v>
       </c>
       <c r="B407">
-        <v>0.7211998</v>
+        <v>0.9907387</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>1022675645</v>
+        <v>1022671996</v>
       </c>
       <c r="B408">
-        <v>0.7195568</v>
+        <v>0.9906668</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1022668853</v>
+        <v>1022676458</v>
       </c>
       <c r="B409">
-        <v>0.719349</v>
+        <v>0.9903459</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>1022675051</v>
+        <v>1022674930</v>
       </c>
       <c r="B410">
-        <v>0.7178633</v>
+        <v>0.9901478</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>1022677128</v>
+        <v>1022671998</v>
       </c>
       <c r="B411">
-        <v>0.717668</v>
+        <v>0.9897782</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>1022677608</v>
+        <v>1022668906</v>
       </c>
       <c r="B412">
-        <v>0.7154266</v>
+        <v>0.989727</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>1022675714</v>
+        <v>1022675280</v>
       </c>
       <c r="B413">
-        <v>0.7124097</v>
+        <v>0.9897231</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>1022678363</v>
+        <v>1022669687</v>
       </c>
       <c r="B414">
-        <v>0.7100001</v>
+        <v>0.9896725</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>1022678532</v>
+        <v>1022671055</v>
       </c>
       <c r="B415">
-        <v>0.7091076</v>
+        <v>0.9892246</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>1022673738</v>
+        <v>1022670863</v>
       </c>
       <c r="B416">
-        <v>0.7090937</v>
+        <v>0.9888597</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>1022676505</v>
+        <v>1022677216</v>
       </c>
       <c r="B417">
-        <v>0.7073786</v>
+        <v>0.9882637</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>1022672042</v>
+        <v>1022677998</v>
       </c>
       <c r="B418">
-        <v>0.7070354</v>
+        <v>0.9882406</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>1022677658</v>
+        <v>1022671983</v>
       </c>
       <c r="B419">
-        <v>0.7064751</v>
+        <v>0.9879067</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>1022670617</v>
+        <v>1022671655</v>
       </c>
       <c r="B420">
-        <v>0.7060625</v>
+        <v>0.9873031</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>1022668979</v>
+        <v>1022672148</v>
       </c>
       <c r="B421">
-        <v>0.7031512</v>
+        <v>0.9869931</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>1022672412</v>
+        <v>1022670608</v>
       </c>
       <c r="B422">
-        <v>0.7020133</v>
+        <v>0.9868524</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>1022674098</v>
+        <v>1022677039</v>
       </c>
       <c r="B423">
-        <v>0.7001445</v>
+        <v>0.9864627</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>1022673007</v>
+        <v>1022678614</v>
       </c>
       <c r="B424">
-        <v>0.6995252</v>
+        <v>0.9858985</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>1022668849</v>
+        <v>1022677069</v>
       </c>
       <c r="B425">
-        <v>0.6994156</v>
+        <v>0.985706</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>1022670136</v>
+        <v>1022675188</v>
       </c>
       <c r="B426">
-        <v>0.6971129</v>
+        <v>0.9856724</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>1022669836</v>
+        <v>1022671923</v>
       </c>
       <c r="B427">
-        <v>0.6969792</v>
+        <v>0.9855064</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>1022670330</v>
+        <v>1022677962</v>
       </c>
       <c r="B428">
-        <v>0.6952114</v>
+        <v>0.9853683</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>1022672273</v>
+        <v>1022677982</v>
       </c>
       <c r="B429">
-        <v>0.6944107</v>
+        <v>0.9852234</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>1022670170</v>
+        <v>1022671176</v>
       </c>
       <c r="B430">
-        <v>0.6940265</v>
+        <v>0.9848932</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>1022674837</v>
+        <v>1022674098</v>
       </c>
       <c r="B431">
-        <v>0.6912663</v>
+        <v>0.9845437</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>1022674708</v>
+        <v>1022677566</v>
       </c>
       <c r="B432">
-        <v>0.6912462</v>
+        <v>0.9844105</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>1022670819</v>
+        <v>1022675164</v>
       </c>
       <c r="B433">
-        <v>0.6906791</v>
+        <v>0.9842025</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>1022676483</v>
+        <v>1022671528</v>
       </c>
       <c r="B434">
-        <v>0.6906173</v>
+        <v>0.984193</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>1022674114</v>
+        <v>1022672451</v>
       </c>
       <c r="B435">
-        <v>0.6904355</v>
+        <v>0.9840712</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1022671604</v>
+        <v>1022677657</v>
       </c>
       <c r="B436">
-        <v>0.6903877</v>
+        <v>0.9837618</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>1022678382</v>
+        <v>1022673733</v>
       </c>
       <c r="B437">
-        <v>0.6897192</v>
+        <v>0.983324</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>1022673450</v>
+        <v>1022670617</v>
       </c>
       <c r="B438">
-        <v>0.6894244</v>
+        <v>0.9819241</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>1022678315</v>
+        <v>1022670981</v>
       </c>
       <c r="B439">
-        <v>0.6873303</v>
+        <v>0.9809849</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>1022677206</v>
+        <v>1022670955</v>
       </c>
       <c r="B440">
-        <v>0.6867154</v>
+        <v>0.9808282</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1022669883</v>
+        <v>1022670777</v>
       </c>
       <c r="B441">
-        <v>0.6859464</v>
+        <v>0.9803851</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>1022675512</v>
+        <v>1022672042</v>
       </c>
       <c r="B442">
-        <v>0.6851713</v>
+        <v>0.9801091</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>1022672360</v>
+        <v>1022669528</v>
       </c>
       <c r="B443">
-        <v>0.6842682</v>
+        <v>0.9800794</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>1022676679</v>
+        <v>1022670055</v>
       </c>
       <c r="B444">
-        <v>0.6836138</v>
+        <v>0.979332</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1022677634</v>
+        <v>1022670097</v>
       </c>
       <c r="B445">
-        <v>0.6812017</v>
+        <v>0.9792024</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>1022672932</v>
+        <v>1022674680</v>
       </c>
       <c r="B446">
-        <v>0.6808341</v>
+        <v>0.9786119</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>1022671515</v>
+        <v>1022677145</v>
       </c>
       <c r="B447">
-        <v>0.6805903</v>
+        <v>0.9785136</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>1022671664</v>
+        <v>1022676163</v>
       </c>
       <c r="B448">
-        <v>0.6788944</v>
+        <v>0.978134</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>1022678726</v>
+        <v>1022670507</v>
       </c>
       <c r="B449">
-        <v>0.6762292</v>
+        <v>0.9779308</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>1022672081</v>
+        <v>1022669883</v>
       </c>
       <c r="B450">
-        <v>0.6757003</v>
+        <v>0.9778293</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>1022670922</v>
+        <v>1022674485</v>
       </c>
       <c r="B451">
-        <v>0.6744484</v>
+        <v>0.9761008</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>1022678035</v>
+        <v>1022678171</v>
       </c>
       <c r="B452">
-        <v>0.6717191</v>
+        <v>0.9760493</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>1022671183</v>
+        <v>1022675158</v>
       </c>
       <c r="B453">
-        <v>0.6700644</v>
+        <v>0.9759654</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>1022677759</v>
+        <v>1022668768</v>
       </c>
       <c r="B454">
-        <v>0.6690912</v>
+        <v>0.9756274</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>1022673242</v>
+        <v>1022677128</v>
       </c>
       <c r="B455">
-        <v>0.6680308</v>
+        <v>0.974868</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>1022678383</v>
+        <v>1022676331</v>
       </c>
       <c r="B456">
-        <v>0.6657111</v>
+        <v>0.9744451</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>1022676211</v>
+        <v>1022670922</v>
       </c>
       <c r="B457">
-        <v>0.6649917</v>
+        <v>0.9732903</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1022669560</v>
+        <v>1022674837</v>
       </c>
       <c r="B458">
-        <v>0.6649235</v>
+        <v>0.9729879</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>1022672801</v>
+        <v>1022678458</v>
       </c>
       <c r="B459">
-        <v>0.6641898</v>
+        <v>0.9729245</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>1022676130</v>
+        <v>1022677503</v>
       </c>
       <c r="B460">
-        <v>0.6638482</v>
+        <v>0.9721927</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>1022669359</v>
+        <v>1022676556</v>
       </c>
       <c r="B461">
-        <v>0.6632892</v>
+        <v>0.9720064</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>1022671424</v>
+        <v>1022671038</v>
       </c>
       <c r="B462">
-        <v>0.6627286</v>
+        <v>0.971267</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>1022668775</v>
+        <v>1022669144</v>
       </c>
       <c r="B463">
-        <v>0.6598552</v>
+        <v>0.9709164</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>1022676939</v>
+        <v>1022671787</v>
       </c>
       <c r="B464">
-        <v>0.659284</v>
+        <v>0.9702496</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>1022671923</v>
+        <v>1022676539</v>
       </c>
       <c r="B465">
-        <v>0.6573081</v>
+        <v>0.9695477</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>1022672403</v>
+        <v>1022669559</v>
       </c>
       <c r="B466">
-        <v>0.6572761</v>
+        <v>0.9691927</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>1022670863</v>
+        <v>1022672614</v>
       </c>
       <c r="B467">
-        <v>0.6564986</v>
+        <v>0.9679353</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1022671191</v>
+        <v>1022674323</v>
       </c>
       <c r="B468">
-        <v>0.6558695</v>
+        <v>0.9675456</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1022672326</v>
+        <v>1022677918</v>
       </c>
       <c r="B469">
-        <v>0.6537104</v>
+        <v>0.9672339</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>1022670758</v>
+        <v>1022678529</v>
       </c>
       <c r="B470">
-        <v>0.6535108</v>
+        <v>0.9654359</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>1022678391</v>
+        <v>1022677775</v>
       </c>
       <c r="B471">
-        <v>0.6530371</v>
+        <v>0.9652357</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>1022671983</v>
+        <v>1022672572</v>
       </c>
       <c r="B472">
-        <v>0.6522998</v>
+        <v>0.9645823</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>1022672819</v>
+        <v>1022678432</v>
       </c>
       <c r="B473">
-        <v>0.6504637</v>
+        <v>0.9619981</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>1022677863</v>
+        <v>1022670816</v>
       </c>
       <c r="B474">
-        <v>0.6491558</v>
+        <v>0.9600454</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>1022674653</v>
+        <v>1022669408</v>
       </c>
       <c r="B475">
-        <v>0.6488863</v>
+        <v>0.9599298</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>1022675358</v>
+        <v>1022678445</v>
       </c>
       <c r="B476">
-        <v>0.6482875</v>
+        <v>0.9593799</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>1022674413</v>
+        <v>1022677459</v>
       </c>
       <c r="B477">
-        <v>0.6469518</v>
+        <v>0.9591652</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>1022675188</v>
+        <v>1022671567</v>
       </c>
       <c r="B478">
-        <v>0.6465939</v>
+        <v>0.9587747</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>1022676870</v>
+        <v>1022669560</v>
       </c>
       <c r="B479">
-        <v>0.6463129</v>
+        <v>0.9569688</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>1022670912</v>
+        <v>1022674239</v>
       </c>
       <c r="B480">
-        <v>0.645699</v>
+        <v>0.9565402</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>1022669084</v>
+        <v>1022671831</v>
       </c>
       <c r="B481">
-        <v>0.6443349</v>
+        <v>0.9563824</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>1022678236</v>
+        <v>1022669652</v>
       </c>
       <c r="B482">
-        <v>0.6442403</v>
+        <v>0.9523884</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>1022678747</v>
+        <v>1022671407</v>
       </c>
       <c r="B483">
-        <v>0.6436814</v>
+        <v>0.9512274</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>1022670089</v>
+        <v>1022671183</v>
       </c>
       <c r="B484">
-        <v>0.6428627</v>
+        <v>0.951021</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>1022676960</v>
+        <v>1022670444</v>
       </c>
       <c r="B485">
-        <v>0.6403239</v>
+        <v>0.950791</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>1022674971</v>
+        <v>1022671733</v>
       </c>
       <c r="B486">
-        <v>0.6373421</v>
+        <v>0.9503514</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>1022668905</v>
+        <v>1022673177</v>
       </c>
       <c r="B487">
-        <v>0.6368344</v>
+        <v>0.9485608</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>1022669687</v>
+        <v>1022672326</v>
       </c>
       <c r="B488">
-        <v>0.6367442</v>
+        <v>0.9477705</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>1022676473</v>
+        <v>1022671116</v>
       </c>
       <c r="B489">
-        <v>0.6362961</v>
+        <v>0.9466786</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>1022672614</v>
+        <v>1022676620</v>
       </c>
       <c r="B490">
-        <v>0.631125</v>
+        <v>0.9456865</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>1022678141</v>
+        <v>1022678034</v>
       </c>
       <c r="B491">
-        <v>0.6306718</v>
+        <v>0.9433763</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>1022677327</v>
+        <v>1022671480</v>
       </c>
       <c r="B492">
-        <v>0.6305063</v>
+        <v>0.9418642</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>1022674612</v>
+        <v>1022671664</v>
       </c>
       <c r="B493">
-        <v>0.6299525</v>
+        <v>0.9408869</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>1022677999</v>
+        <v>1022675015</v>
       </c>
       <c r="B494">
-        <v>0.6279195</v>
+        <v>0.936559</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>1022674088</v>
+        <v>1022668849</v>
       </c>
       <c r="B495">
-        <v>0.6269391</v>
+        <v>0.934678</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>1022678445</v>
+        <v>1022675053</v>
       </c>
       <c r="B496">
-        <v>0.6266127</v>
+        <v>0.9331253</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>1022678034</v>
+        <v>1022670500</v>
       </c>
       <c r="B497">
-        <v>0.6264411</v>
+        <v>0.9323047</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>1022669293</v>
+        <v>1022670988</v>
       </c>
       <c r="B498">
-        <v>0.6231042</v>
+        <v>0.931813</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>1022672235</v>
+        <v>1022673242</v>
       </c>
       <c r="B499">
-        <v>0.6212838</v>
+        <v>0.9314525</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>1022675785</v>
+        <v>1022678315</v>
       </c>
       <c r="B500">
-        <v>0.6203329</v>
+        <v>0.9312725</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>1022670250</v>
+        <v>1022670326</v>
       </c>
       <c r="B501">
-        <v>0.6198951</v>
+        <v>0.9291518</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>1022676624</v>
+        <v>1022677256</v>
       </c>
       <c r="B502">
-        <v>0.6191309</v>
+        <v>0.9265264</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>1022678529</v>
+        <v>1022675663</v>
       </c>
       <c r="B503">
-        <v>0.6188154</v>
+        <v>0.9250602</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>1022677493</v>
+        <v>1022678373</v>
       </c>
       <c r="B504">
-        <v>0.618637</v>
+        <v>0.9212182</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>1022669449</v>
+        <v>1022678141</v>
       </c>
       <c r="B505">
-        <v>0.6172714</v>
+        <v>0.920074</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>1022676899</v>
+        <v>1022678383</v>
       </c>
       <c r="B506">
-        <v>0.6165605</v>
+        <v>0.9178558</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>1022676210</v>
+        <v>1022674944</v>
       </c>
       <c r="B507">
-        <v>0.6151513</v>
+        <v>0.9175667</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1022674225</v>
+        <v>1022675024</v>
       </c>
       <c r="B508">
-        <v>0.6143552</v>
+        <v>0.9157098</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>1022670608</v>
+        <v>1022670330</v>
       </c>
       <c r="B509">
-        <v>0.6135136</v>
+        <v>0.9132027</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>1022673633</v>
+        <v>1022677693</v>
       </c>
       <c r="B510">
-        <v>0.6084658</v>
+        <v>0.9078669</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>1022671797</v>
+        <v>1022674364</v>
       </c>
       <c r="B511">
-        <v>0.607002</v>
+        <v>0.9074715</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>1022675705</v>
+        <v>1022674462</v>
       </c>
       <c r="B512">
-        <v>0.6055002</v>
+        <v>0.907243</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>1022672278</v>
+        <v>1022670662</v>
       </c>
       <c r="B513">
-        <v>0.6047225</v>
+        <v>0.9068295</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>1022673819</v>
+        <v>1022678029</v>
       </c>
       <c r="B514">
-        <v>0.6042749</v>
+        <v>0.905323</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>1022673395</v>
+        <v>1022673467</v>
       </c>
       <c r="B515">
-        <v>0.6013325</v>
+        <v>0.8985242</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>1022674801</v>
+        <v>1022672201</v>
       </c>
       <c r="B516">
-        <v>0.6009631</v>
+        <v>0.896157</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>1022676289</v>
+        <v>1022672922</v>
       </c>
       <c r="B517">
-        <v>0.6003544</v>
+        <v>0.8958448</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1022675561</v>
+        <v>1022668775</v>
       </c>
       <c r="B518">
-        <v>0.6002327</v>
+        <v>0.8941265</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>1022674460</v>
+        <v>1022676679</v>
       </c>
       <c r="B519">
-        <v>0.5997151</v>
+        <v>0.8923919</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1022678432</v>
+        <v>1022671191</v>
       </c>
       <c r="B520">
-        <v>0.5995494</v>
+        <v>0.8917633</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>1022674187</v>
+        <v>1022671515</v>
       </c>
       <c r="B521">
-        <v>0.5991756</v>
+        <v>0.8911504</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>1022670959</v>
+        <v>1022677278</v>
       </c>
       <c r="B522">
-        <v>0.598743</v>
+        <v>0.8910816</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>1022673297</v>
+        <v>1022676159</v>
       </c>
       <c r="B523">
-        <v>0.5965902</v>
+        <v>0.8884281</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>1022676303</v>
+        <v>1022671969</v>
       </c>
       <c r="B524">
-        <v>0.595924</v>
+        <v>0.8867919</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>1022670132</v>
+        <v>1022675057</v>
       </c>
       <c r="B525">
-        <v>0.5939966</v>
+        <v>0.8834652</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>1022672572</v>
+        <v>1022671335</v>
       </c>
       <c r="B526">
-        <v>0.5939048</v>
+        <v>0.8826909</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>1022670536</v>
+        <v>1022672365</v>
       </c>
       <c r="B527">
-        <v>0.5937514</v>
+        <v>0.8826799</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>1022670976</v>
+        <v>1022673151</v>
       </c>
       <c r="B528">
-        <v>0.5931014</v>
+        <v>0.8823104</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>1022669732</v>
+        <v>1022678415</v>
       </c>
       <c r="B529">
-        <v>0.5930083</v>
+        <v>0.8779521</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>1022678593</v>
+        <v>1022672081</v>
       </c>
       <c r="B530">
-        <v>0.5929822</v>
+        <v>0.8752948</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1022670519</v>
+        <v>1022669001</v>
       </c>
       <c r="B531">
-        <v>0.5899765</v>
+        <v>0.8751189</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1022676331</v>
+        <v>1022672403</v>
       </c>
       <c r="B532">
-        <v>0.5899519</v>
+        <v>0.8688044</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>1022672399</v>
+        <v>1022676378</v>
       </c>
       <c r="B533">
-        <v>0.5885014</v>
+        <v>0.8657558</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>1022676589</v>
+        <v>1022676899</v>
       </c>
       <c r="B534">
-        <v>0.588309</v>
+        <v>0.8655853</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>1022676155</v>
+        <v>1022671797</v>
       </c>
       <c r="B535">
-        <v>0.5881988</v>
+        <v>0.8611719</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>1022670816</v>
+        <v>1022670371</v>
       </c>
       <c r="B536">
-        <v>0.5878783</v>
+        <v>0.8601468</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>1022669001</v>
+        <v>1022670228</v>
       </c>
       <c r="B537">
-        <v>0.5876459</v>
+        <v>0.8594072</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>1022674462</v>
+        <v>1022670273</v>
       </c>
       <c r="B538">
-        <v>0.5870835</v>
+        <v>0.8593506</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>1022677491</v>
+        <v>1022675250</v>
       </c>
       <c r="B539">
-        <v>0.5857925</v>
+        <v>0.8591326</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>1022673080</v>
+        <v>1022674073</v>
       </c>
       <c r="B540">
-        <v>0.5829152</v>
+        <v>0.8581795</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>1022674680</v>
+        <v>1022669611</v>
       </c>
       <c r="B541">
-        <v>0.5825039</v>
+        <v>0.8551026</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>1022676357</v>
+        <v>1022677937</v>
       </c>
       <c r="B542">
-        <v>0.58181</v>
+        <v>0.8525255</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>1022670297</v>
+        <v>1022669421</v>
       </c>
       <c r="B543">
-        <v>0.5808628</v>
+        <v>0.8508591</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1022675356</v>
+        <v>1022676081</v>
       </c>
       <c r="B544">
-        <v>0.5805267</v>
+        <v>0.8504123</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>1022674813</v>
+        <v>1022669131</v>
       </c>
       <c r="B545">
-        <v>0.5804099</v>
+        <v>0.8502016</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>1022670500</v>
+        <v>1022671885</v>
       </c>
       <c r="B546">
-        <v>0.5789911</v>
+        <v>0.8491643</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>1022676458</v>
+        <v>1022675038</v>
       </c>
       <c r="B547">
-        <v>0.5788567</v>
+        <v>0.8490665</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>1022672525</v>
+        <v>1022677532</v>
       </c>
       <c r="B548">
-        <v>0.5784874</v>
+        <v>0.8490514</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1022670800</v>
+        <v>1022670136</v>
       </c>
       <c r="B549">
-        <v>0.5775559</v>
+        <v>0.8481271</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>1022675353</v>
+        <v>1022670170</v>
       </c>
       <c r="B550">
-        <v>0.5765897</v>
+        <v>0.8463516</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1022674364</v>
+        <v>1022669968</v>
       </c>
       <c r="B551">
-        <v>0.5746201</v>
+        <v>0.8457948</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1022671176</v>
+        <v>1022678382</v>
       </c>
       <c r="B552">
-        <v>0.5740864</v>
+        <v>0.8440905</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1022675895</v>
+        <v>1022672666</v>
       </c>
       <c r="B553">
-        <v>0.5738706</v>
+        <v>0.8418168</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>1022672201</v>
+        <v>1022677361</v>
       </c>
       <c r="B554">
-        <v>0.5715113</v>
+        <v>0.8388392</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>1022670097</v>
+        <v>1022676357</v>
       </c>
       <c r="B555">
-        <v>0.5713184</v>
+        <v>0.8369423</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1022676060</v>
+        <v>1022669957</v>
       </c>
       <c r="B556">
-        <v>0.5708938</v>
+        <v>0.8366614</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>1022670721</v>
+        <v>1022674466</v>
       </c>
       <c r="B557">
-        <v>0.5703247</v>
+        <v>0.8354432</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1022670228</v>
+        <v>1022669175</v>
       </c>
       <c r="B558">
-        <v>0.5697021</v>
+        <v>0.8328071</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1022669559</v>
+        <v>1022678564</v>
       </c>
       <c r="B559">
-        <v>0.5681795</v>
+        <v>0.8322305</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>1022671089</v>
+        <v>1022673965</v>
       </c>
       <c r="B560">
-        <v>0.5658139</v>
+        <v>0.8274831</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>1022670662</v>
+        <v>1022676505</v>
       </c>
       <c r="B561">
-        <v>0.5655314</v>
+        <v>0.825428</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1022674510</v>
+        <v>1022673297</v>
       </c>
       <c r="B562">
-        <v>0.5596159</v>
+        <v>0.8245123</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1022668953</v>
+        <v>1022677320</v>
       </c>
       <c r="B563">
-        <v>0.5593458</v>
+        <v>0.822825</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>1022676856</v>
+        <v>1022669416</v>
       </c>
       <c r="B564">
-        <v>0.5579564</v>
+        <v>0.8212485</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>1022672564</v>
+        <v>1022668932</v>
       </c>
       <c r="B565">
-        <v>0.5578857</v>
+        <v>0.8186123</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>1022677177</v>
+        <v>1022676210</v>
       </c>
       <c r="B566">
-        <v>0.5546454</v>
+        <v>0.8155487</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>1022669684</v>
+        <v>1022678678</v>
       </c>
       <c r="B567">
-        <v>0.5533441</v>
+        <v>0.8149955</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>1022676539</v>
+        <v>1022671424</v>
       </c>
       <c r="B568">
-        <v>0.5530776</v>
+        <v>0.8136063</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>1022668945</v>
+        <v>1022673257</v>
       </c>
       <c r="B569">
-        <v>0.5500822</v>
+        <v>0.8115016</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>1022673965</v>
+        <v>1022677333</v>
       </c>
       <c r="B570">
-        <v>0.5497239</v>
+        <v>0.8110178</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1022669002</v>
+        <v>1022676548</v>
       </c>
       <c r="B571">
-        <v>0.5479202</v>
+        <v>0.8085607</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>1022672894</v>
+        <v>1022673121</v>
       </c>
       <c r="B572">
-        <v>0.5478102</v>
+        <v>0.8069601</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>1022678029</v>
+        <v>1022668916</v>
       </c>
       <c r="B573">
-        <v>0.5470755</v>
+        <v>0.8029664</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>1022673572</v>
+        <v>1022673181</v>
       </c>
       <c r="B574">
-        <v>0.5447409</v>
+        <v>0.8012254</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>1022678009</v>
+        <v>1022668953</v>
       </c>
       <c r="B575">
-        <v>0.5435379</v>
+        <v>0.8009146</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>1022671452</v>
+        <v>1022677436</v>
       </c>
       <c r="B576">
-        <v>0.542428</v>
+        <v>0.8008764</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>1022673023</v>
+        <v>1022676060</v>
       </c>
       <c r="B577">
-        <v>0.5408263</v>
+        <v>0.7978691</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>1022678373</v>
+        <v>1022677717</v>
       </c>
       <c r="B578">
-        <v>0.5406571</v>
+        <v>0.7950727</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>1022675367</v>
+        <v>1022674097</v>
       </c>
       <c r="B579">
-        <v>0.5393564</v>
+        <v>0.789588</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1022676297</v>
+        <v>1022676769</v>
       </c>
       <c r="B580">
-        <v>0.5371399</v>
+        <v>0.7886812</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>1022673027</v>
+        <v>1022676822</v>
       </c>
       <c r="B581">
-        <v>0.5366459</v>
+        <v>0.7798128</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>1022677532</v>
+        <v>1022674069</v>
       </c>
       <c r="B582">
-        <v>0.5360032</v>
+        <v>0.7778555</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>1022674663</v>
+        <v>1022678726</v>
       </c>
       <c r="B583">
-        <v>0.5350499</v>
+        <v>0.7730169</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>1022669175</v>
+        <v>1022668763</v>
       </c>
       <c r="B584">
-        <v>0.5324483</v>
+        <v>0.7653534</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>1022668838</v>
+        <v>1022673935</v>
       </c>
       <c r="B585">
-        <v>0.5295433</v>
+        <v>0.7617565</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>1022672365</v>
+        <v>1022670770</v>
       </c>
       <c r="B586">
-        <v>0.5273923</v>
+        <v>0.7606381</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>1022673935</v>
+        <v>1022675791</v>
       </c>
       <c r="B587">
-        <v>0.5267784</v>
+        <v>0.7580064</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>1022669416</v>
+        <v>1022671935</v>
       </c>
       <c r="B588">
-        <v>0.5230134</v>
+        <v>0.7579804</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>1022674186</v>
+        <v>1022677659</v>
       </c>
       <c r="B589">
-        <v>0.5222691</v>
+        <v>0.7548469</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>1022677918</v>
+        <v>1022669537</v>
       </c>
       <c r="B590">
-        <v>0.5219309</v>
+        <v>0.7521438</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>1022678654</v>
+        <v>1022674813</v>
       </c>
       <c r="B591">
-        <v>0.5214838</v>
+        <v>0.7387615</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>1022670477</v>
+        <v>1022674991</v>
       </c>
       <c r="B592">
-        <v>0.5211895</v>
+        <v>0.738667</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>1022676259</v>
+        <v>1022674612</v>
       </c>
       <c r="B593">
-        <v>0.5168473</v>
+        <v>0.7385153</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>1022676964</v>
+        <v>1022672924</v>
       </c>
       <c r="B594">
-        <v>0.5165593</v>
+        <v>0.7376512</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>1022672069</v>
+        <v>1022670176</v>
       </c>
       <c r="B595">
-        <v>0.5164921</v>
+        <v>0.7351135</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>1022669408</v>
+        <v>1022677573</v>
       </c>
       <c r="B596">
-        <v>0.5134842</v>
+        <v>0.7340371</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>1022674485</v>
+        <v>1022672088</v>
       </c>
       <c r="B597">
-        <v>0.5125266</v>
+        <v>0.7298756</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>1022676646</v>
+        <v>1022678533</v>
       </c>
       <c r="B598">
-        <v>0.5115767</v>
+        <v>0.7176329</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>1022674456</v>
+        <v>1022668819</v>
       </c>
       <c r="B599">
-        <v>0.5110427</v>
+        <v>0.7150525</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>1022671116</v>
+        <v>1022669565</v>
       </c>
       <c r="B600">
-        <v>0.5101503</v>
+        <v>0.7146775</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>1022668763</v>
+        <v>1022671911</v>
       </c>
       <c r="B601">
-        <v>0.5097363</v>
+        <v>0.7122649</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>1022673408</v>
+        <v>1022678374</v>
       </c>
       <c r="B602">
-        <v>0.5093233</v>
+        <v>0.7121749</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>1022675890</v>
+        <v>1022678593</v>
       </c>
       <c r="B603">
-        <v>0.5067945</v>
+        <v>0.7095037</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>1022677570</v>
+        <v>1022675620</v>
       </c>
       <c r="B604">
-        <v>0.5062339</v>
+        <v>0.7057295</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>1022675015</v>
+        <v>1022673323</v>
       </c>
       <c r="B605">
-        <v>0.5055908</v>
+        <v>0.7023699</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>1022674744</v>
+        <v>1022669684</v>
       </c>
       <c r="B606">
-        <v>0.5044438</v>
+        <v>0.6973383</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>1022677644</v>
+        <v>1022673876</v>
       </c>
       <c r="B607">
-        <v>0.5044184</v>
+        <v>0.6954916</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>1022674783</v>
+        <v>1022674187</v>
       </c>
       <c r="B608">
-        <v>0.5028349</v>
+        <v>0.6947472</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>1022671588</v>
+        <v>1022673258</v>
       </c>
       <c r="B609">
-        <v>0.5028024</v>
+        <v>0.6931786</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>1022670227</v>
+        <v>1022673348</v>
       </c>
       <c r="B610">
-        <v>0.5023871</v>
+        <v>0.6908581</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>1022673121</v>
+        <v>1022675881</v>
       </c>
       <c r="B611">
-        <v>0.5014077</v>
+        <v>0.686352</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>1022676378</v>
+        <v>1022670590</v>
       </c>
       <c r="B612">
-        <v>0.4996366</v>
+        <v>0.6855283</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>1022678428</v>
+        <v>1022673023</v>
       </c>
       <c r="B613">
-        <v>0.4982045</v>
+        <v>0.6846473</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>1022671433</v>
+        <v>1022671234</v>
       </c>
       <c r="B614">
-        <v>0.4977997</v>
+        <v>0.6823915</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>1022677222</v>
+        <v>1022669817</v>
       </c>
       <c r="B615">
-        <v>0.4976759</v>
+        <v>0.6769409</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>1022669528</v>
+        <v>1022668865</v>
       </c>
       <c r="B616">
-        <v>0.4975896</v>
+        <v>0.6746559</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>1022668967</v>
+        <v>1022672535</v>
       </c>
       <c r="B617">
-        <v>0.4948191</v>
+        <v>0.6742858</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>1022671567</v>
+        <v>1022673567</v>
       </c>
       <c r="B618">
-        <v>0.4927408</v>
+        <v>0.6683398</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>1022668812</v>
+        <v>1022671125</v>
       </c>
       <c r="B619">
-        <v>0.4921907</v>
+        <v>0.6622467</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>1022678169</v>
+        <v>1022670335</v>
       </c>
       <c r="B620">
-        <v>0.4910691</v>
+        <v>0.6620686</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>1022673733</v>
+        <v>1022673236</v>
       </c>
       <c r="B621">
-        <v>0.4898511</v>
+        <v>0.6609238</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>1022674057</v>
+        <v>1022674959</v>
       </c>
       <c r="B622">
-        <v>0.4896767</v>
+        <v>0.654511</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>1022676323</v>
+        <v>1022676856</v>
       </c>
       <c r="B623">
-        <v>0.4890195</v>
+        <v>0.6493447</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>1022670988</v>
+        <v>1022676211</v>
       </c>
       <c r="B624">
-        <v>0.4884902</v>
+        <v>0.6492596</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>1022669806</v>
+        <v>1022669732</v>
       </c>
       <c r="B625">
-        <v>0.4884579</v>
+        <v>0.6483568</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>1022671930</v>
+        <v>1022676253</v>
       </c>
       <c r="B626">
-        <v>0.4884202</v>
+        <v>0.6478252</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>1022675952</v>
+        <v>1022670536</v>
       </c>
       <c r="B627">
-        <v>0.4877882</v>
+        <v>0.6444794</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>1022674313</v>
+        <v>1022678035</v>
       </c>
       <c r="B628">
-        <v>0.4877106</v>
+        <v>0.6388404</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>1022677825</v>
+        <v>1022676911</v>
       </c>
       <c r="B629">
-        <v>0.4871868</v>
+        <v>0.6367395</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>1022669640</v>
+        <v>1022677784</v>
       </c>
       <c r="B630">
-        <v>0.4863727</v>
+        <v>0.6355873</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>1022677372</v>
+        <v>1022678094</v>
       </c>
       <c r="B631">
-        <v>0.4852046</v>
+        <v>0.6354727</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>1022672679</v>
+        <v>1022669025</v>
       </c>
       <c r="B632">
-        <v>0.4850221</v>
+        <v>0.6349793</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>1022673876</v>
+        <v>1022678391</v>
       </c>
       <c r="B633">
-        <v>0.4834619</v>
+        <v>0.6343309</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>1022678557</v>
+        <v>1022678002</v>
       </c>
       <c r="B634">
-        <v>0.4820396</v>
+        <v>0.633875</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>1022669489</v>
+        <v>1022671746</v>
       </c>
       <c r="B635">
-        <v>0.4817063</v>
+        <v>0.6257203</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>1022670047</v>
+        <v>1022675358</v>
       </c>
       <c r="B636">
-        <v>0.4812076</v>
+        <v>0.6223813</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>1022677566</v>
+        <v>1022670484</v>
       </c>
       <c r="B637">
-        <v>0.4784277</v>
+        <v>0.6183255</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>1022670837</v>
+        <v>1022677206</v>
       </c>
       <c r="B638">
-        <v>0.4768153</v>
+        <v>0.6172088</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>1022675047</v>
+        <v>1022675146</v>
       </c>
       <c r="B639">
-        <v>0.475775</v>
+        <v>0.6157546</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>1022672058</v>
+        <v>1022669488</v>
       </c>
       <c r="B640">
-        <v>0.4752974</v>
+        <v>0.6100459</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>1022677439</v>
+        <v>1022670236</v>
       </c>
       <c r="B641">
-        <v>0.4751858</v>
+        <v>0.6083692</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>1022671335</v>
+        <v>1022671452</v>
       </c>
       <c r="B642">
-        <v>0.4737553</v>
+        <v>0.6080382</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>1022674323</v>
+        <v>1022669118</v>
       </c>
       <c r="B643">
-        <v>0.473545</v>
+        <v>0.6001527</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>1022669817</v>
+        <v>1022675402</v>
       </c>
       <c r="B644">
-        <v>0.4702122</v>
+        <v>0.5977956</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>1022676163</v>
+        <v>1022668967</v>
       </c>
       <c r="B645">
-        <v>0.4691109</v>
+        <v>0.5948468</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>1022671528</v>
+        <v>1022673080</v>
       </c>
       <c r="B646">
-        <v>0.4688549</v>
+        <v>0.585577</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>1022675027</v>
+        <v>1022677177</v>
       </c>
       <c r="B647">
-        <v>0.4687006</v>
+        <v>0.5750302</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>1022670087</v>
+        <v>1022676130</v>
       </c>
       <c r="B648">
-        <v>0.4662991</v>
+        <v>0.5721229</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>1022669119</v>
+        <v>1022678557</v>
       </c>
       <c r="B649">
-        <v>0.4655753</v>
+        <v>0.5710396</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>1022673177</v>
+        <v>1022676297</v>
       </c>
       <c r="B650">
-        <v>0.4638023</v>
+        <v>0.5687991</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>1022674443</v>
+        <v>1022673267</v>
       </c>
       <c r="B651">
-        <v>0.4624311</v>
+        <v>0.5652441</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>1022671932</v>
+        <v>1022670881</v>
       </c>
       <c r="B652">
-        <v>0.462326</v>
+        <v>0.5643792</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>1022671131</v>
+        <v>1022677372</v>
       </c>
       <c r="B653">
-        <v>0.4609858</v>
+        <v>0.5639841</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>1022675140</v>
+        <v>1022674577</v>
       </c>
       <c r="B654">
-        <v>0.4605023</v>
+        <v>0.5623359</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>1022674115</v>
+        <v>1022677357</v>
       </c>
       <c r="B655">
-        <v>0.4598785</v>
+        <v>0.559429</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>1022675058</v>
+        <v>1022678009</v>
       </c>
       <c r="B656">
-        <v>0.4596952</v>
+        <v>0.5573578</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>1022668981</v>
+        <v>1022675084</v>
       </c>
       <c r="B657">
-        <v>0.4596629</v>
+        <v>0.5560453</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>1022672295</v>
+        <v>1022675859</v>
       </c>
       <c r="B658">
-        <v>0.4587373</v>
+        <v>0.5525285</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>1022673520</v>
+        <v>1022678469</v>
       </c>
       <c r="B659">
-        <v>0.4585905</v>
+        <v>0.5472195</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>1022669859</v>
+        <v>1022669002</v>
       </c>
       <c r="B660">
-        <v>0.4566441</v>
+        <v>0.5404087</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>1022670360</v>
+        <v>1022674286</v>
       </c>
       <c r="B661">
-        <v>0.4545476</v>
+        <v>0.5371957</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>1022672922</v>
+        <v>1022671743</v>
       </c>
       <c r="B662">
-        <v>0.4528675</v>
+        <v>0.5082223</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>1022675599</v>
+        <v>1022671897</v>
       </c>
       <c r="B663">
-        <v>0.4527387</v>
+        <v>0.4985589</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>1022677577</v>
+        <v>1022668778</v>
       </c>
       <c r="B664">
-        <v>0.4521934</v>
+        <v>0.4982368</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>1022678640</v>
+        <v>1022678602</v>
       </c>
       <c r="B665">
-        <v>0.4484653</v>
+        <v>0.4980565</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>1022674870</v>
+        <v>1022677956</v>
       </c>
       <c r="B666">
-        <v>0.4470137</v>
+        <v>0.4964882</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>1022676223</v>
+        <v>1022678629</v>
       </c>
       <c r="B667">
-        <v>0.4466729</v>
+        <v>0.4935044</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>1022675249</v>
+        <v>1022668831</v>
       </c>
       <c r="B668">
-        <v>0.445655</v>
+        <v>0.4816834</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>1022675535</v>
+        <v>1022670046</v>
       </c>
       <c r="B669">
-        <v>0.4449956</v>
+        <v>0.4789072</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>1022671743</v>
+        <v>1022676771</v>
       </c>
       <c r="B670">
-        <v>0.443538</v>
+        <v>0.4788215</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>1022675794</v>
+        <v>1022670212</v>
       </c>
       <c r="B671">
-        <v>0.4434734</v>
+        <v>0.4775311</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>1022673236</v>
+        <v>1022676794</v>
       </c>
       <c r="B672">
-        <v>0.4429518</v>
+        <v>0.4749393</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>1022668900</v>
+        <v>1022669769</v>
       </c>
       <c r="B673">
-        <v>0.4411767</v>
+        <v>0.4734719</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>1022677299</v>
+        <v>1022674057</v>
       </c>
       <c r="B674">
-        <v>0.4405412</v>
+        <v>0.4729903</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>1022675150</v>
+        <v>1022675901</v>
       </c>
       <c r="B675">
-        <v>0.4397236</v>
+        <v>0.4717039</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>1022678002</v>
+        <v>1022669816</v>
       </c>
       <c r="B676">
-        <v>0.4393944</v>
+        <v>0.4673385</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>1022669526</v>
+        <v>1022674759</v>
       </c>
       <c r="B677">
-        <v>0.4392038</v>
+        <v>0.462268</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>1022676620</v>
+        <v>1022669868</v>
       </c>
       <c r="B678">
-        <v>0.4388251</v>
+        <v>0.4520195</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>1022671732</v>
+        <v>1022676802</v>
       </c>
       <c r="B679">
-        <v>0.4386996</v>
+        <v>0.446383</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>1022676241</v>
+        <v>1022676259</v>
       </c>
       <c r="B680">
-        <v>0.4385063</v>
+        <v>0.4398953</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>1022678085</v>
+        <v>1022676589</v>
       </c>
       <c r="B681">
-        <v>0.4376502</v>
+        <v>0.4382636</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>1022677333</v>
+        <v>1022675017</v>
       </c>
       <c r="B682">
-        <v>0.4367303</v>
+        <v>0.4378424</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>1022669079</v>
+        <v>1022677222</v>
       </c>
       <c r="B683">
-        <v>0.4319087</v>
+        <v>0.4330538</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>1022674038</v>
+        <v>1022672432</v>
       </c>
       <c r="B684">
-        <v>0.4307608</v>
+        <v>0.4316577</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>1022670465</v>
+        <v>1022677570</v>
       </c>
       <c r="B685">
-        <v>0.4295704</v>
+        <v>0.4312186</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>1022670212</v>
+        <v>1022674186</v>
       </c>
       <c r="B686">
-        <v>0.4293626</v>
+        <v>0.4244907</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>1022673799</v>
+        <v>1022674131</v>
       </c>
       <c r="B687">
-        <v>0.4286683</v>
+        <v>0.4232325</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>1022677784</v>
+        <v>1022668853</v>
       </c>
       <c r="B688">
-        <v>0.4275645</v>
+        <v>0.4219488</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>1022670000</v>
+        <v>1022671137</v>
       </c>
       <c r="B689">
-        <v>0.4237392</v>
+        <v>0.4183443</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>1022676253</v>
+        <v>1022676434</v>
       </c>
       <c r="B690">
-        <v>0.4222938</v>
+        <v>0.4163849</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>1022676822</v>
+        <v>1022677590</v>
       </c>
       <c r="B691">
-        <v>0.42124</v>
+        <v>0.4059763</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>1022677086</v>
+        <v>1022678086</v>
       </c>
       <c r="B692">
-        <v>0.4211678</v>
+        <v>0.4007049</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>1022674944</v>
+        <v>1022676166</v>
       </c>
       <c r="B693">
-        <v>0.4200181</v>
+        <v>0.4005026</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>1022673761</v>
+        <v>1022677077</v>
       </c>
       <c r="B694">
-        <v>0.4186814</v>
+        <v>0.3995842</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>1022670371</v>
+        <v>1022677390</v>
       </c>
       <c r="B695">
-        <v>0.417713</v>
+        <v>0.3987194</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>1022676794</v>
+        <v>1022677314</v>
       </c>
       <c r="B696">
-        <v>0.4150394</v>
+        <v>0.3913598</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>1022676548</v>
+        <v>1022673761</v>
       </c>
       <c r="B697">
-        <v>0.4141187</v>
+        <v>0.3896835</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>1022673267</v>
+        <v>1022670940</v>
       </c>
       <c r="B698">
-        <v>0.4119738</v>
+        <v>0.3884133</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>1022669621</v>
+        <v>1022678654</v>
       </c>
       <c r="B699">
-        <v>0.4116915</v>
+        <v>0.3879198</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>1022671269</v>
+        <v>1022674905</v>
       </c>
       <c r="B700">
-        <v>0.4108245</v>
+        <v>0.384341</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>1022676181</v>
+        <v>1022674971</v>
       </c>
       <c r="B701">
-        <v>0.4106362</v>
+        <v>0.3835121</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>1022677956</v>
+        <v>1022676205</v>
       </c>
       <c r="B702">
-        <v>0.410424</v>
+        <v>0.3825113</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>1022672610</v>
+        <v>1022678750</v>
       </c>
       <c r="B703">
-        <v>0.4084487</v>
+        <v>0.3775614</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>1022670046</v>
+        <v>1022677983</v>
       </c>
       <c r="B704">
-        <v>0.4062322</v>
+        <v>0.3722851</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>1022668937</v>
+        <v>1022670547</v>
       </c>
       <c r="B705">
-        <v>0.4031363</v>
+        <v>0.3700698</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>1022670335</v>
+        <v>1022669291</v>
       </c>
       <c r="B706">
-        <v>0.4016107</v>
+        <v>0.3643953</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>1022671055</v>
+        <v>1022675357</v>
       </c>
       <c r="B707">
-        <v>0.4000661</v>
+        <v>0.3639614</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>1022675146</v>
+        <v>1022675290</v>
       </c>
       <c r="B708">
-        <v>0.3992867</v>
+        <v>0.3469161</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>1022674577</v>
+        <v>1022676473</v>
       </c>
       <c r="B709">
-        <v>0.3956229</v>
+        <v>0.3458234</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>1022670999</v>
+        <v>1022675047</v>
       </c>
       <c r="B710">
-        <v>0.3954687</v>
+        <v>0.3441537</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>1022674930</v>
+        <v>1022675283</v>
       </c>
       <c r="B711">
-        <v>0.3952251</v>
+        <v>0.3422411</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>1022673270</v>
+        <v>1022676323</v>
       </c>
       <c r="B712">
-        <v>0.3952136</v>
+        <v>0.3403947</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>1022675057</v>
+        <v>1022674438</v>
       </c>
       <c r="B713">
-        <v>0.3941804</v>
+        <v>0.3362332</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>1022673323</v>
+        <v>1022672589</v>
       </c>
       <c r="B714">
-        <v>0.3939676</v>
+        <v>0.3360062</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>1022674759</v>
+        <v>1022673187</v>
       </c>
       <c r="B715">
-        <v>0.3936181</v>
+        <v>0.3348853</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>1022674907</v>
+        <v>1022678428</v>
       </c>
       <c r="B716">
-        <v>0.391633</v>
+        <v>0.334496</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>1022670137</v>
+        <v>1022678673</v>
       </c>
       <c r="B717">
-        <v>0.3911466</v>
+        <v>0.3336599</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>1022673361</v>
+        <v>1022668948</v>
       </c>
       <c r="B718">
-        <v>0.3901889</v>
+        <v>0.3308023</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>1022673348</v>
+        <v>1022669449</v>
       </c>
       <c r="B719">
-        <v>0.3899442</v>
+        <v>0.3259585</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>1022673521</v>
+        <v>1022669896</v>
       </c>
       <c r="B720">
-        <v>0.389736</v>
+        <v>0.3193754</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>1022674073</v>
+        <v>1022671970</v>
       </c>
       <c r="B721">
-        <v>0.3894396</v>
+        <v>0.3151444</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>1022672573</v>
+      </c>
+      <c r="B722">
+        <v>0.3142506</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>1022671205</v>
+      </c>
+      <c r="B723">
+        <v>0.313272</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>1022676260</v>
+      </c>
+      <c r="B724">
+        <v>0.3096164</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>1022671106</v>
+      </c>
+      <c r="B725">
+        <v>0.3071202</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>1022675058</v>
+      </c>
+      <c r="B726">
+        <v>0.3069429</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>1022669586</v>
+      </c>
+      <c r="B727">
+        <v>0.306268</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>1022673392</v>
+      </c>
+      <c r="B728">
+        <v>0.2995939</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>1022672853</v>
+      </c>
+      <c r="B729">
+        <v>0.2994448</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>1022669021</v>
+      </c>
+      <c r="B730">
+        <v>0.2975724</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>1022672816</v>
+      </c>
+      <c r="B731">
+        <v>0.2975576</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>1022673391</v>
+      </c>
+      <c r="B732">
+        <v>0.2942304</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>1022674103</v>
+      </c>
+      <c r="B733">
+        <v>0.2913404</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>1022671161</v>
+      </c>
+      <c r="B734">
+        <v>0.2842305</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>1022668937</v>
+      </c>
+      <c r="B735">
+        <v>0.2818023</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>1022677608</v>
+      </c>
+      <c r="B736">
+        <v>0.2815274</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>1022677768</v>
+      </c>
+      <c r="B737">
+        <v>0.278098</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>1022675249</v>
+      </c>
+      <c r="B738">
+        <v>0.2769463</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>1022672394</v>
+      </c>
+      <c r="B739">
+        <v>0.2755092</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>1022669882</v>
+      </c>
+      <c r="B740">
+        <v>0.2754903</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>1022674152</v>
+      </c>
+      <c r="B741">
+        <v>0.2679888</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>1022673838</v>
+      </c>
+      <c r="B742">
+        <v>0.26771</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>1022670379</v>
+      </c>
+      <c r="B743">
+        <v>0.2661574</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>1022677327</v>
+      </c>
+      <c r="B744">
+        <v>0.2657913</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>1022677817</v>
+      </c>
+      <c r="B745">
+        <v>0.2604994</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>1022675140</v>
+      </c>
+      <c r="B746">
+        <v>0.2572214</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>1022674810</v>
+      </c>
+      <c r="B747">
+        <v>0.2566736</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>1022671611</v>
+      </c>
+      <c r="B748">
+        <v>0.2563869</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>1022675163</v>
+      </c>
+      <c r="B749">
+        <v>0.2421893</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>1022670465</v>
+      </c>
+      <c r="B750">
+        <v>0.2406296</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>1022678504</v>
+      </c>
+      <c r="B751">
+        <v>0.2306007</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>1022672014</v>
+      </c>
+      <c r="B752">
+        <v>0.2291027</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>1022674659</v>
+      </c>
+      <c r="B753">
+        <v>0.2268367</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>1022673521</v>
+      </c>
+      <c r="B754">
+        <v>0.2260125</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>1022669052</v>
+      </c>
+      <c r="B755">
+        <v>0.2222086</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>1022672802</v>
+      </c>
+      <c r="B756">
+        <v>0.2198655</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>1022669830</v>
+      </c>
+      <c r="B757">
+        <v>0.2197721</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>1022675599</v>
+      </c>
+      <c r="B758">
+        <v>0.2187537</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>1022675239</v>
+      </c>
+      <c r="B759">
+        <v>0.218457</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>1022671465</v>
+      </c>
+      <c r="B760">
+        <v>0.2171967</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>1022673706</v>
+      </c>
+      <c r="B761">
+        <v>0.214061</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>1022670025</v>
+      </c>
+      <c r="B762">
+        <v>0.2137379</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>1022674783</v>
+      </c>
+      <c r="B763">
+        <v>0.2109932</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>1022670071</v>
+      </c>
+      <c r="B764">
+        <v>0.2104192</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>1022674115</v>
+      </c>
+      <c r="B765">
+        <v>0.2099558</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>1022672399</v>
+      </c>
+      <c r="B766">
+        <v>0.2098462</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>1022669332</v>
+      </c>
+      <c r="B767">
+        <v>0.2092513</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>1022678421</v>
+      </c>
+      <c r="B768">
+        <v>0.206564</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>1022668812</v>
+      </c>
+      <c r="B769">
+        <v>0.2058726</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>1022670360</v>
+      </c>
+      <c r="B770">
+        <v>0.2052212</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>1022671825</v>
+      </c>
+      <c r="B771">
+        <v>0.205047</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>1022675150</v>
+      </c>
+      <c r="B772">
+        <v>0.2029449</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>1022669166</v>
+      </c>
+      <c r="B773">
+        <v>0.201473</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>1022669308</v>
+      </c>
+      <c r="B774">
+        <v>0.2002711</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>1022672831</v>
+      </c>
+      <c r="B775">
+        <v>0.1993183</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>1022674517</v>
+      </c>
+      <c r="B776">
+        <v>0.1990942</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>1022678169</v>
+      </c>
+      <c r="B777">
+        <v>0.1988002</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>1022670538</v>
+      </c>
+      <c r="B778">
+        <v>0.1987814</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>1022668900</v>
+      </c>
+      <c r="B779">
+        <v>0.198659</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>1022674460</v>
+      </c>
+      <c r="B780">
+        <v>0.1951754</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>1022677051</v>
+      </c>
+      <c r="B781">
+        <v>0.1940285</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>1022674987</v>
+      </c>
+      <c r="B782">
+        <v>0.1937958</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>1022675494</v>
+      </c>
+      <c r="B783">
+        <v>0.1927397</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>1022673375</v>
+      </c>
+      <c r="B784">
+        <v>0.1924159</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>1022676477</v>
+      </c>
+      <c r="B785">
+        <v>0.1900253</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>1022678085</v>
+      </c>
+      <c r="B786">
+        <v>0.1894364</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>1022670510</v>
+      </c>
+      <c r="B787">
+        <v>0.1886447</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>1022677558</v>
+      </c>
+      <c r="B788">
+        <v>0.187615</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>1022675125</v>
+      </c>
+      <c r="B789">
+        <v>0.1811156</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>1022669552</v>
+      </c>
+      <c r="B790">
+        <v>0.1799605</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>1022670552</v>
+      </c>
+      <c r="B791">
+        <v>0.1797905</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>1022672172</v>
+      </c>
+      <c r="B792">
+        <v>0.1777444</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>1022670029</v>
+      </c>
+      <c r="B793">
+        <v>0.1777306</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>1022674662</v>
+      </c>
+      <c r="B794">
+        <v>0.1753973</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>1022673912</v>
+      </c>
+      <c r="B795">
+        <v>0.1731727</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>1022669526</v>
+      </c>
+      <c r="B796">
+        <v>0.1722087</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>1022677426</v>
+      </c>
+      <c r="B797">
+        <v>0.1714603</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>1022676289</v>
+      </c>
+      <c r="B798">
+        <v>0.1676864</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>1022669607</v>
+      </c>
+      <c r="B799">
+        <v>0.1673258</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>1022672473</v>
+      </c>
+      <c r="B800">
+        <v>0.166871</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>1022668838</v>
+      </c>
+      <c r="B801">
+        <v>0.1643946</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>1022672067</v>
+      </c>
+      <c r="B802">
+        <v>0.1642059</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>1022671425</v>
+      </c>
+      <c r="B803">
+        <v>0.1620454</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>1022674907</v>
+      </c>
+      <c r="B804">
+        <v>0.16101</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>1022673520</v>
+      </c>
+      <c r="B805">
+        <v>0.1592413</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>1022676105</v>
+      </c>
+      <c r="B806">
+        <v>0.1590948</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>1022668905</v>
+      </c>
+      <c r="B807">
+        <v>0.1587846</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>1022678200</v>
+      </c>
+      <c r="B808">
+        <v>0.1572848</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>1022668835</v>
+      </c>
+      <c r="B809">
+        <v>0.1558268</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>1022669806</v>
+      </c>
+      <c r="B810">
+        <v>0.1527904</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>1022676902</v>
+      </c>
+      <c r="B811">
+        <v>0.1504646</v>
       </c>
     </row>
   </sheetData>
